--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749416511494154</v>
+        <v>0.9749416511494161</v>
       </c>
       <c r="D2">
-        <v>0.9985623591285165</v>
+        <v>0.9985623591285172</v>
       </c>
       <c r="E2">
-        <v>0.9800370287961886</v>
+        <v>0.9800370287961889</v>
       </c>
       <c r="F2">
-        <v>0.9312870651191691</v>
+        <v>0.9312870651191698</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035788202493565</v>
       </c>
       <c r="J2">
-        <v>0.9978985872049357</v>
+        <v>0.9978985872049365</v>
       </c>
       <c r="K2">
-        <v>1.010041758974349</v>
+        <v>1.01004175897435</v>
       </c>
       <c r="L2">
-        <v>0.9917816682057352</v>
+        <v>0.9917816682057358</v>
       </c>
       <c r="M2">
-        <v>0.9437946223431372</v>
+        <v>0.9437946223431379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825837741674047</v>
+        <v>0.9825837741674035</v>
       </c>
       <c r="D3">
-        <v>1.004122374464732</v>
+        <v>1.004122374464731</v>
       </c>
       <c r="E3">
-        <v>0.9870981269430696</v>
+        <v>0.9870981269430683</v>
       </c>
       <c r="F3">
-        <v>0.9445021527520664</v>
+        <v>0.9445021527520649</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.038103554399408</v>
       </c>
       <c r="J3">
-        <v>1.003560752041819</v>
+        <v>1.003560752041818</v>
       </c>
       <c r="K3">
-        <v>1.014702779082395</v>
+        <v>1.014702779082394</v>
       </c>
       <c r="L3">
-        <v>0.9978987954753282</v>
+        <v>0.9978987954753271</v>
       </c>
       <c r="M3">
-        <v>0.9558980955359795</v>
+        <v>0.9558980955359783</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873472299357952</v>
+        <v>0.9873472299357959</v>
       </c>
       <c r="D4">
-        <v>1.007588903992286</v>
+        <v>1.007588903992287</v>
       </c>
       <c r="E4">
-        <v>0.9914959601114128</v>
+        <v>0.9914959601114136</v>
       </c>
       <c r="F4">
-        <v>0.9526730083340357</v>
+        <v>0.9526730083340367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039527800945297</v>
+        <v>1.039527800945298</v>
       </c>
       <c r="J4">
         <v>1.007080227656237</v>
       </c>
       <c r="K4">
-        <v>1.017596592432506</v>
+        <v>1.017596592432507</v>
       </c>
       <c r="L4">
-        <v>1.001698116696686</v>
+        <v>1.001698116696687</v>
       </c>
       <c r="M4">
-        <v>0.9633783075428034</v>
+        <v>0.9633783075428043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9893093716629597</v>
+        <v>0.9893093716629587</v>
       </c>
       <c r="D5">
         <v>1.009016893417245</v>
       </c>
       <c r="E5">
-        <v>0.9933068277786975</v>
+        <v>0.9933068277786966</v>
       </c>
       <c r="F5">
-        <v>0.9560251745202224</v>
+        <v>0.9560251745202211</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040109855856602</v>
+        <v>1.040109855856601</v>
       </c>
       <c r="J5">
         <v>1.008527623390256</v>
       </c>
       <c r="K5">
-        <v>1.018785795395494</v>
+        <v>1.018785795395493</v>
       </c>
       <c r="L5">
-        <v>1.003260063335594</v>
+        <v>1.003260063335593</v>
       </c>
       <c r="M5">
-        <v>0.9664462198510685</v>
+        <v>0.9664462198510675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.989636535579748</v>
+        <v>0.9896365355797486</v>
       </c>
       <c r="D6">
-        <v>1.009254994079262</v>
+        <v>1.009254994079263</v>
       </c>
       <c r="E6">
-        <v>0.9936087333916578</v>
+        <v>0.993608733391658</v>
       </c>
       <c r="F6">
-        <v>0.9565833746914626</v>
+        <v>0.9565833746914634</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.003520325156774</v>
       </c>
       <c r="M6">
-        <v>0.96695702973384</v>
+        <v>0.9669570297338403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873736032254274</v>
+        <v>0.9873736032254261</v>
       </c>
       <c r="D7">
-        <v>1.007608097595958</v>
+        <v>1.007608097595957</v>
       </c>
       <c r="E7">
-        <v>0.9915203025712506</v>
+        <v>0.9915203025712495</v>
       </c>
       <c r="F7">
-        <v>0.9527181158126399</v>
+        <v>0.9527181158126388</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039535642767667</v>
       </c>
       <c r="J7">
-        <v>1.007099691415587</v>
+        <v>1.007099691415586</v>
       </c>
       <c r="K7">
         <v>1.017612587778419</v>
       </c>
       <c r="L7">
-        <v>1.001719122790082</v>
+        <v>1.001719122790081</v>
       </c>
       <c r="M7">
-        <v>0.9634195937913084</v>
+        <v>0.9634195937913073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775638757549047</v>
+        <v>0.9775638757549034</v>
       </c>
       <c r="D8">
-        <v>1.000469877102325</v>
+        <v>1.000469877102324</v>
       </c>
       <c r="E8">
-        <v>0.9824607319519364</v>
+        <v>0.982460731951935</v>
       </c>
       <c r="F8">
-        <v>0.9358371891434304</v>
+        <v>0.9358371891434295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036586641140412</v>
+        <v>1.036586641140411</v>
       </c>
       <c r="J8">
-        <v>0.9998435429508977</v>
+        <v>0.9998435429508964</v>
       </c>
       <c r="K8">
-        <v>1.011643487363632</v>
+        <v>1.011643487363631</v>
       </c>
       <c r="L8">
-        <v>0.9938836445913092</v>
+        <v>0.993883644591308</v>
       </c>
       <c r="M8">
-        <v>0.9479626396440132</v>
+        <v>0.9479626396440123</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587276766509475</v>
+        <v>0.9587276766509473</v>
       </c>
       <c r="D9">
         <v>0.986778087051682</v>
       </c>
       <c r="E9">
-        <v>0.965026385180083</v>
+        <v>0.9650263851800827</v>
       </c>
       <c r="F9">
-        <v>0.9027344692235645</v>
+        <v>0.9027344692235638</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030770856516969</v>
       </c>
       <c r="J9">
-        <v>0.9858270480095971</v>
+        <v>0.9858270480095968</v>
       </c>
       <c r="K9">
         <v>1.000089386069786</v>
       </c>
       <c r="L9">
-        <v>0.9787135709472585</v>
+        <v>0.9787135709472581</v>
       </c>
       <c r="M9">
-        <v>0.9176308888240303</v>
+        <v>0.9176308888240297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9448550385481006</v>
+        <v>0.9448550385480994</v>
       </c>
       <c r="D10">
-        <v>0.9767162310604223</v>
+        <v>0.9767162310604212</v>
       </c>
       <c r="E10">
-        <v>0.9521401988196262</v>
+        <v>0.9521401988196246</v>
       </c>
       <c r="F10">
-        <v>0.8776171869540367</v>
+        <v>0.8776171869540347</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026386760203973</v>
       </c>
       <c r="J10">
-        <v>0.9754412942932404</v>
+        <v>0.9754412942932392</v>
       </c>
       <c r="K10">
-        <v>0.9915190036221181</v>
+        <v>0.9915190036221172</v>
       </c>
       <c r="L10">
-        <v>0.9674309050029934</v>
+        <v>0.967430905002992</v>
       </c>
       <c r="M10">
-        <v>0.8946138977205134</v>
+        <v>0.8946138977205113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9384551639310122</v>
+        <v>0.9384551639310121</v>
       </c>
       <c r="D11">
         <v>0.9720827359074657</v>
       </c>
       <c r="E11">
-        <v>0.9461778213681749</v>
+        <v>0.946177821368175</v>
       </c>
       <c r="F11">
-        <v>0.8657685110431225</v>
+        <v>0.8657685110431231</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024341215622652</v>
       </c>
       <c r="J11">
-        <v>0.9706330066696039</v>
+        <v>0.9706330066696037</v>
       </c>
       <c r="K11">
-        <v>0.9875510597831468</v>
+        <v>0.9875510597831471</v>
       </c>
       <c r="L11">
-        <v>0.9621915031882442</v>
+        <v>0.9621915031882444</v>
       </c>
       <c r="M11">
-        <v>0.8837595584023081</v>
+        <v>0.8837595584023086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.936009907358988</v>
+        <v>0.9360099073589861</v>
       </c>
       <c r="D12">
-        <v>0.9703139346116586</v>
+        <v>0.9703139346116572</v>
       </c>
       <c r="E12">
-        <v>0.9438962657793307</v>
+        <v>0.9438962657793291</v>
       </c>
       <c r="F12">
-        <v>0.8611919394776949</v>
+        <v>0.861191939477693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02355627759133</v>
+        <v>1.023556277591329</v>
       </c>
       <c r="J12">
-        <v>0.968793029917711</v>
+        <v>0.9687930299177094</v>
       </c>
       <c r="K12">
-        <v>0.9860328627439916</v>
+        <v>0.9860328627439904</v>
       </c>
       <c r="L12">
-        <v>0.9601834876257317</v>
+        <v>0.9601834876257302</v>
       </c>
       <c r="M12">
-        <v>0.8795680684506755</v>
+        <v>0.8795680684506737</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9365376734437054</v>
+        <v>0.9365376734437046</v>
       </c>
       <c r="D13">
-        <v>0.9706956240496876</v>
+        <v>0.970695624049687</v>
       </c>
       <c r="E13">
-        <v>0.9443888717730552</v>
+        <v>0.9443888717730546</v>
       </c>
       <c r="F13">
-        <v>0.8621821388033399</v>
+        <v>0.8621821388033387</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023725843823574</v>
       </c>
       <c r="J13">
-        <v>0.9691902901017801</v>
+        <v>0.9691902901017795</v>
       </c>
       <c r="K13">
-        <v>0.9863606355679254</v>
+        <v>0.9863606355679247</v>
       </c>
       <c r="L13">
-        <v>0.9606171794282445</v>
+        <v>0.9606171794282439</v>
       </c>
       <c r="M13">
-        <v>0.880474895415932</v>
+        <v>0.8804748954159309</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9382544871300692</v>
+        <v>0.9382544871300702</v>
       </c>
       <c r="D14">
-        <v>0.9719375409017535</v>
+        <v>0.9719375409017544</v>
       </c>
       <c r="E14">
-        <v>0.9459906546978771</v>
+        <v>0.9459906546978784</v>
       </c>
       <c r="F14">
-        <v>0.8653939910259075</v>
+        <v>0.8653939910259084</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024276865340137</v>
       </c>
       <c r="J14">
-        <v>0.9704820630511168</v>
+        <v>0.9704820630511179</v>
       </c>
       <c r="K14">
-        <v>0.9874265078980955</v>
+        <v>0.9874265078980965</v>
       </c>
       <c r="L14">
-        <v>0.9620268409461217</v>
+        <v>0.9620268409461227</v>
       </c>
       <c r="M14">
-        <v>0.8834165274660088</v>
+        <v>0.8834165274660097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9393029451937909</v>
+        <v>0.9393029451937904</v>
       </c>
       <c r="D15">
-        <v>0.9726961932217797</v>
+        <v>0.9726961932217789</v>
       </c>
       <c r="E15">
-        <v>0.9469683821071355</v>
+        <v>0.9469683821071349</v>
       </c>
       <c r="F15">
-        <v>0.8673486423684309</v>
+        <v>0.8673486423684307</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024612934184888</v>
       </c>
       <c r="J15">
-        <v>0.9712705680877377</v>
+        <v>0.9712705680877372</v>
       </c>
       <c r="K15">
-        <v>0.9880771566375729</v>
+        <v>0.9880771566375721</v>
       </c>
       <c r="L15">
-        <v>0.9628868813135462</v>
+        <v>0.9628868813135453</v>
       </c>
       <c r="M15">
-        <v>0.8852068788653688</v>
+        <v>0.8852068788653685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.94527077818349</v>
+        <v>0.9452707781834911</v>
       </c>
       <c r="D16">
-        <v>0.9770174214743501</v>
+        <v>0.9770174214743511</v>
       </c>
       <c r="E16">
-        <v>0.9525270955569342</v>
+        <v>0.9525270955569352</v>
       </c>
       <c r="F16">
         <v>0.8783807416554222</v>
@@ -971,13 +971,13 @@
         <v>1.026519174346793</v>
       </c>
       <c r="J16">
-        <v>0.9757532737103872</v>
+        <v>0.9757532737103882</v>
       </c>
       <c r="K16">
-        <v>0.9917764736088974</v>
+        <v>0.9917764736088983</v>
       </c>
       <c r="L16">
-        <v>0.9677704791690681</v>
+        <v>0.9677704791690691</v>
       </c>
       <c r="M16">
         <v>0.8953134842386896</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9489033360365967</v>
+        <v>0.9489033360365964</v>
       </c>
       <c r="D17">
-        <v>0.9796500606608634</v>
+        <v>0.9796500606608631</v>
       </c>
       <c r="E17">
-        <v>0.9559056062463983</v>
+        <v>0.9559056062463978</v>
       </c>
       <c r="F17">
-        <v>0.8850223207241136</v>
+        <v>0.8850223207241138</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027673593622074</v>
       </c>
       <c r="J17">
-        <v>0.978477297834949</v>
+        <v>0.9784772978349487</v>
       </c>
       <c r="K17">
-        <v>0.9940245609949221</v>
+        <v>0.9940245609949218</v>
       </c>
       <c r="L17">
-        <v>0.9707336169489008</v>
+        <v>0.9707336169489005</v>
       </c>
       <c r="M17">
-        <v>0.9013990867570526</v>
+        <v>0.9013990867570528</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,31 +1032,31 @@
         <v>0.9509849432024273</v>
       </c>
       <c r="D18">
-        <v>0.9811594265122425</v>
+        <v>0.981159426512242</v>
       </c>
       <c r="E18">
-        <v>0.957840064715049</v>
+        <v>0.9578400647150487</v>
       </c>
       <c r="F18">
-        <v>0.8888047441111601</v>
+        <v>0.8888047441111603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028332981571202</v>
+        <v>1.028332981571201</v>
       </c>
       <c r="J18">
-        <v>0.9800367192354162</v>
+        <v>0.9800367192354161</v>
       </c>
       <c r="K18">
-        <v>0.9953114956507441</v>
+        <v>0.9953114956507436</v>
       </c>
       <c r="L18">
-        <v>0.9724285049583989</v>
+        <v>0.9724285049583988</v>
       </c>
       <c r="M18">
-        <v>0.9048651674904905</v>
+        <v>0.9048651674904906</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1076,7 +1076,7 @@
         <v>0.9584937769397555</v>
       </c>
       <c r="F19">
-        <v>0.890079689612463</v>
+        <v>0.8900796896124622</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028555526898574</v>
       </c>
       <c r="J19">
-        <v>0.9805636358151032</v>
+        <v>0.9805636358151034</v>
       </c>
       <c r="K19">
         <v>0.9957463306235631</v>
       </c>
       <c r="L19">
-        <v>0.9730009708857255</v>
+        <v>0.9730009708857253</v>
       </c>
       <c r="M19">
-        <v>0.9060335203942821</v>
+        <v>0.9060335203942813</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,31 +1108,31 @@
         <v>0.948517503168567</v>
       </c>
       <c r="D20">
-        <v>0.979370353847581</v>
+        <v>0.9793703538475805</v>
       </c>
       <c r="E20">
-        <v>0.9555469253309881</v>
+        <v>0.955546925330988</v>
       </c>
       <c r="F20">
-        <v>0.8843193908457874</v>
+        <v>0.8843193908457867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027551199273252</v>
+        <v>1.027551199273253</v>
       </c>
       <c r="J20">
-        <v>0.9781881289080943</v>
+        <v>0.978188128908094</v>
       </c>
       <c r="K20">
-        <v>0.9937859165946238</v>
+        <v>0.9937859165946237</v>
       </c>
       <c r="L20">
-        <v>0.970419216853704</v>
+        <v>0.9704192168537037</v>
       </c>
       <c r="M20">
-        <v>0.9007549670470899</v>
+        <v>0.9007549670470893</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.937750891156334</v>
+        <v>0.9377508911563344</v>
       </c>
       <c r="D21">
-        <v>0.9715732019217272</v>
+        <v>0.9715732019217276</v>
       </c>
       <c r="E21">
-        <v>0.9455209035088694</v>
+        <v>0.9455209035088702</v>
       </c>
       <c r="F21">
-        <v>0.8644533043284809</v>
+        <v>0.8644533043284817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024115325167269</v>
+        <v>1.02411532516727</v>
       </c>
       <c r="J21">
-        <v>0.9701032253389467</v>
+        <v>0.9701032253389476</v>
       </c>
       <c r="K21">
-        <v>0.9871139122363302</v>
+        <v>0.9871139122363306</v>
       </c>
       <c r="L21">
-        <v>0.9616135204691433</v>
+        <v>0.9616135204691439</v>
       </c>
       <c r="M21">
-        <v>0.8825549504594057</v>
+        <v>0.8825549504594061</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,31 +1184,31 @@
         <v>0.9305813676788683</v>
       </c>
       <c r="D22">
-        <v>0.9663904092530573</v>
+        <v>0.9663904092530576</v>
       </c>
       <c r="E22">
-        <v>0.9388235524583288</v>
+        <v>0.9388235524583285</v>
       </c>
       <c r="F22">
-        <v>0.8509256743820145</v>
+        <v>0.8509256743820148</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021807513813453</v>
+        <v>1.021807513813452</v>
       </c>
       <c r="J22">
-        <v>0.9647025635841445</v>
+        <v>0.9647025635841446</v>
       </c>
       <c r="K22">
-        <v>0.9826584337600314</v>
+        <v>0.9826584337600315</v>
       </c>
       <c r="L22">
-        <v>0.955712809336584</v>
+        <v>0.9557128093365836</v>
       </c>
       <c r="M22">
-        <v>0.8701682070920953</v>
+        <v>0.8701682070920955</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344236679036307</v>
+        <v>0.9344236679036322</v>
       </c>
       <c r="D23">
-        <v>0.9691669934685549</v>
+        <v>0.9691669934685562</v>
       </c>
       <c r="E23">
-        <v>0.9424151155860151</v>
+        <v>0.9424151155860162</v>
       </c>
       <c r="F23">
-        <v>0.8582075933518846</v>
+        <v>0.8582075933518857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023046144307874</v>
+        <v>1.023046144307875</v>
       </c>
       <c r="J23">
-        <v>0.9675985922416656</v>
+        <v>0.9675985922416668</v>
       </c>
       <c r="K23">
-        <v>0.9850474028190745</v>
+        <v>0.9850474028190757</v>
       </c>
       <c r="L23">
-        <v>0.9588789971477749</v>
+        <v>0.958878997147776</v>
       </c>
       <c r="M23">
-        <v>0.8768351922803678</v>
+        <v>0.8768351922803688</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9486919587432652</v>
+        <v>0.9486919587432653</v>
       </c>
       <c r="D24">
-        <v>0.9794968218600513</v>
+        <v>0.9794968218600514</v>
       </c>
       <c r="E24">
-        <v>0.9557091088912992</v>
+        <v>0.9557091088912999</v>
       </c>
       <c r="F24">
-        <v>0.8846372952402156</v>
+        <v>0.8846372952402171</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027606546948525</v>
       </c>
       <c r="J24">
-        <v>0.978318882402073</v>
+        <v>0.9783188824020731</v>
       </c>
       <c r="K24">
-        <v>0.9938938245179917</v>
+        <v>0.9938938245179918</v>
       </c>
       <c r="L24">
-        <v>0.9705613834945324</v>
+        <v>0.9705613834945327</v>
       </c>
       <c r="M24">
-        <v>0.901046273307449</v>
+        <v>0.9010462733074501</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638060172985571</v>
+        <v>0.9638060172985548</v>
       </c>
       <c r="D25">
-        <v>0.9904666777303545</v>
+        <v>0.9904666777303522</v>
       </c>
       <c r="E25">
-        <v>0.9697328383814596</v>
+        <v>0.9697328383814569</v>
       </c>
       <c r="F25">
-        <v>0.9117609111793593</v>
+        <v>0.9117609111793555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032356053493106</v>
+        <v>1.032356053493105</v>
       </c>
       <c r="J25">
-        <v>0.989616015101765</v>
+        <v>0.9896160151017626</v>
       </c>
       <c r="K25">
-        <v>1.003214811235845</v>
+        <v>1.003214811235843</v>
       </c>
       <c r="L25">
-        <v>0.9828199174662652</v>
+        <v>0.9828199174662625</v>
       </c>
       <c r="M25">
-        <v>0.9259031412541073</v>
+        <v>0.9259031412541037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749416511494161</v>
+        <v>0.9749416511494154</v>
       </c>
       <c r="D2">
-        <v>0.9985623591285172</v>
+        <v>0.9985623591285165</v>
       </c>
       <c r="E2">
-        <v>0.9800370287961889</v>
+        <v>0.9800370287961886</v>
       </c>
       <c r="F2">
-        <v>0.9312870651191698</v>
+        <v>0.9312870651191691</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035788202493565</v>
       </c>
       <c r="J2">
-        <v>0.9978985872049365</v>
+        <v>0.9978985872049357</v>
       </c>
       <c r="K2">
-        <v>1.01004175897435</v>
+        <v>1.010041758974349</v>
       </c>
       <c r="L2">
-        <v>0.9917816682057358</v>
+        <v>0.9917816682057352</v>
       </c>
       <c r="M2">
-        <v>0.9437946223431379</v>
+        <v>0.9437946223431372</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825837741674035</v>
+        <v>0.9825837741674047</v>
       </c>
       <c r="D3">
-        <v>1.004122374464731</v>
+        <v>1.004122374464732</v>
       </c>
       <c r="E3">
-        <v>0.9870981269430683</v>
+        <v>0.9870981269430696</v>
       </c>
       <c r="F3">
-        <v>0.9445021527520649</v>
+        <v>0.9445021527520664</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.038103554399408</v>
       </c>
       <c r="J3">
-        <v>1.003560752041818</v>
+        <v>1.003560752041819</v>
       </c>
       <c r="K3">
-        <v>1.014702779082394</v>
+        <v>1.014702779082395</v>
       </c>
       <c r="L3">
-        <v>0.9978987954753271</v>
+        <v>0.9978987954753282</v>
       </c>
       <c r="M3">
-        <v>0.9558980955359783</v>
+        <v>0.9558980955359795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873472299357959</v>
+        <v>0.9873472299357952</v>
       </c>
       <c r="D4">
-        <v>1.007588903992287</v>
+        <v>1.007588903992286</v>
       </c>
       <c r="E4">
-        <v>0.9914959601114136</v>
+        <v>0.9914959601114128</v>
       </c>
       <c r="F4">
-        <v>0.9526730083340367</v>
+        <v>0.9526730083340357</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039527800945298</v>
+        <v>1.039527800945297</v>
       </c>
       <c r="J4">
         <v>1.007080227656237</v>
       </c>
       <c r="K4">
-        <v>1.017596592432507</v>
+        <v>1.017596592432506</v>
       </c>
       <c r="L4">
-        <v>1.001698116696687</v>
+        <v>1.001698116696686</v>
       </c>
       <c r="M4">
-        <v>0.9633783075428043</v>
+        <v>0.9633783075428034</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9893093716629587</v>
+        <v>0.9893093716629597</v>
       </c>
       <c r="D5">
         <v>1.009016893417245</v>
       </c>
       <c r="E5">
-        <v>0.9933068277786966</v>
+        <v>0.9933068277786975</v>
       </c>
       <c r="F5">
-        <v>0.9560251745202211</v>
+        <v>0.9560251745202224</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040109855856601</v>
+        <v>1.040109855856602</v>
       </c>
       <c r="J5">
         <v>1.008527623390256</v>
       </c>
       <c r="K5">
-        <v>1.018785795395493</v>
+        <v>1.018785795395494</v>
       </c>
       <c r="L5">
-        <v>1.003260063335593</v>
+        <v>1.003260063335594</v>
       </c>
       <c r="M5">
-        <v>0.9664462198510675</v>
+        <v>0.9664462198510685</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9896365355797486</v>
+        <v>0.989636535579748</v>
       </c>
       <c r="D6">
-        <v>1.009254994079263</v>
+        <v>1.009254994079262</v>
       </c>
       <c r="E6">
-        <v>0.993608733391658</v>
+        <v>0.9936087333916578</v>
       </c>
       <c r="F6">
-        <v>0.9565833746914634</v>
+        <v>0.9565833746914626</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1.003520325156774</v>
       </c>
       <c r="M6">
-        <v>0.9669570297338403</v>
+        <v>0.96695702973384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873736032254261</v>
+        <v>0.9873736032254274</v>
       </c>
       <c r="D7">
-        <v>1.007608097595957</v>
+        <v>1.007608097595958</v>
       </c>
       <c r="E7">
-        <v>0.9915203025712495</v>
+        <v>0.9915203025712506</v>
       </c>
       <c r="F7">
-        <v>0.9527181158126388</v>
+        <v>0.9527181158126399</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.039535642767667</v>
       </c>
       <c r="J7">
-        <v>1.007099691415586</v>
+        <v>1.007099691415587</v>
       </c>
       <c r="K7">
         <v>1.017612587778419</v>
       </c>
       <c r="L7">
-        <v>1.001719122790081</v>
+        <v>1.001719122790082</v>
       </c>
       <c r="M7">
-        <v>0.9634195937913073</v>
+        <v>0.9634195937913084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775638757549034</v>
+        <v>0.9775638757549047</v>
       </c>
       <c r="D8">
-        <v>1.000469877102324</v>
+        <v>1.000469877102325</v>
       </c>
       <c r="E8">
-        <v>0.982460731951935</v>
+        <v>0.9824607319519364</v>
       </c>
       <c r="F8">
-        <v>0.9358371891434295</v>
+        <v>0.9358371891434304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036586641140411</v>
+        <v>1.036586641140412</v>
       </c>
       <c r="J8">
-        <v>0.9998435429508964</v>
+        <v>0.9998435429508977</v>
       </c>
       <c r="K8">
-        <v>1.011643487363631</v>
+        <v>1.011643487363632</v>
       </c>
       <c r="L8">
-        <v>0.993883644591308</v>
+        <v>0.9938836445913092</v>
       </c>
       <c r="M8">
-        <v>0.9479626396440123</v>
+        <v>0.9479626396440132</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587276766509473</v>
+        <v>0.9587276766509475</v>
       </c>
       <c r="D9">
         <v>0.986778087051682</v>
       </c>
       <c r="E9">
-        <v>0.9650263851800827</v>
+        <v>0.965026385180083</v>
       </c>
       <c r="F9">
-        <v>0.9027344692235638</v>
+        <v>0.9027344692235645</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030770856516969</v>
       </c>
       <c r="J9">
-        <v>0.9858270480095968</v>
+        <v>0.9858270480095971</v>
       </c>
       <c r="K9">
         <v>1.000089386069786</v>
       </c>
       <c r="L9">
-        <v>0.9787135709472581</v>
+        <v>0.9787135709472585</v>
       </c>
       <c r="M9">
-        <v>0.9176308888240297</v>
+        <v>0.9176308888240303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9448550385480994</v>
+        <v>0.9448550385481006</v>
       </c>
       <c r="D10">
-        <v>0.9767162310604212</v>
+        <v>0.9767162310604223</v>
       </c>
       <c r="E10">
-        <v>0.9521401988196246</v>
+        <v>0.9521401988196262</v>
       </c>
       <c r="F10">
-        <v>0.8776171869540347</v>
+        <v>0.8776171869540367</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.026386760203973</v>
       </c>
       <c r="J10">
-        <v>0.9754412942932392</v>
+        <v>0.9754412942932404</v>
       </c>
       <c r="K10">
-        <v>0.9915190036221172</v>
+        <v>0.9915190036221181</v>
       </c>
       <c r="L10">
-        <v>0.967430905002992</v>
+        <v>0.9674309050029934</v>
       </c>
       <c r="M10">
-        <v>0.8946138977205113</v>
+        <v>0.8946138977205134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9384551639310121</v>
+        <v>0.9384551639310122</v>
       </c>
       <c r="D11">
         <v>0.9720827359074657</v>
       </c>
       <c r="E11">
-        <v>0.946177821368175</v>
+        <v>0.9461778213681749</v>
       </c>
       <c r="F11">
-        <v>0.8657685110431231</v>
+        <v>0.8657685110431225</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.024341215622652</v>
       </c>
       <c r="J11">
-        <v>0.9706330066696037</v>
+        <v>0.9706330066696039</v>
       </c>
       <c r="K11">
-        <v>0.9875510597831471</v>
+        <v>0.9875510597831468</v>
       </c>
       <c r="L11">
-        <v>0.9621915031882444</v>
+        <v>0.9621915031882442</v>
       </c>
       <c r="M11">
-        <v>0.8837595584023086</v>
+        <v>0.8837595584023081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9360099073589861</v>
+        <v>0.936009907358988</v>
       </c>
       <c r="D12">
-        <v>0.9703139346116572</v>
+        <v>0.9703139346116586</v>
       </c>
       <c r="E12">
-        <v>0.9438962657793291</v>
+        <v>0.9438962657793307</v>
       </c>
       <c r="F12">
-        <v>0.861191939477693</v>
+        <v>0.8611919394776949</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023556277591329</v>
+        <v>1.02355627759133</v>
       </c>
       <c r="J12">
-        <v>0.9687930299177094</v>
+        <v>0.968793029917711</v>
       </c>
       <c r="K12">
-        <v>0.9860328627439904</v>
+        <v>0.9860328627439916</v>
       </c>
       <c r="L12">
-        <v>0.9601834876257302</v>
+        <v>0.9601834876257317</v>
       </c>
       <c r="M12">
-        <v>0.8795680684506737</v>
+        <v>0.8795680684506755</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9365376734437046</v>
+        <v>0.9365376734437054</v>
       </c>
       <c r="D13">
-        <v>0.970695624049687</v>
+        <v>0.9706956240496876</v>
       </c>
       <c r="E13">
-        <v>0.9443888717730546</v>
+        <v>0.9443888717730552</v>
       </c>
       <c r="F13">
-        <v>0.8621821388033387</v>
+        <v>0.8621821388033399</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.023725843823574</v>
       </c>
       <c r="J13">
-        <v>0.9691902901017795</v>
+        <v>0.9691902901017801</v>
       </c>
       <c r="K13">
-        <v>0.9863606355679247</v>
+        <v>0.9863606355679254</v>
       </c>
       <c r="L13">
-        <v>0.9606171794282439</v>
+        <v>0.9606171794282445</v>
       </c>
       <c r="M13">
-        <v>0.8804748954159309</v>
+        <v>0.880474895415932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9382544871300702</v>
+        <v>0.9382544871300692</v>
       </c>
       <c r="D14">
-        <v>0.9719375409017544</v>
+        <v>0.9719375409017535</v>
       </c>
       <c r="E14">
-        <v>0.9459906546978784</v>
+        <v>0.9459906546978771</v>
       </c>
       <c r="F14">
-        <v>0.8653939910259084</v>
+        <v>0.8653939910259075</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.024276865340137</v>
       </c>
       <c r="J14">
-        <v>0.9704820630511179</v>
+        <v>0.9704820630511168</v>
       </c>
       <c r="K14">
-        <v>0.9874265078980965</v>
+        <v>0.9874265078980955</v>
       </c>
       <c r="L14">
-        <v>0.9620268409461227</v>
+        <v>0.9620268409461217</v>
       </c>
       <c r="M14">
-        <v>0.8834165274660097</v>
+        <v>0.8834165274660088</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9393029451937904</v>
+        <v>0.9393029451937909</v>
       </c>
       <c r="D15">
-        <v>0.9726961932217789</v>
+        <v>0.9726961932217797</v>
       </c>
       <c r="E15">
-        <v>0.9469683821071349</v>
+        <v>0.9469683821071355</v>
       </c>
       <c r="F15">
-        <v>0.8673486423684307</v>
+        <v>0.8673486423684309</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024612934184888</v>
       </c>
       <c r="J15">
-        <v>0.9712705680877372</v>
+        <v>0.9712705680877377</v>
       </c>
       <c r="K15">
-        <v>0.9880771566375721</v>
+        <v>0.9880771566375729</v>
       </c>
       <c r="L15">
-        <v>0.9628868813135453</v>
+        <v>0.9628868813135462</v>
       </c>
       <c r="M15">
-        <v>0.8852068788653685</v>
+        <v>0.8852068788653688</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9452707781834911</v>
+        <v>0.94527077818349</v>
       </c>
       <c r="D16">
-        <v>0.9770174214743511</v>
+        <v>0.9770174214743501</v>
       </c>
       <c r="E16">
-        <v>0.9525270955569352</v>
+        <v>0.9525270955569342</v>
       </c>
       <c r="F16">
         <v>0.8783807416554222</v>
@@ -971,13 +971,13 @@
         <v>1.026519174346793</v>
       </c>
       <c r="J16">
-        <v>0.9757532737103882</v>
+        <v>0.9757532737103872</v>
       </c>
       <c r="K16">
-        <v>0.9917764736088983</v>
+        <v>0.9917764736088974</v>
       </c>
       <c r="L16">
-        <v>0.9677704791690691</v>
+        <v>0.9677704791690681</v>
       </c>
       <c r="M16">
         <v>0.8953134842386896</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9489033360365964</v>
+        <v>0.9489033360365967</v>
       </c>
       <c r="D17">
-        <v>0.9796500606608631</v>
+        <v>0.9796500606608634</v>
       </c>
       <c r="E17">
-        <v>0.9559056062463978</v>
+        <v>0.9559056062463983</v>
       </c>
       <c r="F17">
-        <v>0.8850223207241138</v>
+        <v>0.8850223207241136</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.027673593622074</v>
       </c>
       <c r="J17">
-        <v>0.9784772978349487</v>
+        <v>0.978477297834949</v>
       </c>
       <c r="K17">
-        <v>0.9940245609949218</v>
+        <v>0.9940245609949221</v>
       </c>
       <c r="L17">
-        <v>0.9707336169489005</v>
+        <v>0.9707336169489008</v>
       </c>
       <c r="M17">
-        <v>0.9013990867570528</v>
+        <v>0.9013990867570526</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1032,31 +1032,31 @@
         <v>0.9509849432024273</v>
       </c>
       <c r="D18">
-        <v>0.981159426512242</v>
+        <v>0.9811594265122425</v>
       </c>
       <c r="E18">
-        <v>0.9578400647150487</v>
+        <v>0.957840064715049</v>
       </c>
       <c r="F18">
-        <v>0.8888047441111603</v>
+        <v>0.8888047441111601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028332981571201</v>
+        <v>1.028332981571202</v>
       </c>
       <c r="J18">
-        <v>0.9800367192354161</v>
+        <v>0.9800367192354162</v>
       </c>
       <c r="K18">
-        <v>0.9953114956507436</v>
+        <v>0.9953114956507441</v>
       </c>
       <c r="L18">
-        <v>0.9724285049583988</v>
+        <v>0.9724285049583989</v>
       </c>
       <c r="M18">
-        <v>0.9048651674904906</v>
+        <v>0.9048651674904905</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1076,7 +1076,7 @@
         <v>0.9584937769397555</v>
       </c>
       <c r="F19">
-        <v>0.8900796896124622</v>
+        <v>0.890079689612463</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028555526898574</v>
       </c>
       <c r="J19">
-        <v>0.9805636358151034</v>
+        <v>0.9805636358151032</v>
       </c>
       <c r="K19">
         <v>0.9957463306235631</v>
       </c>
       <c r="L19">
-        <v>0.9730009708857253</v>
+        <v>0.9730009708857255</v>
       </c>
       <c r="M19">
-        <v>0.9060335203942813</v>
+        <v>0.9060335203942821</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,31 +1108,31 @@
         <v>0.948517503168567</v>
       </c>
       <c r="D20">
-        <v>0.9793703538475805</v>
+        <v>0.979370353847581</v>
       </c>
       <c r="E20">
-        <v>0.955546925330988</v>
+        <v>0.9555469253309881</v>
       </c>
       <c r="F20">
-        <v>0.8843193908457867</v>
+        <v>0.8843193908457874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027551199273253</v>
+        <v>1.027551199273252</v>
       </c>
       <c r="J20">
-        <v>0.978188128908094</v>
+        <v>0.9781881289080943</v>
       </c>
       <c r="K20">
-        <v>0.9937859165946237</v>
+        <v>0.9937859165946238</v>
       </c>
       <c r="L20">
-        <v>0.9704192168537037</v>
+        <v>0.970419216853704</v>
       </c>
       <c r="M20">
-        <v>0.9007549670470893</v>
+        <v>0.9007549670470899</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9377508911563344</v>
+        <v>0.937750891156334</v>
       </c>
       <c r="D21">
-        <v>0.9715732019217276</v>
+        <v>0.9715732019217272</v>
       </c>
       <c r="E21">
-        <v>0.9455209035088702</v>
+        <v>0.9455209035088694</v>
       </c>
       <c r="F21">
-        <v>0.8644533043284817</v>
+        <v>0.8644533043284809</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02411532516727</v>
+        <v>1.024115325167269</v>
       </c>
       <c r="J21">
-        <v>0.9701032253389476</v>
+        <v>0.9701032253389467</v>
       </c>
       <c r="K21">
-        <v>0.9871139122363306</v>
+        <v>0.9871139122363302</v>
       </c>
       <c r="L21">
-        <v>0.9616135204691439</v>
+        <v>0.9616135204691433</v>
       </c>
       <c r="M21">
-        <v>0.8825549504594061</v>
+        <v>0.8825549504594057</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,31 +1184,31 @@
         <v>0.9305813676788683</v>
       </c>
       <c r="D22">
-        <v>0.9663904092530576</v>
+        <v>0.9663904092530573</v>
       </c>
       <c r="E22">
-        <v>0.9388235524583285</v>
+        <v>0.9388235524583288</v>
       </c>
       <c r="F22">
-        <v>0.8509256743820148</v>
+        <v>0.8509256743820145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021807513813452</v>
+        <v>1.021807513813453</v>
       </c>
       <c r="J22">
-        <v>0.9647025635841446</v>
+        <v>0.9647025635841445</v>
       </c>
       <c r="K22">
-        <v>0.9826584337600315</v>
+        <v>0.9826584337600314</v>
       </c>
       <c r="L22">
-        <v>0.9557128093365836</v>
+        <v>0.955712809336584</v>
       </c>
       <c r="M22">
-        <v>0.8701682070920955</v>
+        <v>0.8701682070920953</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344236679036322</v>
+        <v>0.9344236679036307</v>
       </c>
       <c r="D23">
-        <v>0.9691669934685562</v>
+        <v>0.9691669934685549</v>
       </c>
       <c r="E23">
-        <v>0.9424151155860162</v>
+        <v>0.9424151155860151</v>
       </c>
       <c r="F23">
-        <v>0.8582075933518857</v>
+        <v>0.8582075933518846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023046144307875</v>
+        <v>1.023046144307874</v>
       </c>
       <c r="J23">
-        <v>0.9675985922416668</v>
+        <v>0.9675985922416656</v>
       </c>
       <c r="K23">
-        <v>0.9850474028190757</v>
+        <v>0.9850474028190745</v>
       </c>
       <c r="L23">
-        <v>0.958878997147776</v>
+        <v>0.9588789971477749</v>
       </c>
       <c r="M23">
-        <v>0.8768351922803688</v>
+        <v>0.8768351922803678</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9486919587432653</v>
+        <v>0.9486919587432652</v>
       </c>
       <c r="D24">
-        <v>0.9794968218600514</v>
+        <v>0.9794968218600513</v>
       </c>
       <c r="E24">
-        <v>0.9557091088912999</v>
+        <v>0.9557091088912992</v>
       </c>
       <c r="F24">
-        <v>0.8846372952402171</v>
+        <v>0.8846372952402156</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.027606546948525</v>
       </c>
       <c r="J24">
-        <v>0.9783188824020731</v>
+        <v>0.978318882402073</v>
       </c>
       <c r="K24">
-        <v>0.9938938245179918</v>
+        <v>0.9938938245179917</v>
       </c>
       <c r="L24">
-        <v>0.9705613834945327</v>
+        <v>0.9705613834945324</v>
       </c>
       <c r="M24">
-        <v>0.9010462733074501</v>
+        <v>0.901046273307449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638060172985548</v>
+        <v>0.9638060172985571</v>
       </c>
       <c r="D25">
-        <v>0.9904666777303522</v>
+        <v>0.9904666777303545</v>
       </c>
       <c r="E25">
-        <v>0.9697328383814569</v>
+        <v>0.9697328383814596</v>
       </c>
       <c r="F25">
-        <v>0.9117609111793555</v>
+        <v>0.9117609111793593</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032356053493105</v>
+        <v>1.032356053493106</v>
       </c>
       <c r="J25">
-        <v>0.9896160151017626</v>
+        <v>0.989616015101765</v>
       </c>
       <c r="K25">
-        <v>1.003214811235843</v>
+        <v>1.003214811235845</v>
       </c>
       <c r="L25">
-        <v>0.9828199174662625</v>
+        <v>0.9828199174662652</v>
       </c>
       <c r="M25">
-        <v>0.9259031412541037</v>
+        <v>0.9259031412541073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749416511494154</v>
+        <v>0.9749563851566593</v>
       </c>
       <c r="D2">
-        <v>0.9985623591285165</v>
+        <v>0.9985736994822554</v>
       </c>
       <c r="E2">
-        <v>0.9800370287961886</v>
+        <v>0.9800505500062709</v>
       </c>
       <c r="F2">
-        <v>0.9312870651191691</v>
+        <v>0.9313022371709165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035788202493565</v>
+        <v>1.035793954925239</v>
       </c>
       <c r="J2">
-        <v>0.9978985872049357</v>
+        <v>0.9979128485434896</v>
       </c>
       <c r="K2">
-        <v>1.010041758974349</v>
+        <v>1.010052940766394</v>
       </c>
       <c r="L2">
-        <v>0.9917816682057352</v>
+        <v>0.9917949911826607</v>
       </c>
       <c r="M2">
-        <v>0.9437946223431372</v>
+        <v>0.9438095409514806</v>
+      </c>
+      <c r="N2">
+        <v>1.000668467456852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825837741674047</v>
+        <v>0.9825944822953903</v>
       </c>
       <c r="D3">
-        <v>1.004122374464732</v>
+        <v>1.004130672115317</v>
       </c>
       <c r="E3">
-        <v>0.9870981269430696</v>
+        <v>0.9871080400800352</v>
       </c>
       <c r="F3">
-        <v>0.9445021527520664</v>
+        <v>0.9445131235460198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038103554399408</v>
+        <v>1.038107768549313</v>
       </c>
       <c r="J3">
-        <v>1.003560752041819</v>
+        <v>1.003571153913982</v>
       </c>
       <c r="K3">
-        <v>1.014702779082395</v>
+        <v>1.014710971649569</v>
       </c>
       <c r="L3">
-        <v>0.9978987954753282</v>
+        <v>0.9979085775810789</v>
       </c>
       <c r="M3">
-        <v>0.9558980955359795</v>
+        <v>0.9559089042351471</v>
+      </c>
+      <c r="N3">
+        <v>1.004544668184131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873472299357952</v>
+        <v>0.9873554852878615</v>
       </c>
       <c r="D4">
-        <v>1.007588903992286</v>
+        <v>1.007595342888735</v>
       </c>
       <c r="E4">
-        <v>0.9914959601114128</v>
+        <v>0.99150367742511</v>
       </c>
       <c r="F4">
-        <v>0.9526730083340357</v>
+        <v>0.9526814804125976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039527800945297</v>
+        <v>1.039531073656929</v>
       </c>
       <c r="J4">
-        <v>1.007080227656237</v>
+        <v>1.007088264424704</v>
       </c>
       <c r="K4">
-        <v>1.017596592432506</v>
+        <v>1.017602955061446</v>
       </c>
       <c r="L4">
-        <v>1.001698116696686</v>
+        <v>1.001705738871475</v>
       </c>
       <c r="M4">
-        <v>0.9633783075428034</v>
+        <v>0.9633866641953602</v>
+      </c>
+      <c r="N4">
+        <v>1.006953114649223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9893093716629597</v>
+        <v>0.9893166284484377</v>
       </c>
       <c r="D5">
-        <v>1.009016893417245</v>
+        <v>1.009022574532278</v>
       </c>
       <c r="E5">
-        <v>0.9933068277786975</v>
+        <v>0.9933136516355704</v>
       </c>
       <c r="F5">
-        <v>0.9560251745202224</v>
+        <v>0.9560326417726454</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040109855856602</v>
+        <v>1.04011274436253</v>
       </c>
       <c r="J5">
-        <v>1.008527623390256</v>
+        <v>1.008534694300239</v>
       </c>
       <c r="K5">
-        <v>1.018785795395494</v>
+        <v>1.018791411133681</v>
       </c>
       <c r="L5">
-        <v>1.003260063335594</v>
+        <v>1.003266805555372</v>
       </c>
       <c r="M5">
-        <v>0.9664462198510685</v>
+        <v>0.9664535888262321</v>
+      </c>
+      <c r="N5">
+        <v>1.007943356568986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.989636535579748</v>
+        <v>0.9896436265108178</v>
       </c>
       <c r="D6">
-        <v>1.009254994079262</v>
+        <v>1.009260549274466</v>
       </c>
       <c r="E6">
-        <v>0.9936087333916578</v>
+        <v>0.993615408879735</v>
       </c>
       <c r="F6">
-        <v>0.9565833746914626</v>
+        <v>0.956590675727046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040206633167421</v>
+        <v>1.040209457807217</v>
       </c>
       <c r="J6">
-        <v>1.008768823026658</v>
+        <v>1.00877573334744</v>
       </c>
       <c r="K6">
-        <v>1.018983914440184</v>
+        <v>1.018989406019652</v>
       </c>
       <c r="L6">
-        <v>1.003520325156774</v>
+        <v>1.003526921187688</v>
       </c>
       <c r="M6">
-        <v>0.96695702973384</v>
+        <v>0.9669642352392571</v>
+      </c>
+      <c r="N6">
+        <v>1.008108359671916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873736032254274</v>
+        <v>0.9873818451112364</v>
       </c>
       <c r="D7">
-        <v>1.007608097595958</v>
+        <v>1.007614526277285</v>
       </c>
       <c r="E7">
-        <v>0.9915203025712506</v>
+        <v>0.9915280078342511</v>
       </c>
       <c r="F7">
-        <v>0.9527181158126399</v>
+        <v>0.9527265742935795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039535642767667</v>
+        <v>1.039538910301655</v>
       </c>
       <c r="J7">
-        <v>1.007099691415587</v>
+        <v>1.00710771517038</v>
       </c>
       <c r="K7">
-        <v>1.017612587778419</v>
+        <v>1.01761894034237</v>
       </c>
       <c r="L7">
-        <v>1.001719122790082</v>
+        <v>1.001726733100547</v>
       </c>
       <c r="M7">
-        <v>0.9634195937913084</v>
+        <v>0.9634279370845089</v>
+      </c>
+      <c r="N7">
+        <v>1.006966431838006</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775638757549047</v>
+        <v>0.9775772151426756</v>
       </c>
       <c r="D8">
-        <v>1.000469877102325</v>
+        <v>1.000480164591516</v>
       </c>
       <c r="E8">
-        <v>0.9824607319519364</v>
+        <v>0.9824730027011843</v>
       </c>
       <c r="F8">
-        <v>0.9358371891434304</v>
+        <v>0.9358508911841986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036586641140412</v>
+        <v>1.036591861660644</v>
       </c>
       <c r="J8">
-        <v>0.9998435429508977</v>
+        <v>0.9998564704740754</v>
       </c>
       <c r="K8">
-        <v>1.011643487363632</v>
+        <v>1.01165363566863</v>
       </c>
       <c r="L8">
-        <v>0.9938836445913092</v>
+        <v>0.9938957415419132</v>
       </c>
       <c r="M8">
-        <v>0.9479626396440132</v>
+        <v>0.9479761220343016</v>
+      </c>
+      <c r="N8">
+        <v>1.002000124830797</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587276766509475</v>
+        <v>0.9587513798307103</v>
       </c>
       <c r="D9">
-        <v>0.986778087051682</v>
+        <v>0.9867961680833209</v>
       </c>
       <c r="E9">
-        <v>0.965026385180083</v>
+        <v>0.9650479650453719</v>
       </c>
       <c r="F9">
-        <v>0.9027344692235645</v>
+        <v>0.9027595061977198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030770856516969</v>
+        <v>1.03078000574529</v>
       </c>
       <c r="J9">
-        <v>0.9858270480095971</v>
+        <v>0.9858498087320791</v>
       </c>
       <c r="K9">
-        <v>1.000089386069786</v>
+        <v>1.000107163534152</v>
       </c>
       <c r="L9">
-        <v>0.9787135709472585</v>
+        <v>0.9787347669974967</v>
       </c>
       <c r="M9">
-        <v>0.9176308888240303</v>
+        <v>0.9176553953689169</v>
+      </c>
+      <c r="N9">
+        <v>0.9924003735304876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9448550385481006</v>
+        <v>0.9448869748989908</v>
       </c>
       <c r="D10">
-        <v>0.9767162310604223</v>
+        <v>0.9767404517719944</v>
       </c>
       <c r="E10">
-        <v>0.9521401988196262</v>
+        <v>0.9521692078922681</v>
       </c>
       <c r="F10">
-        <v>0.8776171869540367</v>
+        <v>0.8776520033053394</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026386760203973</v>
+        <v>1.026398991997504</v>
       </c>
       <c r="J10">
-        <v>0.9754412942932404</v>
+        <v>0.9754717409790691</v>
       </c>
       <c r="K10">
-        <v>0.9915190036221181</v>
+        <v>0.9915427593098718</v>
       </c>
       <c r="L10">
-        <v>0.9674309050029934</v>
+        <v>0.9674593185367243</v>
       </c>
       <c r="M10">
-        <v>0.8946138977205134</v>
+        <v>0.894647825484869</v>
+      </c>
+      <c r="N10">
+        <v>0.9852846936409737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9384551639310122</v>
+        <v>0.9384911090934647</v>
       </c>
       <c r="D11">
-        <v>0.9720827359074657</v>
+        <v>0.972109929325167</v>
       </c>
       <c r="E11">
-        <v>0.9461778213681749</v>
+        <v>0.9462104622668319</v>
       </c>
       <c r="F11">
-        <v>0.8657685110431225</v>
+        <v>0.8658083836662868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024341215622652</v>
+        <v>1.02435493657135</v>
       </c>
       <c r="J11">
-        <v>0.9706330066696039</v>
+        <v>0.9706671576314428</v>
       </c>
       <c r="K11">
-        <v>0.9875510597831468</v>
+        <v>0.987577700836558</v>
       </c>
       <c r="L11">
-        <v>0.9621915031882442</v>
+        <v>0.9622234319554764</v>
       </c>
       <c r="M11">
-        <v>0.8837595584023081</v>
+        <v>0.8837983261376203</v>
+      </c>
+      <c r="N11">
+        <v>0.9819902746665936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.936009907358988</v>
+        <v>0.9360474240820442</v>
       </c>
       <c r="D12">
-        <v>0.9703139346116586</v>
+        <v>0.9703422904294223</v>
       </c>
       <c r="E12">
-        <v>0.9438962657793307</v>
+        <v>0.9439303335365975</v>
       </c>
       <c r="F12">
-        <v>0.8611919394776949</v>
+        <v>0.8612338526912847</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02355627759133</v>
+        <v>1.023570580294045</v>
       </c>
       <c r="J12">
-        <v>0.968793029917711</v>
+        <v>0.968828626543503</v>
       </c>
       <c r="K12">
-        <v>0.9860328627439916</v>
+        <v>0.9860606305280545</v>
       </c>
       <c r="L12">
-        <v>0.9601834876257317</v>
+        <v>0.9602167952339352</v>
       </c>
       <c r="M12">
-        <v>0.8795680684506755</v>
+        <v>0.8796087837030498</v>
+      </c>
+      <c r="N12">
+        <v>0.9807296539210795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9365376734437054</v>
+        <v>0.9365748490127164</v>
       </c>
       <c r="D13">
-        <v>0.9706956240496876</v>
+        <v>0.9707237276758334</v>
       </c>
       <c r="E13">
-        <v>0.9443888717730552</v>
+        <v>0.9444226296302761</v>
       </c>
       <c r="F13">
-        <v>0.8621821388033399</v>
+        <v>0.862223606138613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023725843823574</v>
+        <v>1.023740020335233</v>
       </c>
       <c r="J13">
-        <v>0.9691902901017801</v>
+        <v>0.9692255732088471</v>
       </c>
       <c r="K13">
-        <v>0.9863606355679254</v>
+        <v>0.9863881589695427</v>
       </c>
       <c r="L13">
-        <v>0.9606171794282445</v>
+        <v>0.9606501876687288</v>
       </c>
       <c r="M13">
-        <v>0.880474895415932</v>
+        <v>0.8805151854060356</v>
+      </c>
+      <c r="N13">
+        <v>0.9810018250279701</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9382544871300692</v>
+        <v>0.9382905604036661</v>
       </c>
       <c r="D14">
-        <v>0.9719375409017535</v>
+        <v>0.9719648291390822</v>
       </c>
       <c r="E14">
-        <v>0.9459906546978771</v>
+        <v>0.9460234118432203</v>
       </c>
       <c r="F14">
-        <v>0.8653939910259075</v>
+        <v>0.865434028724607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024276865340137</v>
+        <v>1.024290633754922</v>
       </c>
       <c r="J14">
-        <v>0.9704820630511168</v>
+        <v>0.9705163319964417</v>
       </c>
       <c r="K14">
-        <v>0.9874265078980955</v>
+        <v>0.9874532408927431</v>
       </c>
       <c r="L14">
-        <v>0.9620268409461217</v>
+        <v>0.9620588820937688</v>
       </c>
       <c r="M14">
-        <v>0.8834165274660088</v>
+        <v>0.8834554528695611</v>
+      </c>
+      <c r="N14">
+        <v>0.9818868575330805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9393029451937909</v>
+        <v>0.9393383508067193</v>
       </c>
       <c r="D15">
-        <v>0.9726961932217797</v>
+        <v>0.9727229871774199</v>
       </c>
       <c r="E15">
-        <v>0.9469683821071355</v>
+        <v>0.9470005335543309</v>
       </c>
       <c r="F15">
-        <v>0.8673486423684309</v>
+        <v>0.8673878221988819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024612934184888</v>
+        <v>1.024626455143541</v>
       </c>
       <c r="J15">
-        <v>0.9712705680877377</v>
+        <v>0.9713042218879053</v>
       </c>
       <c r="K15">
-        <v>0.9880771566375729</v>
+        <v>0.9881034102935384</v>
       </c>
       <c r="L15">
-        <v>0.9628868813135462</v>
+        <v>0.9629183368181333</v>
       </c>
       <c r="M15">
-        <v>0.8852068788653688</v>
+        <v>0.8852449846593224</v>
+      </c>
+      <c r="N15">
+        <v>0.9824270941965392</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.94527077818349</v>
+        <v>0.9453024590674285</v>
       </c>
       <c r="D16">
-        <v>0.9770174214743501</v>
+        <v>0.977041452374556</v>
       </c>
       <c r="E16">
-        <v>0.9525270955569342</v>
+        <v>0.9525558735418391</v>
       </c>
       <c r="F16">
-        <v>0.8783807416554222</v>
+        <v>0.8784152427280204</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026519174346793</v>
+        <v>1.026531310985318</v>
       </c>
       <c r="J16">
-        <v>0.9757532737103872</v>
+        <v>0.9757834835109577</v>
       </c>
       <c r="K16">
-        <v>0.9917764736088974</v>
+        <v>0.9918000448667643</v>
       </c>
       <c r="L16">
-        <v>0.9677704791690681</v>
+        <v>0.9677986687526293</v>
       </c>
       <c r="M16">
-        <v>0.8953134842386896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.895347109523527</v>
+      </c>
+      <c r="N16">
+        <v>0.9854984507128957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9489033360365967</v>
+        <v>0.948932808948677</v>
       </c>
       <c r="D17">
-        <v>0.9796500606608634</v>
+        <v>0.9796724491827561</v>
       </c>
       <c r="E17">
-        <v>0.9559056062463983</v>
+        <v>0.9559323885949758</v>
       </c>
       <c r="F17">
-        <v>0.8850223207241136</v>
+        <v>0.8850541298555432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027673593622074</v>
+        <v>1.027684906545336</v>
       </c>
       <c r="J17">
-        <v>0.978477297834949</v>
+        <v>0.9785054560563774</v>
       </c>
       <c r="K17">
-        <v>0.9940245609949221</v>
+        <v>0.9940465354275385</v>
       </c>
       <c r="L17">
-        <v>0.9707336169489008</v>
+        <v>0.9707598710953189</v>
       </c>
       <c r="M17">
-        <v>0.9013990867570526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9014301260338894</v>
+      </c>
+      <c r="N17">
+        <v>0.9873648511238402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9509849432024273</v>
+        <v>0.9510131697688813</v>
       </c>
       <c r="D18">
-        <v>0.9811594265122425</v>
+        <v>0.9811808864791893</v>
       </c>
       <c r="E18">
-        <v>0.957840064715049</v>
+        <v>0.9578657218039234</v>
       </c>
       <c r="F18">
-        <v>0.8888047441111601</v>
+        <v>0.8888350590842404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028332981571202</v>
+        <v>1.028343828488723</v>
       </c>
       <c r="J18">
-        <v>0.9800367192354162</v>
+        <v>0.9800637160243877</v>
       </c>
       <c r="K18">
-        <v>0.9953114956507441</v>
+        <v>0.9953325664663024</v>
       </c>
       <c r="L18">
-        <v>0.9724285049583989</v>
+        <v>0.972453666633381</v>
       </c>
       <c r="M18">
-        <v>0.9048651674904905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9048947687933622</v>
+      </c>
+      <c r="N18">
+        <v>0.9884332975739233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9516886465913934</v>
+        <v>0.9517164548298366</v>
       </c>
       <c r="D19">
-        <v>0.9816697988825281</v>
+        <v>0.9816909469477105</v>
       </c>
       <c r="E19">
-        <v>0.9584937769397555</v>
+        <v>0.9585190565309594</v>
       </c>
       <c r="F19">
-        <v>0.890079689612463</v>
+        <v>0.8901095070654842</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028555526898574</v>
+        <v>1.028566217234758</v>
       </c>
       <c r="J19">
-        <v>0.9805636358151032</v>
+        <v>0.9805902422260528</v>
       </c>
       <c r="K19">
-        <v>0.9957463306235631</v>
+        <v>0.9957670977792594</v>
       </c>
       <c r="L19">
-        <v>0.9730009708857255</v>
+        <v>0.9730257658730666</v>
       </c>
       <c r="M19">
-        <v>0.9060335203942821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.906062642467039</v>
+      </c>
+      <c r="N19">
+        <v>0.9887943140411627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.948517503168567</v>
+        <v>0.9485472085818065</v>
       </c>
       <c r="D20">
-        <v>0.979370353847581</v>
+        <v>0.9793929154703248</v>
       </c>
       <c r="E20">
-        <v>0.9555469253309881</v>
+        <v>0.9555739176880891</v>
       </c>
       <c r="F20">
-        <v>0.8843193908457874</v>
+        <v>0.8843514807030329</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027551199273252</v>
+        <v>1.02756259904483</v>
       </c>
       <c r="J20">
-        <v>0.9781881289080943</v>
+        <v>0.9782165035200311</v>
       </c>
       <c r="K20">
-        <v>0.9937859165946238</v>
+        <v>0.9938080594133474</v>
       </c>
       <c r="L20">
-        <v>0.970419216853704</v>
+        <v>0.9704456747963003</v>
       </c>
       <c r="M20">
-        <v>0.9007549670470899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9007862762844181</v>
+      </c>
+      <c r="N20">
+        <v>0.9871667240988058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.937750891156334</v>
+        <v>0.9377872865959169</v>
       </c>
       <c r="D21">
-        <v>0.9715732019217272</v>
+        <v>0.971600728556424</v>
       </c>
       <c r="E21">
-        <v>0.9455209035088694</v>
+        <v>0.9455539530372189</v>
       </c>
       <c r="F21">
-        <v>0.8644533043284809</v>
+        <v>0.8644937581368859</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024115325167269</v>
+        <v>1.024129212913459</v>
       </c>
       <c r="J21">
-        <v>0.9701032253389467</v>
+        <v>0.9701377908753117</v>
       </c>
       <c r="K21">
-        <v>0.9871139122363302</v>
+        <v>0.9871408763667684</v>
       </c>
       <c r="L21">
-        <v>0.9616135204691433</v>
+        <v>0.9616458442393009</v>
       </c>
       <c r="M21">
-        <v>0.8825549504594057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8825942732053002</v>
+      </c>
+      <c r="N21">
+        <v>0.9816273025908857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9305813676788683</v>
+        <v>0.9306224592488095</v>
       </c>
       <c r="D22">
-        <v>0.9663904092530573</v>
+        <v>0.966421403004856</v>
       </c>
       <c r="E22">
-        <v>0.9388235524583288</v>
+        <v>0.9388608731835274</v>
       </c>
       <c r="F22">
-        <v>0.8509256743820145</v>
+        <v>0.8509723606385796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021807513813453</v>
+        <v>1.021823135680166</v>
       </c>
       <c r="J22">
-        <v>0.9647025635841445</v>
+        <v>0.9647414354847867</v>
       </c>
       <c r="K22">
-        <v>0.9826584337600314</v>
+        <v>0.9826887555224638</v>
       </c>
       <c r="L22">
-        <v>0.955712809336584</v>
+        <v>0.9557492559871694</v>
       </c>
       <c r="M22">
-        <v>0.8701682070920953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8702134650921098</v>
+      </c>
+      <c r="N22">
+        <v>0.9779273247689272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344236679036307</v>
+        <v>0.9344622166473862</v>
       </c>
       <c r="D23">
-        <v>0.9691669934685549</v>
+        <v>0.969196111710161</v>
       </c>
       <c r="E23">
-        <v>0.9424151155860151</v>
+        <v>0.9424501213688411</v>
       </c>
       <c r="F23">
-        <v>0.8582075933518846</v>
+        <v>0.8582508653967531</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023046144307874</v>
+        <v>1.023060828427912</v>
       </c>
       <c r="J23">
-        <v>0.9675985922416656</v>
+        <v>0.9676351362671813</v>
       </c>
       <c r="K23">
-        <v>0.9850474028190745</v>
+        <v>0.9850759091844842</v>
       </c>
       <c r="L23">
-        <v>0.9588789971477749</v>
+        <v>0.9589132105567015</v>
       </c>
       <c r="M23">
-        <v>0.8768351922803678</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8768772025817282</v>
+      </c>
+      <c r="N23">
+        <v>0.9799113324281158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9486919587432652</v>
+        <v>0.9487215589720432</v>
       </c>
       <c r="D24">
-        <v>0.9794968218600513</v>
+        <v>0.9795193051758547</v>
       </c>
       <c r="E24">
-        <v>0.9557091088912992</v>
+        <v>0.9557360062359107</v>
       </c>
       <c r="F24">
-        <v>0.8846372952402156</v>
+        <v>0.884669258017409</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027606546948525</v>
+        <v>1.02761790743281</v>
       </c>
       <c r="J24">
-        <v>0.978318882402073</v>
+        <v>0.978347159128563</v>
       </c>
       <c r="K24">
-        <v>0.9938938245179917</v>
+        <v>0.9939158911651657</v>
       </c>
       <c r="L24">
-        <v>0.9705613834945324</v>
+        <v>0.9705877492388461</v>
       </c>
       <c r="M24">
-        <v>0.901046273307449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.901077460346187</v>
+      </c>
+      <c r="N24">
+        <v>0.9872563112216417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638060172985571</v>
+        <v>0.9638268427401706</v>
       </c>
       <c r="D25">
-        <v>0.9904666777303545</v>
+        <v>0.9904826018816917</v>
       </c>
       <c r="E25">
-        <v>0.9697328383814596</v>
+        <v>0.9697518292424866</v>
       </c>
       <c r="F25">
-        <v>0.9117609111793593</v>
+        <v>0.9117827009409155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032356053493106</v>
+        <v>1.032364117349883</v>
       </c>
       <c r="J25">
-        <v>0.989616015101765</v>
+        <v>0.9896360634999228</v>
       </c>
       <c r="K25">
-        <v>1.003214811235845</v>
+        <v>1.003230482055924</v>
       </c>
       <c r="L25">
-        <v>0.9828199174662652</v>
+        <v>0.9828385893251541</v>
       </c>
       <c r="M25">
-        <v>0.9259031412541073</v>
+        <v>0.9259245013105227</v>
+      </c>
+      <c r="N25">
+        <v>0.9949959767368419</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9749563851566593</v>
+        <v>1.03720679575486</v>
       </c>
       <c r="D2">
-        <v>0.9985736994822554</v>
+        <v>1.053448808925931</v>
       </c>
       <c r="E2">
-        <v>0.9800505500062709</v>
+        <v>1.046431178310768</v>
       </c>
       <c r="F2">
-        <v>0.9313022371709165</v>
+        <v>1.057596187101352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035793954925239</v>
+        <v>1.064386142105491</v>
       </c>
       <c r="J2">
-        <v>0.9979128485434896</v>
+        <v>1.058328884010269</v>
       </c>
       <c r="K2">
-        <v>1.010052940766394</v>
+        <v>1.064210545367033</v>
       </c>
       <c r="L2">
-        <v>0.9917949911826607</v>
+        <v>1.057279442065262</v>
       </c>
       <c r="M2">
-        <v>0.9438095409514806</v>
+        <v>1.068307457015536</v>
       </c>
       <c r="N2">
-        <v>1.000668467456852</v>
+        <v>1.059831832417583</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9825944822953903</v>
+        <v>1.045816844534606</v>
       </c>
       <c r="D3">
-        <v>1.004130672115317</v>
+        <v>1.060430885275437</v>
       </c>
       <c r="E3">
-        <v>0.9871080400800352</v>
+        <v>1.054025093651589</v>
       </c>
       <c r="F3">
-        <v>0.9445131235460198</v>
+        <v>1.065392234070363</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038107768549313</v>
+        <v>1.067730034818508</v>
       </c>
       <c r="J3">
-        <v>1.003571153913982</v>
+        <v>1.065131907231244</v>
       </c>
       <c r="K3">
-        <v>1.014710971649569</v>
+        <v>1.070344800980568</v>
       </c>
       <c r="L3">
-        <v>0.9979085775810789</v>
+        <v>1.064010407418217</v>
       </c>
       <c r="M3">
-        <v>0.9559089042351471</v>
+        <v>1.075251575870781</v>
       </c>
       <c r="N3">
-        <v>1.004544668184131</v>
+        <v>1.06664451671185</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873554852878615</v>
+        <v>1.051202237540671</v>
       </c>
       <c r="D4">
-        <v>1.007595342888735</v>
+        <v>1.064800080539659</v>
       </c>
       <c r="E4">
-        <v>0.99150367742511</v>
+        <v>1.058776466030456</v>
       </c>
       <c r="F4">
-        <v>0.9526814804125976</v>
+        <v>1.0702734878747</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039531073656929</v>
+        <v>1.06980679838105</v>
       </c>
       <c r="J4">
-        <v>1.007088264424704</v>
+        <v>1.069381061619639</v>
       </c>
       <c r="K4">
-        <v>1.017602955061446</v>
+        <v>1.074174611517581</v>
       </c>
       <c r="L4">
-        <v>1.001705738871475</v>
+        <v>1.068213719092552</v>
       </c>
       <c r="M4">
-        <v>0.9633866641953602</v>
+        <v>1.079591772122597</v>
       </c>
       <c r="N4">
-        <v>1.006953114649223</v>
+        <v>1.070899705386861</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9893166284484377</v>
+        <v>1.053424557388076</v>
       </c>
       <c r="D5">
-        <v>1.009022574532278</v>
+        <v>1.066603444652177</v>
       </c>
       <c r="E5">
-        <v>0.9933136516355704</v>
+        <v>1.060737441021168</v>
       </c>
       <c r="F5">
-        <v>0.9560326417726454</v>
+        <v>1.072288872818055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04011274436253</v>
+        <v>1.070660186550425</v>
       </c>
       <c r="J5">
-        <v>1.008534694300239</v>
+        <v>1.071133008273966</v>
       </c>
       <c r="K5">
-        <v>1.018791411133681</v>
+        <v>1.075753245670543</v>
       </c>
       <c r="L5">
-        <v>1.003266805555372</v>
+        <v>1.069946557887762</v>
       </c>
       <c r="M5">
-        <v>0.9664535888262321</v>
+        <v>1.081381936350981</v>
       </c>
       <c r="N5">
-        <v>1.007943356568986</v>
+        <v>1.072654140006388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9896436265108178</v>
+        <v>1.053795325874474</v>
       </c>
       <c r="D6">
-        <v>1.009260549274466</v>
+        <v>1.066904334836443</v>
       </c>
       <c r="E6">
-        <v>0.993615408879735</v>
+        <v>1.061064621789611</v>
       </c>
       <c r="F6">
-        <v>0.956590675727046</v>
+        <v>1.072625178699322</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040209457807217</v>
+        <v>1.07080235094308</v>
       </c>
       <c r="J6">
-        <v>1.00877573334744</v>
+        <v>1.07142521070645</v>
       </c>
       <c r="K6">
-        <v>1.018989406019652</v>
+        <v>1.076016516713985</v>
       </c>
       <c r="L6">
-        <v>1.003526921187688</v>
+        <v>1.070235561046757</v>
       </c>
       <c r="M6">
-        <v>0.9669642352392571</v>
+        <v>1.081680552523982</v>
       </c>
       <c r="N6">
-        <v>1.008108359671916</v>
+        <v>1.072946757399843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873818451112364</v>
+        <v>1.051232092633371</v>
       </c>
       <c r="D7">
-        <v>1.007614526277285</v>
+        <v>1.064824305908927</v>
       </c>
       <c r="E7">
-        <v>0.9915280078342511</v>
+        <v>1.058802809127142</v>
       </c>
       <c r="F7">
-        <v>0.9527265742935795</v>
+        <v>1.070300558722399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039538910301655</v>
+        <v>1.069818277316599</v>
       </c>
       <c r="J7">
-        <v>1.00710771517038</v>
+        <v>1.06940460362811</v>
       </c>
       <c r="K7">
-        <v>1.01761894034237</v>
+        <v>1.074195826291276</v>
       </c>
       <c r="L7">
-        <v>1.001726733100547</v>
+        <v>1.068237005163338</v>
       </c>
       <c r="M7">
-        <v>0.9634279370845089</v>
+        <v>1.07961582501104</v>
       </c>
       <c r="N7">
-        <v>1.006966431838006</v>
+        <v>1.070923280827684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9775772151426756</v>
+        <v>1.040156866192859</v>
       </c>
       <c r="D8">
-        <v>1.000480164591516</v>
+        <v>1.055840578346168</v>
       </c>
       <c r="E8">
-        <v>0.9824730027011843</v>
+        <v>1.049032708357562</v>
       </c>
       <c r="F8">
-        <v>0.9358508911841986</v>
+        <v>1.060266233530947</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036591861660644</v>
+        <v>1.065534950451152</v>
       </c>
       <c r="J8">
-        <v>0.9998564704740754</v>
+        <v>1.060661038763227</v>
       </c>
       <c r="K8">
-        <v>1.01165363566863</v>
+        <v>1.06631376995471</v>
       </c>
       <c r="L8">
-        <v>0.9938957415419132</v>
+        <v>1.059587067406161</v>
       </c>
       <c r="M8">
-        <v>0.9479761220343016</v>
+        <v>1.070687351676338</v>
       </c>
       <c r="N8">
-        <v>1.002000124830797</v>
+        <v>1.062167299097793</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587513798307103</v>
+        <v>1.019074967336158</v>
       </c>
       <c r="D9">
-        <v>0.9867961680833209</v>
+        <v>1.038762601063046</v>
       </c>
       <c r="E9">
-        <v>0.9650479650453719</v>
+        <v>1.030452293873484</v>
       </c>
       <c r="F9">
-        <v>0.9027595061977198</v>
+        <v>1.041211940303603</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03078000574529</v>
+        <v>1.057263642698243</v>
       </c>
       <c r="J9">
-        <v>0.9858498087320791</v>
+        <v>1.043971665280076</v>
       </c>
       <c r="K9">
-        <v>1.000107163534152</v>
+        <v>1.051256598651452</v>
       </c>
       <c r="L9">
-        <v>0.9787347669974967</v>
+        <v>1.043069895851509</v>
       </c>
       <c r="M9">
-        <v>0.9176553953689169</v>
+        <v>1.053669985149781</v>
       </c>
       <c r="N9">
-        <v>0.9924003735304876</v>
+        <v>1.045454224789997</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9448869748989908</v>
+        <v>1.003737521169537</v>
       </c>
       <c r="D10">
-        <v>0.9767404517719944</v>
+        <v>1.026363077635267</v>
       </c>
       <c r="E10">
-        <v>0.9521692078922681</v>
+        <v>1.016953817860863</v>
       </c>
       <c r="F10">
-        <v>0.8776520033053394</v>
+        <v>1.027389899982042</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026398991997504</v>
+        <v>1.051170168446328</v>
       </c>
       <c r="J10">
-        <v>0.9754717409790691</v>
+        <v>1.031803631692599</v>
       </c>
       <c r="K10">
-        <v>0.9915427593098718</v>
+        <v>1.040272112117624</v>
       </c>
       <c r="L10">
-        <v>0.9674593185367243</v>
+        <v>1.031023567370464</v>
       </c>
       <c r="M10">
-        <v>0.894647825484869</v>
+        <v>1.041281625574124</v>
       </c>
       <c r="N10">
-        <v>0.9852846936409737</v>
+        <v>1.033268911199134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9384911090934647</v>
+        <v>0.9967292718868205</v>
       </c>
       <c r="D11">
-        <v>0.972109929325167</v>
+        <v>1.020705740181637</v>
       </c>
       <c r="E11">
-        <v>0.9462104622668319</v>
+        <v>1.010792396553532</v>
       </c>
       <c r="F11">
-        <v>0.8658083836662868</v>
+        <v>1.02108600188747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02435493657135</v>
+        <v>1.048369021120795</v>
       </c>
       <c r="J11">
-        <v>0.9706671576314428</v>
+        <v>1.026238752843223</v>
       </c>
       <c r="K11">
-        <v>0.987577700836558</v>
+        <v>1.03524746258973</v>
       </c>
       <c r="L11">
-        <v>0.9622234319554764</v>
+        <v>1.025513614217515</v>
       </c>
       <c r="M11">
-        <v>0.8837983261376203</v>
+        <v>1.035620929239304</v>
       </c>
       <c r="N11">
-        <v>0.9819902746665936</v>
+        <v>1.02769612958349</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9360474240820442</v>
+        <v>0.9940645412642233</v>
       </c>
       <c r="D12">
-        <v>0.9703422904294223</v>
+        <v>1.018556186292781</v>
       </c>
       <c r="E12">
-        <v>0.9439303335365975</v>
+        <v>1.00845083585406</v>
       </c>
       <c r="F12">
-        <v>0.8612338526912847</v>
+        <v>1.018691106554456</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023570580294045</v>
+        <v>1.047301545661754</v>
       </c>
       <c r="J12">
-        <v>0.968828626543503</v>
+        <v>1.024122242073184</v>
       </c>
       <c r="K12">
-        <v>0.9860606305280545</v>
+        <v>1.033336309564707</v>
       </c>
       <c r="L12">
-        <v>0.9602167952339352</v>
+        <v>1.023417902561106</v>
       </c>
       <c r="M12">
-        <v>0.8796087837030498</v>
+        <v>1.033468766535367</v>
       </c>
       <c r="N12">
-        <v>0.9807296539210795</v>
+        <v>1.025576613125391</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9365748490127164</v>
+        <v>0.9946390351326962</v>
       </c>
       <c r="D13">
-        <v>0.9707237276758334</v>
+        <v>1.019019539256242</v>
       </c>
       <c r="E13">
-        <v>0.9444226296302761</v>
+        <v>1.00895560009054</v>
       </c>
       <c r="F13">
-        <v>0.862223606138613</v>
+        <v>1.019207330910018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023740020335233</v>
+        <v>1.047531790663165</v>
       </c>
       <c r="J13">
-        <v>0.9692255732088471</v>
+        <v>1.024578568407722</v>
       </c>
       <c r="K13">
-        <v>0.9863881589695427</v>
+        <v>1.033748364237139</v>
       </c>
       <c r="L13">
-        <v>0.9606501876687288</v>
+        <v>1.023869748291609</v>
       </c>
       <c r="M13">
-        <v>0.8805151854060356</v>
+        <v>1.033932743039524</v>
       </c>
       <c r="N13">
-        <v>0.9810018250279701</v>
+        <v>1.026033587495666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9382905604036661</v>
+        <v>0.9965103009990914</v>
       </c>
       <c r="D14">
-        <v>0.9719648291390822</v>
+        <v>1.020529070902406</v>
       </c>
       <c r="E14">
-        <v>0.9460234118432203</v>
+        <v>1.010599956547205</v>
       </c>
       <c r="F14">
-        <v>0.865434028724607</v>
+        <v>1.020889161992396</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024290633754922</v>
+        <v>1.048281350515607</v>
       </c>
       <c r="J14">
-        <v>0.9705163319964417</v>
+        <v>1.026064842294859</v>
       </c>
       <c r="K14">
-        <v>0.9874532408927431</v>
+        <v>1.03509042790498</v>
       </c>
       <c r="L14">
-        <v>0.9620588820937688</v>
+        <v>1.025341414418113</v>
       </c>
       <c r="M14">
-        <v>0.8834554528695611</v>
+        <v>1.035444072918038</v>
       </c>
       <c r="N14">
-        <v>0.9818868575330805</v>
+        <v>1.0275219720622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9393383508067193</v>
+        <v>0.9976548832233124</v>
       </c>
       <c r="D15">
-        <v>0.9727229871774199</v>
+        <v>1.021452601825585</v>
       </c>
       <c r="E15">
-        <v>0.9470005335543309</v>
+        <v>1.011605908495143</v>
       </c>
       <c r="F15">
-        <v>0.8673878221988819</v>
+        <v>1.021918146819111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024626455143541</v>
+        <v>1.048739516700193</v>
       </c>
       <c r="J15">
-        <v>0.9713042218879053</v>
+        <v>1.026973866687798</v>
       </c>
       <c r="K15">
-        <v>0.9881034102935384</v>
+        <v>1.035911238598251</v>
       </c>
       <c r="L15">
-        <v>0.9629183368181333</v>
+        <v>1.026241493220768</v>
       </c>
       <c r="M15">
-        <v>0.8852449846593224</v>
+        <v>1.036368527134129</v>
       </c>
       <c r="N15">
-        <v>0.9824270941965392</v>
+        <v>1.028432287374044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9453024590674285</v>
+        <v>1.004194378731511</v>
       </c>
       <c r="D16">
-        <v>0.977041452374556</v>
+        <v>1.026732065881927</v>
       </c>
       <c r="E16">
-        <v>0.9525558735418391</v>
+        <v>1.017355622723973</v>
       </c>
       <c r="F16">
-        <v>0.8784152427280204</v>
+        <v>1.027801105998165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026531310985318</v>
+        <v>1.051352434680678</v>
       </c>
       <c r="J16">
-        <v>0.9757834835109577</v>
+        <v>1.032166309236296</v>
       </c>
       <c r="K16">
-        <v>0.9918000448667643</v>
+        <v>1.040599563776733</v>
       </c>
       <c r="L16">
-        <v>0.9677986687526293</v>
+        <v>1.031382651665656</v>
       </c>
       <c r="M16">
-        <v>0.895347109523527</v>
+        <v>1.041650653510707</v>
       </c>
       <c r="N16">
-        <v>0.9854984507128957</v>
+        <v>1.033632103786542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.948932808948677</v>
+        <v>1.008193955420528</v>
       </c>
       <c r="D17">
-        <v>0.9796724491827561</v>
+        <v>1.02996336379329</v>
       </c>
       <c r="E17">
-        <v>0.9559323885949758</v>
+        <v>1.020873992652575</v>
       </c>
       <c r="F17">
-        <v>0.8850541298555432</v>
+        <v>1.031402385039905</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027684906545336</v>
+        <v>1.052946217367373</v>
       </c>
       <c r="J17">
-        <v>0.9785054560563774</v>
+        <v>1.035340853301168</v>
       </c>
       <c r="K17">
-        <v>0.9940465354275385</v>
+        <v>1.043465660385399</v>
       </c>
       <c r="L17">
-        <v>0.9707598710953189</v>
+        <v>1.034525663241106</v>
       </c>
       <c r="M17">
-        <v>0.9014301260338894</v>
+        <v>1.044881342819525</v>
       </c>
       <c r="N17">
-        <v>0.9873648511238402</v>
+        <v>1.036811156068112</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9510131697688813</v>
+        <v>1.01049191137676</v>
       </c>
       <c r="D18">
-        <v>0.9811808864791893</v>
+        <v>1.031820678247013</v>
       </c>
       <c r="E18">
-        <v>0.9578657218039234</v>
+        <v>1.022896067314605</v>
       </c>
       <c r="F18">
-        <v>0.8888350590842404</v>
+        <v>1.033472594597116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028343828488723</v>
+        <v>1.053860345880445</v>
       </c>
       <c r="J18">
-        <v>0.9800637160243877</v>
+        <v>1.037164323852512</v>
       </c>
       <c r="K18">
-        <v>0.9953325664663024</v>
+        <v>1.045111856192974</v>
       </c>
       <c r="L18">
-        <v>0.972453666633381</v>
+        <v>1.036330951422407</v>
       </c>
       <c r="M18">
-        <v>0.9048947687933622</v>
+        <v>1.04673752169003</v>
       </c>
       <c r="N18">
-        <v>0.9884332975739233</v>
+        <v>1.038637216156794</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9517164548298366</v>
+        <v>1.011269708526686</v>
       </c>
       <c r="D19">
-        <v>0.9816909469477105</v>
+        <v>1.032449454228489</v>
       </c>
       <c r="E19">
-        <v>0.9585190565309594</v>
+        <v>1.023580581628416</v>
       </c>
       <c r="F19">
-        <v>0.8901095070654842</v>
+        <v>1.034173485142404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028566217234758</v>
+        <v>1.054169482911469</v>
       </c>
       <c r="J19">
-        <v>0.9805902422260528</v>
+        <v>1.037781437954249</v>
       </c>
       <c r="K19">
-        <v>0.9957670977792594</v>
+        <v>1.045668956999628</v>
       </c>
       <c r="L19">
-        <v>0.9730257658730666</v>
+        <v>1.036941899715238</v>
       </c>
       <c r="M19">
-        <v>0.906062642467039</v>
+        <v>1.047365781663078</v>
       </c>
       <c r="N19">
-        <v>0.9887943140411627</v>
+        <v>1.039255206631339</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9485472085818065</v>
+        <v>1.007768494646163</v>
       </c>
       <c r="D20">
-        <v>0.9793929154703248</v>
+        <v>1.029619547725506</v>
       </c>
       <c r="E20">
-        <v>0.9555739176880891</v>
+        <v>1.020499657628148</v>
       </c>
       <c r="F20">
-        <v>0.8843514807030329</v>
+        <v>1.031019178261268</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02756259904483</v>
+        <v>1.052776839872445</v>
       </c>
       <c r="J20">
-        <v>0.9782165035200311</v>
+        <v>1.035003203831089</v>
       </c>
       <c r="K20">
-        <v>0.9938080594133474</v>
+        <v>1.043160828092427</v>
       </c>
       <c r="L20">
-        <v>0.9704456747963003</v>
+        <v>1.034191374773464</v>
       </c>
       <c r="M20">
-        <v>0.9007862762844181</v>
+        <v>1.044537673659639</v>
       </c>
       <c r="N20">
-        <v>0.9871667240988058</v>
+        <v>1.036473027097056</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9377872865959169</v>
+        <v>0.9959610158900937</v>
       </c>
       <c r="D21">
-        <v>0.971600728556424</v>
+        <v>1.020085924096857</v>
       </c>
       <c r="E21">
-        <v>0.9455539530372189</v>
+        <v>1.010117243473547</v>
       </c>
       <c r="F21">
-        <v>0.8644937581368859</v>
+        <v>1.020395425454524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024129212913459</v>
+        <v>1.048061392031904</v>
       </c>
       <c r="J21">
-        <v>0.9701377908753117</v>
+        <v>1.025628581397151</v>
       </c>
       <c r="K21">
-        <v>0.9871408763667684</v>
+        <v>1.034696499134286</v>
       </c>
       <c r="L21">
-        <v>0.9616458442393009</v>
+        <v>1.024909443607838</v>
       </c>
       <c r="M21">
-        <v>0.8825942732053002</v>
+        <v>1.035000435315154</v>
       </c>
       <c r="N21">
-        <v>0.9816273025908857</v>
+        <v>1.027085091623977</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9306224592488095</v>
+        <v>0.9881770440005029</v>
       </c>
       <c r="D22">
-        <v>0.966421403004856</v>
+        <v>1.013810054668647</v>
       </c>
       <c r="E22">
-        <v>0.9388608731835274</v>
+        <v>1.003279792581952</v>
       </c>
       <c r="F22">
-        <v>0.8509723606385796</v>
+        <v>1.013403814743824</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021823135680166</v>
+        <v>1.044938762931509</v>
       </c>
       <c r="J22">
-        <v>0.9647414354847867</v>
+        <v>1.01944507456826</v>
       </c>
       <c r="K22">
-        <v>0.9826887555224638</v>
+        <v>1.029112807769948</v>
       </c>
       <c r="L22">
-        <v>0.9557492559871694</v>
+        <v>1.018786554944043</v>
       </c>
       <c r="M22">
-        <v>0.8702134650921098</v>
+        <v>1.028714335286691</v>
       </c>
       <c r="N22">
-        <v>0.9779273247689272</v>
+        <v>1.020892803506132</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9344622166473862</v>
+        <v>0.9923400453301977</v>
       </c>
       <c r="D23">
-        <v>0.969196111710161</v>
+        <v>1.017165553887351</v>
       </c>
       <c r="E23">
-        <v>0.9424501213688411</v>
+        <v>1.006935842517659</v>
       </c>
       <c r="F23">
-        <v>0.8582508653967531</v>
+        <v>1.017141838291269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023060828427912</v>
+        <v>1.046610062628749</v>
       </c>
       <c r="J23">
-        <v>0.9676351362671813</v>
+        <v>1.02275238289651</v>
       </c>
       <c r="K23">
-        <v>0.9850759091844842</v>
+        <v>1.032099338743779</v>
       </c>
       <c r="L23">
-        <v>0.9589132105567015</v>
+        <v>1.022061482224163</v>
       </c>
       <c r="M23">
-        <v>0.8768772025817282</v>
+        <v>1.0320760621073</v>
       </c>
       <c r="N23">
-        <v>0.9799113324281158</v>
+        <v>1.024204808591561</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9487215589720432</v>
+        <v>1.007960849526358</v>
       </c>
       <c r="D24">
-        <v>0.9795193051758547</v>
+        <v>1.029774987868313</v>
       </c>
       <c r="E24">
-        <v>0.9557360062359107</v>
+        <v>1.020668896229433</v>
       </c>
       <c r="F24">
-        <v>0.884669258017409</v>
+        <v>1.031192426316375</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02761790743281</v>
+        <v>1.052853421975296</v>
       </c>
       <c r="J24">
-        <v>0.978347159128563</v>
+        <v>1.035155859831942</v>
       </c>
       <c r="K24">
-        <v>0.9939158911651657</v>
+        <v>1.043298647311667</v>
       </c>
       <c r="L24">
-        <v>0.9705877492388461</v>
+        <v>1.034342511437578</v>
       </c>
       <c r="M24">
-        <v>0.901077460346187</v>
+        <v>1.044693049823677</v>
       </c>
       <c r="N24">
-        <v>0.9872563112216417</v>
+        <v>1.036625899886939</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9638268427401706</v>
+        <v>1.024732470907999</v>
       </c>
       <c r="D25">
-        <v>0.9904826018816917</v>
+        <v>1.043342123719862</v>
       </c>
       <c r="E25">
-        <v>0.9697518292424866</v>
+        <v>1.035435848226184</v>
       </c>
       <c r="F25">
-        <v>0.9117827009409155</v>
+        <v>1.046319182958042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032364117349883</v>
+        <v>1.059496506868183</v>
       </c>
       <c r="J25">
-        <v>0.9896360634999228</v>
+        <v>1.048455224156635</v>
       </c>
       <c r="K25">
-        <v>1.003230482055924</v>
+        <v>1.055302905477967</v>
       </c>
       <c r="L25">
-        <v>0.9828385893251541</v>
+        <v>1.047507891166485</v>
       </c>
       <c r="M25">
-        <v>0.9259245013105227</v>
+        <v>1.058238619564793</v>
       </c>
       <c r="N25">
-        <v>0.9949959767368419</v>
+        <v>1.049944150834432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03720679575486</v>
+        <v>1.026932149688889</v>
       </c>
       <c r="D2">
-        <v>1.053448808925931</v>
+        <v>1.043140438758849</v>
       </c>
       <c r="E2">
-        <v>1.046431178310768</v>
+        <v>1.039060629916637</v>
       </c>
       <c r="F2">
-        <v>1.057596187101352</v>
+        <v>1.050159938983663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064386142105491</v>
+        <v>1.053392376073857</v>
       </c>
       <c r="J2">
-        <v>1.058328884010269</v>
+        <v>1.048336117806262</v>
       </c>
       <c r="K2">
-        <v>1.064210545367033</v>
+        <v>1.054029777136118</v>
       </c>
       <c r="L2">
-        <v>1.057279442065262</v>
+        <v>1.050001342801881</v>
       </c>
       <c r="M2">
-        <v>1.068307457015536</v>
+        <v>1.060962047976012</v>
       </c>
       <c r="N2">
-        <v>1.059831832417583</v>
+        <v>1.049824875339381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045816844534606</v>
+        <v>1.034919411128704</v>
       </c>
       <c r="D3">
-        <v>1.060430885275437</v>
+        <v>1.049366115423568</v>
       </c>
       <c r="E3">
-        <v>1.054025093651589</v>
+        <v>1.045805172908028</v>
       </c>
       <c r="F3">
-        <v>1.065392234070363</v>
+        <v>1.056902198652764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067730034818508</v>
+        <v>1.055778375078771</v>
       </c>
       <c r="J3">
-        <v>1.065131907231244</v>
+        <v>1.054501377147405</v>
       </c>
       <c r="K3">
-        <v>1.070344800980568</v>
+        <v>1.059404032471339</v>
       </c>
       <c r="L3">
-        <v>1.064010407418217</v>
+        <v>1.055883685546042</v>
       </c>
       <c r="M3">
-        <v>1.075251575870781</v>
+        <v>1.066855312861253</v>
       </c>
       <c r="N3">
-        <v>1.06664451671185</v>
+        <v>1.055998890055953</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051202237540671</v>
+        <v>1.039932843590225</v>
       </c>
       <c r="D4">
-        <v>1.064800080539659</v>
+        <v>1.053275901141496</v>
       </c>
       <c r="E4">
-        <v>1.058776466030456</v>
+        <v>1.050044054547978</v>
       </c>
       <c r="F4">
-        <v>1.0702734878747</v>
+        <v>1.061139711803563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06980679838105</v>
+        <v>1.057263444644408</v>
       </c>
       <c r="J4">
-        <v>1.069381061619639</v>
+        <v>1.058367428734392</v>
       </c>
       <c r="K4">
-        <v>1.074174611517581</v>
+        <v>1.062771196657464</v>
       </c>
       <c r="L4">
-        <v>1.068213719092552</v>
+        <v>1.059573800108233</v>
       </c>
       <c r="M4">
-        <v>1.079591772122597</v>
+        <v>1.070552253428367</v>
       </c>
       <c r="N4">
-        <v>1.070899705386861</v>
+        <v>1.059870431879635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053424557388076</v>
+        <v>1.0420055538595</v>
       </c>
       <c r="D5">
-        <v>1.066603444652177</v>
+        <v>1.054892706256509</v>
       </c>
       <c r="E5">
-        <v>1.060737441021168</v>
+        <v>1.051797751988033</v>
       </c>
       <c r="F5">
-        <v>1.072288872818055</v>
+        <v>1.062892843121277</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070660186550425</v>
+        <v>1.057874334007637</v>
       </c>
       <c r="J5">
-        <v>1.071133008273966</v>
+        <v>1.059964803786324</v>
       </c>
       <c r="K5">
-        <v>1.075753245670543</v>
+        <v>1.064161724066718</v>
       </c>
       <c r="L5">
-        <v>1.069946557887762</v>
+        <v>1.061098818144354</v>
       </c>
       <c r="M5">
-        <v>1.081381936350981</v>
+        <v>1.07208007236648</v>
       </c>
       <c r="N5">
-        <v>1.072654140006388</v>
+        <v>1.061470075387363</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053795325874474</v>
+        <v>1.042351581067364</v>
       </c>
       <c r="D6">
-        <v>1.066904334836443</v>
+        <v>1.055162641592898</v>
       </c>
       <c r="E6">
-        <v>1.061064621789611</v>
+        <v>1.052090590164218</v>
       </c>
       <c r="F6">
-        <v>1.072625178699322</v>
+        <v>1.063185586325294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07080235094308</v>
+        <v>1.057976135149085</v>
       </c>
       <c r="J6">
-        <v>1.07142521070645</v>
+        <v>1.060231417302119</v>
       </c>
       <c r="K6">
-        <v>1.076016516713985</v>
+        <v>1.064393770219111</v>
       </c>
       <c r="L6">
-        <v>1.070235561046757</v>
+        <v>1.061353374094359</v>
       </c>
       <c r="M6">
-        <v>1.081680552523982</v>
+        <v>1.072335094273543</v>
       </c>
       <c r="N6">
-        <v>1.072946757399843</v>
+        <v>1.061737067524932</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051232092633371</v>
+        <v>1.039960673834149</v>
       </c>
       <c r="D7">
-        <v>1.064824305908927</v>
+        <v>1.053297608612225</v>
       </c>
       <c r="E7">
-        <v>1.058802809127142</v>
+        <v>1.050067596750812</v>
       </c>
       <c r="F7">
-        <v>1.070300558722399</v>
+        <v>1.061163246426617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069818277316599</v>
+        <v>1.057271659343993</v>
       </c>
       <c r="J7">
-        <v>1.06940460362811</v>
+        <v>1.058388880600022</v>
       </c>
       <c r="K7">
-        <v>1.074195826291276</v>
+        <v>1.062789873549765</v>
       </c>
       <c r="L7">
-        <v>1.068237005163338</v>
+        <v>1.059594278947041</v>
       </c>
       <c r="M7">
-        <v>1.07961582501104</v>
+        <v>1.070572769976596</v>
       </c>
       <c r="N7">
-        <v>1.070923280827684</v>
+        <v>1.059891914209376</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040156866192859</v>
+        <v>1.029664893573369</v>
       </c>
       <c r="D8">
-        <v>1.055840578346168</v>
+        <v>1.045269967300887</v>
       </c>
       <c r="E8">
-        <v>1.049032708357562</v>
+        <v>1.041366970481046</v>
       </c>
       <c r="F8">
-        <v>1.060266233530947</v>
+        <v>1.05246547453349</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065534950451152</v>
+        <v>1.054211326579845</v>
       </c>
       <c r="J8">
-        <v>1.060661038763227</v>
+        <v>1.050446231201567</v>
       </c>
       <c r="K8">
-        <v>1.06631376995471</v>
+        <v>1.055869751407581</v>
       </c>
       <c r="L8">
-        <v>1.059587067406161</v>
+        <v>1.052014304095142</v>
       </c>
       <c r="M8">
-        <v>1.070687351676338</v>
+        <v>1.062978743400681</v>
       </c>
       <c r="N8">
-        <v>1.062167299097793</v>
+        <v>1.05193798533774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019074967336158</v>
+        <v>1.010229459210637</v>
       </c>
       <c r="D9">
-        <v>1.038762601063046</v>
+        <v>1.030139016475317</v>
       </c>
       <c r="E9">
-        <v>1.030452293873484</v>
+        <v>1.024992664021398</v>
       </c>
       <c r="F9">
-        <v>1.041211940303603</v>
+        <v>1.036097907390971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057263642698243</v>
+        <v>1.048335589585592</v>
       </c>
       <c r="J9">
-        <v>1.043971665280076</v>
+        <v>1.035426089188833</v>
       </c>
       <c r="K9">
-        <v>1.051256598651452</v>
+        <v>1.042761327678328</v>
       </c>
       <c r="L9">
-        <v>1.043069895851509</v>
+        <v>1.037692861149305</v>
       </c>
       <c r="M9">
-        <v>1.053669985149781</v>
+        <v>1.048631264161074</v>
       </c>
       <c r="N9">
-        <v>1.045454224789997</v>
+        <v>1.036896513000514</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003737521169537</v>
+        <v>0.9962336864629394</v>
       </c>
       <c r="D10">
-        <v>1.026363077635267</v>
+        <v>1.019268370086016</v>
       </c>
       <c r="E10">
-        <v>1.016953817860863</v>
+        <v>1.013244031831472</v>
       </c>
       <c r="F10">
-        <v>1.027389899982042</v>
+        <v>1.024356362186899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051170168446328</v>
+        <v>1.044042367939327</v>
       </c>
       <c r="J10">
-        <v>1.031803631692599</v>
+        <v>1.024597535853503</v>
       </c>
       <c r="K10">
-        <v>1.040272112117624</v>
+        <v>1.033298230122084</v>
       </c>
       <c r="L10">
-        <v>1.031023567370464</v>
+        <v>1.027378208828086</v>
       </c>
       <c r="M10">
-        <v>1.041281625574124</v>
+        <v>1.038299352679675</v>
       </c>
       <c r="N10">
-        <v>1.033268911199134</v>
+        <v>1.026052581877395</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9967292718868205</v>
+        <v>0.9898820383229495</v>
       </c>
       <c r="D11">
-        <v>1.020705740181637</v>
+        <v>1.014343562760869</v>
       </c>
       <c r="E11">
-        <v>1.010792396553532</v>
+        <v>1.007924629792183</v>
       </c>
       <c r="F11">
-        <v>1.02108600188747</v>
+        <v>1.019041048028263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048369021120795</v>
+        <v>1.042080628787251</v>
       </c>
       <c r="J11">
-        <v>1.026238752843223</v>
+        <v>1.019681879351969</v>
       </c>
       <c r="K11">
-        <v>1.03524746258973</v>
+        <v>1.028999956783822</v>
       </c>
       <c r="L11">
-        <v>1.025513614217515</v>
+        <v>1.02269863076457</v>
       </c>
       <c r="M11">
-        <v>1.035620929239304</v>
+        <v>1.033612595077902</v>
       </c>
       <c r="N11">
-        <v>1.02769612958349</v>
+        <v>1.021129944579795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9940645412642233</v>
+        <v>0.9874744958970056</v>
       </c>
       <c r="D12">
-        <v>1.018556186292781</v>
+        <v>1.012478388993095</v>
       </c>
       <c r="E12">
-        <v>1.00845083585406</v>
+        <v>1.005910441935107</v>
       </c>
       <c r="F12">
-        <v>1.018691106554456</v>
+        <v>1.017028573735238</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047301545661754</v>
+        <v>1.041335171951655</v>
       </c>
       <c r="J12">
-        <v>1.024122242073184</v>
+        <v>1.017818582984991</v>
       </c>
       <c r="K12">
-        <v>1.033336309564707</v>
+        <v>1.027370364908999</v>
       </c>
       <c r="L12">
-        <v>1.023417902561106</v>
+        <v>1.02092527652407</v>
       </c>
       <c r="M12">
-        <v>1.033468766535367</v>
+        <v>1.031836646592836</v>
       </c>
       <c r="N12">
-        <v>1.025576613125391</v>
+        <v>1.019264002118253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9946390351326962</v>
+        <v>0.9879931845849349</v>
       </c>
       <c r="D13">
-        <v>1.019019539256242</v>
+        <v>1.012880154448599</v>
       </c>
       <c r="E13">
-        <v>1.00895560009054</v>
+        <v>1.006344286911256</v>
       </c>
       <c r="F13">
-        <v>1.019207330910018</v>
+        <v>1.01746204155809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047531790663165</v>
+        <v>1.041495857882062</v>
       </c>
       <c r="J13">
-        <v>1.024578568407722</v>
+        <v>1.018220017417465</v>
       </c>
       <c r="K13">
-        <v>1.033748364237139</v>
+        <v>1.02772146266215</v>
       </c>
       <c r="L13">
-        <v>1.023869748291609</v>
+        <v>1.021307312342985</v>
       </c>
       <c r="M13">
-        <v>1.033932743039524</v>
+        <v>1.032219235088101</v>
       </c>
       <c r="N13">
-        <v>1.026033587495666</v>
+        <v>1.019666006633666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9965103009990914</v>
+        <v>0.9896840427295243</v>
       </c>
       <c r="D14">
-        <v>1.020529070902406</v>
+        <v>1.014190138754658</v>
       </c>
       <c r="E14">
-        <v>1.010599956547205</v>
+        <v>1.007758939840057</v>
       </c>
       <c r="F14">
-        <v>1.020889161992396</v>
+        <v>1.01887549546906</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048281350515607</v>
+        <v>1.042019359818277</v>
       </c>
       <c r="J14">
-        <v>1.026064842294859</v>
+        <v>1.019528642581911</v>
       </c>
       <c r="K14">
-        <v>1.03509042790498</v>
+        <v>1.028865945865086</v>
       </c>
       <c r="L14">
-        <v>1.025341414418113</v>
+        <v>1.022552781336736</v>
       </c>
       <c r="M14">
-        <v>1.035444072918038</v>
+        <v>1.033466529545522</v>
       </c>
       <c r="N14">
-        <v>1.0275219720622</v>
+        <v>1.020976490195947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9976548832233124</v>
+        <v>0.9907192968537424</v>
       </c>
       <c r="D15">
-        <v>1.021452601825585</v>
+        <v>1.014992406568856</v>
       </c>
       <c r="E15">
-        <v>1.011605908495143</v>
+        <v>1.008625364608751</v>
       </c>
       <c r="F15">
-        <v>1.021918146819111</v>
+        <v>1.019741208726566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048739516700193</v>
+        <v>1.042339639865919</v>
       </c>
       <c r="J15">
-        <v>1.026973866687798</v>
+        <v>1.020329866175363</v>
       </c>
       <c r="K15">
-        <v>1.035911238598251</v>
+        <v>1.029566631415891</v>
       </c>
       <c r="L15">
-        <v>1.026241493220768</v>
+        <v>1.023315397739768</v>
       </c>
       <c r="M15">
-        <v>1.036368527134129</v>
+        <v>1.034230281231659</v>
       </c>
       <c r="N15">
-        <v>1.028432287374044</v>
+        <v>1.021778851618804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004194378731511</v>
+        <v>0.996648716953844</v>
       </c>
       <c r="D16">
-        <v>1.026732065881927</v>
+        <v>1.019590365039514</v>
       </c>
       <c r="E16">
-        <v>1.017355622723973</v>
+        <v>1.013591888107899</v>
       </c>
       <c r="F16">
-        <v>1.027801105998165</v>
+        <v>1.024703972057702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051352434680678</v>
+        <v>1.044170286826119</v>
       </c>
       <c r="J16">
-        <v>1.032166309236296</v>
+        <v>1.024918719373072</v>
       </c>
       <c r="K16">
-        <v>1.040599563776733</v>
+        <v>1.033579027887995</v>
       </c>
       <c r="L16">
-        <v>1.031382651665656</v>
+        <v>1.027684027889104</v>
       </c>
       <c r="M16">
-        <v>1.041650653510707</v>
+        <v>1.038605656721018</v>
       </c>
       <c r="N16">
-        <v>1.033632103786542</v>
+        <v>1.026374221514401</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.008193955420528</v>
+        <v>1.000287101128778</v>
       </c>
       <c r="D17">
-        <v>1.02996336379329</v>
+        <v>1.022414141626003</v>
       </c>
       <c r="E17">
-        <v>1.020873992652575</v>
+        <v>1.016642811018552</v>
       </c>
       <c r="F17">
-        <v>1.031402385039905</v>
+        <v>1.02775283659979</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052946217367373</v>
+        <v>1.045290202659497</v>
       </c>
       <c r="J17">
-        <v>1.035340853301168</v>
+        <v>1.027734250932822</v>
       </c>
       <c r="K17">
-        <v>1.043465660385399</v>
+        <v>1.036040260970265</v>
       </c>
       <c r="L17">
-        <v>1.034525663241106</v>
+        <v>1.030365191176663</v>
       </c>
       <c r="M17">
-        <v>1.044881342819525</v>
+        <v>1.041291148316664</v>
       </c>
       <c r="N17">
-        <v>1.036811156068112</v>
+        <v>1.029193751451913</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01049191137676</v>
+        <v>1.002381528184654</v>
       </c>
       <c r="D18">
-        <v>1.031820678247013</v>
+        <v>1.024040428781242</v>
       </c>
       <c r="E18">
-        <v>1.022896067314605</v>
+        <v>1.018400218051906</v>
       </c>
       <c r="F18">
-        <v>1.033472594597116</v>
+        <v>1.029509138155531</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053860345880445</v>
+        <v>1.045933616923172</v>
       </c>
       <c r="J18">
-        <v>1.037164323852512</v>
+        <v>1.029354865187881</v>
       </c>
       <c r="K18">
-        <v>1.045111856192974</v>
+        <v>1.037456706315892</v>
       </c>
       <c r="L18">
-        <v>1.036330951422407</v>
+        <v>1.031908722528353</v>
       </c>
       <c r="M18">
-        <v>1.04673752169003</v>
+        <v>1.042837230468926</v>
       </c>
       <c r="N18">
-        <v>1.038637216156794</v>
+        <v>1.030816667165101</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011269708526686</v>
+        <v>1.003091087646075</v>
       </c>
       <c r="D19">
-        <v>1.032449454228489</v>
+        <v>1.024591516364279</v>
       </c>
       <c r="E19">
-        <v>1.023580581628416</v>
+        <v>1.018995789422747</v>
       </c>
       <c r="F19">
-        <v>1.034173485142404</v>
+        <v>1.030104347564436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054169482911469</v>
+        <v>1.046151377870315</v>
       </c>
       <c r="J19">
-        <v>1.037781437954249</v>
+        <v>1.029903876344792</v>
       </c>
       <c r="K19">
-        <v>1.045668956999628</v>
+        <v>1.037936510275961</v>
       </c>
       <c r="L19">
-        <v>1.036941899715238</v>
+        <v>1.03243166348289</v>
       </c>
       <c r="M19">
-        <v>1.047365781663078</v>
+        <v>1.043361044839462</v>
       </c>
       <c r="N19">
-        <v>1.039255206631339</v>
+        <v>1.031366457980827</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007768494646163</v>
+        <v>0.9998996408354044</v>
       </c>
       <c r="D20">
-        <v>1.029619547725506</v>
+        <v>1.02211334739015</v>
       </c>
       <c r="E20">
-        <v>1.020499657628148</v>
+        <v>1.016317789792544</v>
       </c>
       <c r="F20">
-        <v>1.031019178261268</v>
+        <v>1.027428026096867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052776839872445</v>
+        <v>1.045171070493974</v>
       </c>
       <c r="J20">
-        <v>1.035003203831089</v>
+        <v>1.027434431708293</v>
       </c>
       <c r="K20">
-        <v>1.043160828092427</v>
+        <v>1.035778194254758</v>
       </c>
       <c r="L20">
-        <v>1.034191374773464</v>
+        <v>1.030079653318217</v>
       </c>
       <c r="M20">
-        <v>1.044537673659639</v>
+        <v>1.041005143175882</v>
       </c>
       <c r="N20">
-        <v>1.036473027097056</v>
+        <v>1.028893506449694</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9959610158900937</v>
+        <v>0.9891874984672216</v>
       </c>
       <c r="D21">
-        <v>1.020085924096857</v>
+        <v>1.013805399155097</v>
       </c>
       <c r="E21">
-        <v>1.010117243473547</v>
+        <v>1.007343447836996</v>
       </c>
       <c r="F21">
-        <v>1.020395425454524</v>
+        <v>1.018460350784629</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048061392031904</v>
+        <v>1.041865676461361</v>
       </c>
       <c r="J21">
-        <v>1.025628581397151</v>
+        <v>1.019144346622747</v>
       </c>
       <c r="K21">
-        <v>1.034696499134286</v>
+        <v>1.028529860703631</v>
       </c>
       <c r="L21">
-        <v>1.024909443607838</v>
+        <v>1.022187019236054</v>
       </c>
       <c r="M21">
-        <v>1.035000435315154</v>
+        <v>1.033100227633453</v>
       </c>
       <c r="N21">
-        <v>1.027085091623977</v>
+        <v>1.020591648492441</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9881770440005029</v>
+        <v>0.9821704368049462</v>
       </c>
       <c r="D22">
-        <v>1.013810054668647</v>
+        <v>1.008372359653033</v>
       </c>
       <c r="E22">
-        <v>1.003279792581952</v>
+        <v>1.001477111303746</v>
       </c>
       <c r="F22">
-        <v>1.013403814743824</v>
+        <v>1.012599361550432</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044938762931509</v>
+        <v>1.039689554769975</v>
       </c>
       <c r="J22">
-        <v>1.01944507456826</v>
+        <v>1.013713635872852</v>
       </c>
       <c r="K22">
-        <v>1.029112807769948</v>
+        <v>1.023779763250869</v>
       </c>
       <c r="L22">
-        <v>1.018786554944043</v>
+        <v>1.01701936301393</v>
       </c>
       <c r="M22">
-        <v>1.028714335286691</v>
+        <v>1.027925287577848</v>
       </c>
       <c r="N22">
-        <v>1.020892803506132</v>
+        <v>1.015153225510371</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9923400453301977</v>
+        <v>0.9859187055768744</v>
       </c>
       <c r="D23">
-        <v>1.017165553887351</v>
+        <v>1.011273552105308</v>
       </c>
       <c r="E23">
-        <v>1.006935842517659</v>
+        <v>1.004609462616322</v>
       </c>
       <c r="F23">
-        <v>1.017141838291269</v>
+        <v>1.015728752508409</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046610062628749</v>
+        <v>1.04085293580968</v>
       </c>
       <c r="J23">
-        <v>1.02275238289651</v>
+        <v>1.016614497723665</v>
       </c>
       <c r="K23">
-        <v>1.032099338743779</v>
+        <v>1.026317220459326</v>
       </c>
       <c r="L23">
-        <v>1.022061482224163</v>
+        <v>1.019779446450378</v>
       </c>
       <c r="M23">
-        <v>1.0320760621073</v>
+        <v>1.030689179841828</v>
       </c>
       <c r="N23">
-        <v>1.024204808591561</v>
+        <v>1.018058206917745</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007960849526358</v>
+        <v>1.00007480298372</v>
       </c>
       <c r="D24">
-        <v>1.029774987868313</v>
+        <v>1.022249327321281</v>
       </c>
       <c r="E24">
-        <v>1.020668896229433</v>
+        <v>1.016464721073151</v>
       </c>
       <c r="F24">
-        <v>1.031192426316375</v>
+        <v>1.027574861869907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052853421975296</v>
+        <v>1.045224931419354</v>
       </c>
       <c r="J24">
-        <v>1.035155859831942</v>
+        <v>1.027569973731118</v>
       </c>
       <c r="K24">
-        <v>1.043298647311667</v>
+        <v>1.035896669890624</v>
       </c>
       <c r="L24">
-        <v>1.034342511437578</v>
+        <v>1.030208738230246</v>
       </c>
       <c r="M24">
-        <v>1.044693049823677</v>
+        <v>1.041134439153916</v>
       </c>
       <c r="N24">
-        <v>1.036625899886939</v>
+        <v>1.02902924095774</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024732470907999</v>
+        <v>1.015423414155204</v>
       </c>
       <c r="D25">
-        <v>1.043342123719862</v>
+        <v>1.034179070258873</v>
       </c>
       <c r="E25">
-        <v>1.035435848226184</v>
+        <v>1.029361962943284</v>
       </c>
       <c r="F25">
-        <v>1.046319182958042</v>
+        <v>1.04046512632969</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059496506868183</v>
+        <v>1.049916765234975</v>
       </c>
       <c r="J25">
-        <v>1.048455224156635</v>
+        <v>1.039442638681061</v>
       </c>
       <c r="K25">
-        <v>1.055302905477967</v>
+        <v>1.046268997475172</v>
       </c>
       <c r="L25">
-        <v>1.047507891166485</v>
+        <v>1.04152095125872</v>
       </c>
       <c r="M25">
-        <v>1.058238619564793</v>
+        <v>1.052466147500763</v>
       </c>
       <c r="N25">
-        <v>1.049944150834432</v>
+        <v>1.040918766453726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026932149688889</v>
+        <v>1.074674634519317</v>
       </c>
       <c r="D2">
-        <v>1.043140438758849</v>
+        <v>1.074782120527066</v>
       </c>
       <c r="E2">
-        <v>1.039060629916637</v>
+        <v>1.077964081760828</v>
       </c>
       <c r="F2">
-        <v>1.050159938983663</v>
+        <v>1.087104781879177</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053392376073857</v>
+        <v>1.049372733764684</v>
       </c>
       <c r="J2">
-        <v>1.048336117806262</v>
+        <v>1.079582927464044</v>
       </c>
       <c r="K2">
-        <v>1.054029777136118</v>
+        <v>1.077470423401331</v>
       </c>
       <c r="L2">
-        <v>1.050001342801881</v>
+        <v>1.080643999204078</v>
       </c>
       <c r="M2">
-        <v>1.060962047976012</v>
+        <v>1.089760905514138</v>
       </c>
       <c r="N2">
-        <v>1.049824875339381</v>
+        <v>1.081116059050936</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034919411128704</v>
+        <v>1.076274162652691</v>
       </c>
       <c r="D3">
-        <v>1.049366115423568</v>
+        <v>1.076034648658763</v>
       </c>
       <c r="E3">
-        <v>1.045805172908028</v>
+        <v>1.0793533705711</v>
       </c>
       <c r="F3">
-        <v>1.056902198652764</v>
+        <v>1.088489096058501</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055778375078771</v>
+        <v>1.049758446728569</v>
       </c>
       <c r="J3">
-        <v>1.054501377147405</v>
+        <v>1.080838584652954</v>
       </c>
       <c r="K3">
-        <v>1.059404032471339</v>
+        <v>1.078539074064011</v>
       </c>
       <c r="L3">
-        <v>1.055883685546042</v>
+        <v>1.08184968754237</v>
       </c>
       <c r="M3">
-        <v>1.066855312861253</v>
+        <v>1.090963366646205</v>
       </c>
       <c r="N3">
-        <v>1.055998890055953</v>
+        <v>1.08237349941708</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039932843590225</v>
+        <v>1.077307832173501</v>
       </c>
       <c r="D4">
-        <v>1.053275901141496</v>
+        <v>1.076843713677338</v>
       </c>
       <c r="E4">
-        <v>1.050044054547978</v>
+        <v>1.080251265120474</v>
       </c>
       <c r="F4">
-        <v>1.061139711803563</v>
+        <v>1.089383729580332</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057263444644408</v>
+        <v>1.050006038464519</v>
       </c>
       <c r="J4">
-        <v>1.058367428734392</v>
+        <v>1.081649334146708</v>
       </c>
       <c r="K4">
-        <v>1.062771196657464</v>
+        <v>1.079228595322537</v>
       </c>
       <c r="L4">
-        <v>1.059573800108233</v>
+        <v>1.082628243605622</v>
       </c>
       <c r="M4">
-        <v>1.070552253428367</v>
+        <v>1.091739788229008</v>
       </c>
       <c r="N4">
-        <v>1.059870431879635</v>
+        <v>1.083185400268109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0420055538595</v>
+        <v>1.077742076190967</v>
       </c>
       <c r="D5">
-        <v>1.054892706256509</v>
+        <v>1.077183513954868</v>
       </c>
       <c r="E5">
-        <v>1.051797751988033</v>
+        <v>1.080628490502864</v>
       </c>
       <c r="F5">
-        <v>1.062892843121277</v>
+        <v>1.089759573767355</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057874334007637</v>
+        <v>1.050109651707531</v>
       </c>
       <c r="J5">
-        <v>1.059964803786324</v>
+        <v>1.081989761780578</v>
       </c>
       <c r="K5">
-        <v>1.064161724066718</v>
+        <v>1.079518004335407</v>
       </c>
       <c r="L5">
-        <v>1.061098818144354</v>
+        <v>1.082955170134485</v>
       </c>
       <c r="M5">
-        <v>1.07208007236648</v>
+        <v>1.092065806195535</v>
       </c>
       <c r="N5">
-        <v>1.061470075387363</v>
+        <v>1.083526311348267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042351581067364</v>
+        <v>1.077814969695117</v>
       </c>
       <c r="D6">
-        <v>1.055162641592898</v>
+        <v>1.077240548688015</v>
       </c>
       <c r="E6">
-        <v>1.052090590164218</v>
+        <v>1.080691813855288</v>
       </c>
       <c r="F6">
-        <v>1.063185586325294</v>
+        <v>1.0898226646042</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057976135149085</v>
+        <v>1.050127021075212</v>
       </c>
       <c r="J6">
-        <v>1.060231417302119</v>
+        <v>1.082046897130659</v>
       </c>
       <c r="K6">
-        <v>1.064393770219111</v>
+        <v>1.079566570223007</v>
       </c>
       <c r="L6">
-        <v>1.061353374094359</v>
+        <v>1.083010040512644</v>
       </c>
       <c r="M6">
-        <v>1.072335094273543</v>
+        <v>1.092120523359337</v>
       </c>
       <c r="N6">
-        <v>1.061737067524932</v>
+        <v>1.083583527837098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039960673834149</v>
+        <v>1.077313635773723</v>
       </c>
       <c r="D7">
-        <v>1.053297608612225</v>
+        <v>1.076848255397651</v>
       </c>
       <c r="E7">
-        <v>1.050067596750812</v>
+        <v>1.080256306597082</v>
       </c>
       <c r="F7">
-        <v>1.061163246426617</v>
+        <v>1.089388752641874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057271659343993</v>
+        <v>1.050007424810833</v>
       </c>
       <c r="J7">
-        <v>1.058388880600022</v>
+        <v>1.081653884566455</v>
       </c>
       <c r="K7">
-        <v>1.062789873549765</v>
+        <v>1.079232464243465</v>
       </c>
       <c r="L7">
-        <v>1.059594278947041</v>
+        <v>1.082632613493774</v>
       </c>
       <c r="M7">
-        <v>1.070572769976596</v>
+        <v>1.091744146021207</v>
       </c>
       <c r="N7">
-        <v>1.059891914209376</v>
+        <v>1.083189957149974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029664893573369</v>
+        <v>1.075215483357623</v>
       </c>
       <c r="D8">
-        <v>1.045269967300887</v>
+        <v>1.075205712433056</v>
       </c>
       <c r="E8">
-        <v>1.041366970481046</v>
+        <v>1.078433823368199</v>
       </c>
       <c r="F8">
-        <v>1.05246547453349</v>
+        <v>1.087572850898171</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054211326579845</v>
+        <v>1.049503500690571</v>
       </c>
       <c r="J8">
-        <v>1.050446231201567</v>
+        <v>1.08000764769232</v>
       </c>
       <c r="K8">
-        <v>1.055869751407581</v>
+        <v>1.077831989366085</v>
       </c>
       <c r="L8">
-        <v>1.052014304095142</v>
+        <v>1.081051803019285</v>
       </c>
       <c r="M8">
-        <v>1.062978743400681</v>
+        <v>1.090167628167636</v>
       </c>
       <c r="N8">
-        <v>1.05193798533774</v>
+        <v>1.081541382430651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010229459210637</v>
+        <v>1.071507696774884</v>
       </c>
       <c r="D9">
-        <v>1.030139016475317</v>
+        <v>1.072300335015093</v>
       </c>
       <c r="E9">
-        <v>1.024992664021398</v>
+        <v>1.075213913047059</v>
       </c>
       <c r="F9">
-        <v>1.036097907390971</v>
+        <v>1.084364223443376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048335589585592</v>
+        <v>1.04860018061858</v>
       </c>
       <c r="J9">
-        <v>1.035426089188833</v>
+        <v>1.077093126048527</v>
       </c>
       <c r="K9">
-        <v>1.042761327678328</v>
+        <v>1.075348872514474</v>
       </c>
       <c r="L9">
-        <v>1.037692861149305</v>
+        <v>1.07825366138223</v>
       </c>
       <c r="M9">
-        <v>1.048631264161074</v>
+        <v>1.087376703105192</v>
       </c>
       <c r="N9">
-        <v>1.036896513000514</v>
+        <v>1.078622721831824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9962336864629394</v>
+        <v>1.069028208677662</v>
       </c>
       <c r="D10">
-        <v>1.019268370086016</v>
+        <v>1.07035566366083</v>
       </c>
       <c r="E10">
-        <v>1.013244031831472</v>
+        <v>1.073061221939245</v>
       </c>
       <c r="F10">
-        <v>1.024356362186899</v>
+        <v>1.082218853728818</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044042367939327</v>
+        <v>1.047987514620517</v>
       </c>
       <c r="J10">
-        <v>1.024597535853503</v>
+        <v>1.07514054620216</v>
       </c>
       <c r="K10">
-        <v>1.033298230122084</v>
+        <v>1.073682842990497</v>
       </c>
       <c r="L10">
-        <v>1.027378208828086</v>
+        <v>1.076379429180137</v>
       </c>
       <c r="M10">
-        <v>1.038299352679675</v>
+        <v>1.085507057550718</v>
       </c>
       <c r="N10">
-        <v>1.026052581877395</v>
+        <v>1.076667369098112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9898820383229495</v>
+        <v>1.067952636669193</v>
       </c>
       <c r="D11">
-        <v>1.014343562760869</v>
+        <v>1.06951168137976</v>
       </c>
       <c r="E11">
-        <v>1.007924629792183</v>
+        <v>1.072127551311295</v>
       </c>
       <c r="F11">
-        <v>1.019041048028263</v>
+        <v>1.081288308179319</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042080628787251</v>
+        <v>1.047719713164534</v>
       </c>
       <c r="J11">
-        <v>1.019681879351969</v>
+        <v>1.074292700640059</v>
       </c>
       <c r="K11">
-        <v>1.028999956783822</v>
+        <v>1.072958841081285</v>
       </c>
       <c r="L11">
-        <v>1.02269863076457</v>
+        <v>1.075565695708596</v>
       </c>
       <c r="M11">
-        <v>1.033612595077902</v>
+        <v>1.084695258945246</v>
       </c>
       <c r="N11">
-        <v>1.021129944579795</v>
+        <v>1.075818319498063</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9874744958970056</v>
+        <v>1.067552820171334</v>
       </c>
       <c r="D12">
-        <v>1.012478388993095</v>
+        <v>1.069197892397405</v>
       </c>
       <c r="E12">
-        <v>1.005910441935107</v>
+        <v>1.071780505216817</v>
       </c>
       <c r="F12">
-        <v>1.017028573735238</v>
+        <v>1.080942416298775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041335171951655</v>
+        <v>1.047619859482577</v>
       </c>
       <c r="J12">
-        <v>1.017818582984991</v>
+        <v>1.073977409964382</v>
       </c>
       <c r="K12">
-        <v>1.027370364908999</v>
+        <v>1.072689517413035</v>
       </c>
       <c r="L12">
-        <v>1.02092527652407</v>
+        <v>1.075263104418958</v>
       </c>
       <c r="M12">
-        <v>1.031836646592836</v>
+        <v>1.084393378830932</v>
       </c>
       <c r="N12">
-        <v>1.019264002118253</v>
+        <v>1.075502581073463</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9879931845849349</v>
+        <v>1.067638595958715</v>
       </c>
       <c r="D13">
-        <v>1.012880154448599</v>
+        <v>1.06926521472292</v>
       </c>
       <c r="E13">
-        <v>1.006344286911256</v>
+        <v>1.071854958733196</v>
       </c>
       <c r="F13">
-        <v>1.01746204155809</v>
+        <v>1.081016622526835</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041495857882062</v>
+        <v>1.047641295689841</v>
       </c>
       <c r="J13">
-        <v>1.018220017417465</v>
+        <v>1.074045057438809</v>
       </c>
       <c r="K13">
-        <v>1.02772146266215</v>
+        <v>1.072747306329403</v>
       </c>
       <c r="L13">
-        <v>1.021307312342985</v>
+        <v>1.075328026527458</v>
       </c>
       <c r="M13">
-        <v>1.032219235088101</v>
+        <v>1.084458148727484</v>
       </c>
       <c r="N13">
-        <v>1.019666006633666</v>
+        <v>1.075570324615062</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9896840427295243</v>
+        <v>1.067919593915142</v>
       </c>
       <c r="D14">
-        <v>1.014190138754658</v>
+        <v>1.069485749570936</v>
       </c>
       <c r="E14">
-        <v>1.007758939840057</v>
+        <v>1.072098869298324</v>
       </c>
       <c r="F14">
-        <v>1.01887549546906</v>
+        <v>1.081259721707081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042019359818277</v>
+        <v>1.047711467001927</v>
       </c>
       <c r="J14">
-        <v>1.019528642581911</v>
+        <v>1.074266646065875</v>
       </c>
       <c r="K14">
-        <v>1.028865945865086</v>
+        <v>1.072936586841725</v>
       </c>
       <c r="L14">
-        <v>1.022552781336736</v>
+        <v>1.075540690282331</v>
       </c>
       <c r="M14">
-        <v>1.033466529545522</v>
+        <v>1.08467031245738</v>
       </c>
       <c r="N14">
-        <v>1.020976490195947</v>
+        <v>1.075792227923395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9907192968537424</v>
+        <v>1.068092685819414</v>
       </c>
       <c r="D15">
-        <v>1.014992406568856</v>
+        <v>1.069621588887762</v>
       </c>
       <c r="E15">
-        <v>1.008625364608751</v>
+        <v>1.072249118712798</v>
       </c>
       <c r="F15">
-        <v>1.019741208726566</v>
+        <v>1.08140947033476</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042339639865919</v>
+        <v>1.047754651387743</v>
       </c>
       <c r="J15">
-        <v>1.020329866175363</v>
+        <v>1.074403125789541</v>
       </c>
       <c r="K15">
-        <v>1.029566631415891</v>
+        <v>1.073053155994946</v>
       </c>
       <c r="L15">
-        <v>1.023315397739768</v>
+        <v>1.075671674908416</v>
       </c>
       <c r="M15">
-        <v>1.034230281231659</v>
+        <v>1.08480098801017</v>
       </c>
       <c r="N15">
-        <v>1.021778851618804</v>
+        <v>1.075928901463923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996648716953844</v>
+        <v>1.069099549171921</v>
       </c>
       <c r="D16">
-        <v>1.019590365039514</v>
+        <v>1.070411634802077</v>
       </c>
       <c r="E16">
-        <v>1.013591888107899</v>
+        <v>1.073123153456587</v>
       </c>
       <c r="F16">
-        <v>1.024703972057702</v>
+        <v>1.082280576911267</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044170286826119</v>
+        <v>1.04800523454085</v>
       </c>
       <c r="J16">
-        <v>1.024918719373072</v>
+        <v>1.075196764425221</v>
       </c>
       <c r="K16">
-        <v>1.033579027887995</v>
+        <v>1.073730837278844</v>
       </c>
       <c r="L16">
-        <v>1.027684027889104</v>
+        <v>1.076433387482517</v>
       </c>
       <c r="M16">
-        <v>1.038605656721018</v>
+        <v>1.085560886378509</v>
       </c>
       <c r="N16">
-        <v>1.026374221514401</v>
+        <v>1.076723667157498</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000287101128778</v>
+        <v>1.069730602169731</v>
       </c>
       <c r="D17">
-        <v>1.022414141626003</v>
+        <v>1.070906689022527</v>
       </c>
       <c r="E17">
-        <v>1.016642811018552</v>
+        <v>1.073670994320917</v>
       </c>
       <c r="F17">
-        <v>1.02775283659979</v>
+        <v>1.082826569072149</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045290202659497</v>
+        <v>1.048161743992433</v>
       </c>
       <c r="J17">
-        <v>1.027734250932822</v>
+        <v>1.075693954231966</v>
       </c>
       <c r="K17">
-        <v>1.036040260970265</v>
+        <v>1.07415522815443</v>
       </c>
       <c r="L17">
-        <v>1.030365191176663</v>
+        <v>1.076910601368141</v>
       </c>
       <c r="M17">
-        <v>1.041291148316664</v>
+        <v>1.08603694867727</v>
       </c>
       <c r="N17">
-        <v>1.029193751451913</v>
+        <v>1.077221563030796</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002381528184654</v>
+        <v>1.070098498472374</v>
       </c>
       <c r="D18">
-        <v>1.024040428781242</v>
+        <v>1.071195260340483</v>
       </c>
       <c r="E18">
-        <v>1.018400218051906</v>
+        <v>1.073990392451892</v>
       </c>
       <c r="F18">
-        <v>1.029509138155531</v>
+        <v>1.083144884517394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045933616923172</v>
+        <v>1.048252791022804</v>
       </c>
       <c r="J18">
-        <v>1.029354865187881</v>
+        <v>1.075983728910264</v>
       </c>
       <c r="K18">
-        <v>1.037456706315892</v>
+        <v>1.074402517738184</v>
       </c>
       <c r="L18">
-        <v>1.031908722528353</v>
+        <v>1.07718874244026</v>
       </c>
       <c r="M18">
-        <v>1.042837230468926</v>
+        <v>1.086314413098443</v>
       </c>
       <c r="N18">
-        <v>1.030816667165101</v>
+        <v>1.077511749222375</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003091087646075</v>
+        <v>1.070223910320085</v>
       </c>
       <c r="D19">
-        <v>1.024591516364279</v>
+        <v>1.071293624457854</v>
       </c>
       <c r="E19">
-        <v>1.018995789422747</v>
+        <v>1.074099274059263</v>
       </c>
       <c r="F19">
-        <v>1.030104347564436</v>
+        <v>1.083253396209876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046151377870315</v>
+        <v>1.048283794694065</v>
       </c>
       <c r="J19">
-        <v>1.029903876344792</v>
+        <v>1.076082496192286</v>
       </c>
       <c r="K19">
-        <v>1.037936510275961</v>
+        <v>1.07448679481287</v>
       </c>
       <c r="L19">
-        <v>1.03243166348289</v>
+        <v>1.077283546001983</v>
       </c>
       <c r="M19">
-        <v>1.043361044839462</v>
+        <v>1.086408985094969</v>
       </c>
       <c r="N19">
-        <v>1.031366457980827</v>
+        <v>1.077610656765267</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998996408354044</v>
+        <v>1.069662915491619</v>
       </c>
       <c r="D20">
-        <v>1.02211334739015</v>
+        <v>1.070853593620165</v>
       </c>
       <c r="E20">
-        <v>1.016317789792544</v>
+        <v>1.073612231563359</v>
       </c>
       <c r="F20">
-        <v>1.027428026096867</v>
+        <v>1.082768005113354</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045171070493974</v>
+        <v>1.048144977090014</v>
       </c>
       <c r="J20">
-        <v>1.027434431708293</v>
+        <v>1.075640634081298</v>
       </c>
       <c r="K20">
-        <v>1.035778194254758</v>
+        <v>1.074109720980422</v>
       </c>
       <c r="L20">
-        <v>1.030079653318217</v>
+        <v>1.07685942257796</v>
       </c>
       <c r="M20">
-        <v>1.041005143175882</v>
+        <v>1.085985893952219</v>
       </c>
       <c r="N20">
-        <v>1.028893506449694</v>
+        <v>1.077168167159398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9891874984672216</v>
+        <v>1.067836855415806</v>
       </c>
       <c r="D21">
-        <v>1.013805399155097</v>
+        <v>1.069420815792345</v>
       </c>
       <c r="E21">
-        <v>1.007343447836996</v>
+        <v>1.072027050382921</v>
       </c>
       <c r="F21">
-        <v>1.018460350784629</v>
+        <v>1.081188141904303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041865676461361</v>
+        <v>1.047690813819693</v>
       </c>
       <c r="J21">
-        <v>1.019144346622747</v>
+        <v>1.074201403823</v>
       </c>
       <c r="K21">
-        <v>1.028529860703631</v>
+        <v>1.072880859463396</v>
       </c>
       <c r="L21">
-        <v>1.022187019236054</v>
+        <v>1.075478075397036</v>
       </c>
       <c r="M21">
-        <v>1.033100227633453</v>
+        <v>1.084607845023206</v>
       </c>
       <c r="N21">
-        <v>1.020591648492441</v>
+        <v>1.075726893029052</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9821704368049462</v>
+        <v>1.066686991467204</v>
       </c>
       <c r="D22">
-        <v>1.008372359653033</v>
+        <v>1.068518253249452</v>
       </c>
       <c r="E22">
-        <v>1.001477111303746</v>
+        <v>1.07102899596174</v>
       </c>
       <c r="F22">
-        <v>1.012599361550432</v>
+        <v>1.080193393136993</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039689554769975</v>
+        <v>1.047403061688218</v>
       </c>
       <c r="J22">
-        <v>1.013713635872852</v>
+        <v>1.073294398100653</v>
       </c>
       <c r="K22">
-        <v>1.023779763250869</v>
+        <v>1.072105924574606</v>
       </c>
       <c r="L22">
-        <v>1.01701936301393</v>
+        <v>1.074607629014241</v>
       </c>
       <c r="M22">
-        <v>1.027925287577848</v>
+        <v>1.083739428957716</v>
       </c>
       <c r="N22">
-        <v>1.015153225510371</v>
+        <v>1.074818599254544</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9859187055768744</v>
+        <v>1.067296725138491</v>
       </c>
       <c r="D23">
-        <v>1.011273552105308</v>
+        <v>1.068996883922856</v>
       </c>
       <c r="E23">
-        <v>1.004609462616322</v>
+        <v>1.07155821765809</v>
       </c>
       <c r="F23">
-        <v>1.015728752508409</v>
+        <v>1.080720865974971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04085293580968</v>
+        <v>1.047555814150318</v>
       </c>
       <c r="J23">
-        <v>1.016614497723665</v>
+        <v>1.073775421059178</v>
       </c>
       <c r="K23">
-        <v>1.026317220459326</v>
+        <v>1.072516952495354</v>
       </c>
       <c r="L23">
-        <v>1.019779446450378</v>
+        <v>1.07506925526512</v>
       </c>
       <c r="M23">
-        <v>1.030689179841828</v>
+        <v>1.084199982958393</v>
       </c>
       <c r="N23">
-        <v>1.018058206917745</v>
+        <v>1.075300305320845</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00007480298372</v>
+        <v>1.069693500763578</v>
       </c>
       <c r="D24">
-        <v>1.022249327321281</v>
+        <v>1.070877585720258</v>
       </c>
       <c r="E24">
-        <v>1.016464721073151</v>
+        <v>1.0736387843822</v>
       </c>
       <c r="F24">
-        <v>1.027574861869907</v>
+        <v>1.082794468117103</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045224931419354</v>
+        <v>1.048152554080239</v>
       </c>
       <c r="J24">
-        <v>1.027569973731118</v>
+        <v>1.075664727866111</v>
       </c>
       <c r="K24">
-        <v>1.035896669890624</v>
+        <v>1.074130284487553</v>
       </c>
       <c r="L24">
-        <v>1.030208738230246</v>
+        <v>1.076882548718497</v>
       </c>
       <c r="M24">
-        <v>1.041134439153916</v>
+        <v>1.086008964048373</v>
       </c>
       <c r="N24">
-        <v>1.02902924095774</v>
+        <v>1.07719229516015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015423414155204</v>
+        <v>1.072467554976514</v>
       </c>
       <c r="D25">
-        <v>1.034179070258873</v>
+        <v>1.073052785231677</v>
       </c>
       <c r="E25">
-        <v>1.029361962943284</v>
+        <v>1.0760473803121</v>
       </c>
       <c r="F25">
-        <v>1.04046512632969</v>
+        <v>1.085194809964949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049916765234975</v>
+        <v>1.048835542674954</v>
       </c>
       <c r="J25">
-        <v>1.039442638681061</v>
+        <v>1.077848256715203</v>
       </c>
       <c r="K25">
-        <v>1.046268997475172</v>
+        <v>1.07599266489531</v>
       </c>
       <c r="L25">
-        <v>1.04152095125872</v>
+        <v>1.078978572956132</v>
       </c>
       <c r="M25">
-        <v>1.052466147500763</v>
+        <v>1.088099789255326</v>
       </c>
       <c r="N25">
-        <v>1.040918766453726</v>
+        <v>1.079378924870662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -418,40 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.074674634519317</v>
+        <v>0.9861605386250794</v>
       </c>
       <c r="D2">
-        <v>1.074782120527066</v>
+        <v>1.007389425034843</v>
       </c>
       <c r="E2">
-        <v>1.077964081760828</v>
-      </c>
-      <c r="F2">
-        <v>1.087104781879177</v>
+        <v>0.99399729629513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049372733764684</v>
+        <v>1.040266454967039</v>
       </c>
       <c r="J2">
-        <v>1.079582927464044</v>
+        <v>1.008763214670117</v>
       </c>
       <c r="K2">
-        <v>1.077470423401331</v>
+        <v>1.018746764481364</v>
       </c>
       <c r="L2">
-        <v>1.080643999204078</v>
-      </c>
-      <c r="M2">
-        <v>1.089760905514138</v>
+        <v>1.005540896666367</v>
       </c>
       <c r="N2">
-        <v>1.081116059050936</v>
+        <v>1.010195774141707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.076274162652691</v>
+        <v>0.994287023722245</v>
       </c>
       <c r="D3">
-        <v>1.076034648658763</v>
+        <v>1.013615758930398</v>
       </c>
       <c r="E3">
-        <v>1.0793533705711</v>
-      </c>
-      <c r="F3">
-        <v>1.088489096058501</v>
+        <v>1.00076913391043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049758446728569</v>
+        <v>1.042925710608657</v>
       </c>
       <c r="J3">
-        <v>1.080838584652954</v>
+        <v>1.014934651175249</v>
       </c>
       <c r="K3">
-        <v>1.078539074064011</v>
+        <v>1.024077338047281</v>
       </c>
       <c r="L3">
-        <v>1.08184968754237</v>
-      </c>
-      <c r="M3">
-        <v>1.090963366646205</v>
+        <v>1.011392182975097</v>
       </c>
       <c r="N3">
-        <v>1.08237349941708</v>
+        <v>1.016375974794549</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077307832173501</v>
+        <v>0.9993688080234195</v>
       </c>
       <c r="D4">
-        <v>1.076843713677338</v>
+        <v>1.017510170760903</v>
       </c>
       <c r="E4">
-        <v>1.080251265120474</v>
-      </c>
-      <c r="F4">
-        <v>1.089383729580332</v>
+        <v>1.005010280676006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050006038464519</v>
+        <v>1.044571244169179</v>
       </c>
       <c r="J4">
-        <v>1.081649334146708</v>
+        <v>1.018788673548861</v>
       </c>
       <c r="K4">
-        <v>1.079228595322537</v>
+        <v>1.027401758821882</v>
       </c>
       <c r="L4">
-        <v>1.082628243605622</v>
-      </c>
-      <c r="M4">
-        <v>1.091739788229008</v>
+        <v>1.015048609813458</v>
       </c>
       <c r="N4">
-        <v>1.083185400268109</v>
+        <v>1.020235470321994</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077742076190967</v>
+        <v>1.001465504333113</v>
       </c>
       <c r="D5">
-        <v>1.077183513954868</v>
+        <v>1.019117029696168</v>
       </c>
       <c r="E5">
-        <v>1.080628490502864</v>
-      </c>
-      <c r="F5">
-        <v>1.089759573767355</v>
+        <v>1.006761581604647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050109651707531</v>
+        <v>1.045245912878503</v>
       </c>
       <c r="J5">
-        <v>1.081989761780578</v>
+        <v>1.020377476399898</v>
       </c>
       <c r="K5">
-        <v>1.079518004335407</v>
+        <v>1.028771119987398</v>
       </c>
       <c r="L5">
-        <v>1.082955170134485</v>
-      </c>
-      <c r="M5">
-        <v>1.092065806195535</v>
+        <v>1.016556509160929</v>
       </c>
       <c r="N5">
-        <v>1.083526311348267</v>
+        <v>1.021826529455318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077814969695117</v>
+        <v>1.001815292455178</v>
       </c>
       <c r="D6">
-        <v>1.077240548688015</v>
+        <v>1.019385098701195</v>
       </c>
       <c r="E6">
-        <v>1.080691813855288</v>
-      </c>
-      <c r="F6">
-        <v>1.0898226646042</v>
+        <v>1.007053829955785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050127021075212</v>
+        <v>1.0453582133729</v>
       </c>
       <c r="J6">
-        <v>1.082046897130659</v>
+        <v>1.020642452987398</v>
       </c>
       <c r="K6">
-        <v>1.079566570223007</v>
+        <v>1.028999431880766</v>
       </c>
       <c r="L6">
-        <v>1.083010040512644</v>
-      </c>
-      <c r="M6">
-        <v>1.092120523359337</v>
+        <v>1.01680802532002</v>
       </c>
       <c r="N6">
-        <v>1.083583527837098</v>
+        <v>1.022091882339965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.077313635773723</v>
+        <v>0.999396976877314</v>
       </c>
       <c r="D7">
-        <v>1.076848255397651</v>
+        <v>1.017531758651991</v>
       </c>
       <c r="E7">
-        <v>1.080256306597082</v>
-      </c>
-      <c r="F7">
-        <v>1.089388752641874</v>
+        <v>1.005033803604471</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050007424810833</v>
+        <v>1.044580325260982</v>
       </c>
       <c r="J7">
-        <v>1.081653884566455</v>
+        <v>1.018810024293192</v>
       </c>
       <c r="K7">
-        <v>1.079232464243465</v>
+        <v>1.027420165124359</v>
       </c>
       <c r="L7">
-        <v>1.082632613493774</v>
-      </c>
-      <c r="M7">
-        <v>1.091744146021207</v>
+        <v>1.015068871166137</v>
       </c>
       <c r="N7">
-        <v>1.083189957149974</v>
+        <v>1.020256851386831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075215483357623</v>
+        <v>0.9889451288617449</v>
       </c>
       <c r="D8">
-        <v>1.075205712433056</v>
+        <v>1.009522641338442</v>
       </c>
       <c r="E8">
-        <v>1.078433823368199</v>
-      </c>
-      <c r="F8">
-        <v>1.087572850898171</v>
+        <v>0.996316267752853</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049503500690571</v>
+        <v>1.041181290295355</v>
       </c>
       <c r="J8">
-        <v>1.08000764769232</v>
+        <v>1.010878942763026</v>
       </c>
       <c r="K8">
-        <v>1.077831989366085</v>
+        <v>1.020575149080146</v>
       </c>
       <c r="L8">
-        <v>1.081051803019285</v>
-      </c>
-      <c r="M8">
-        <v>1.090167628167636</v>
+        <v>1.007546369833734</v>
       </c>
       <c r="N8">
-        <v>1.081541382430651</v>
+        <v>1.012314506811185</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071507696774884</v>
+        <v>0.9690437284708423</v>
       </c>
       <c r="D9">
-        <v>1.072300335015093</v>
+        <v>0.9942871587816274</v>
       </c>
       <c r="E9">
-        <v>1.075213913047059</v>
-      </c>
-      <c r="F9">
-        <v>1.084364223443376</v>
+        <v>0.9797760761004226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04860018061858</v>
+        <v>1.034571145673794</v>
       </c>
       <c r="J9">
-        <v>1.077093126048527</v>
+        <v>0.9957390707587673</v>
       </c>
       <c r="K9">
-        <v>1.075348872514474</v>
+        <v>1.007473607883185</v>
       </c>
       <c r="L9">
-        <v>1.07825366138223</v>
-      </c>
-      <c r="M9">
-        <v>1.087376703105192</v>
+        <v>0.9932060219819216</v>
       </c>
       <c r="N9">
-        <v>1.078622721831824</v>
+        <v>0.9971531344521128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069028208677662</v>
+        <v>0.9545664785366282</v>
       </c>
       <c r="D10">
-        <v>1.07035566366083</v>
+        <v>0.9832265236993852</v>
       </c>
       <c r="E10">
-        <v>1.073061221939245</v>
-      </c>
-      <c r="F10">
-        <v>1.082218853728818</v>
+        <v>0.967793867550214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047987514620517</v>
+        <v>1.02967506858888</v>
       </c>
       <c r="J10">
-        <v>1.07514054620216</v>
+        <v>0.984706324688006</v>
       </c>
       <c r="K10">
-        <v>1.073682842990497</v>
+        <v>0.9979053797287292</v>
       </c>
       <c r="L10">
-        <v>1.076379429180137</v>
-      </c>
-      <c r="M10">
-        <v>1.085507057550718</v>
+        <v>0.9827700235785598</v>
       </c>
       <c r="N10">
-        <v>1.076667369098112</v>
+        <v>0.986104720616457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067952636669193</v>
+        <v>0.94795317436266</v>
       </c>
       <c r="D11">
-        <v>1.06951168137976</v>
+        <v>0.9781825389088243</v>
       </c>
       <c r="E11">
-        <v>1.072127551311295</v>
-      </c>
-      <c r="F11">
-        <v>1.081288308179319</v>
+        <v>0.9623347731563767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047719713164534</v>
+        <v>1.027419469658206</v>
       </c>
       <c r="J11">
-        <v>1.074292700640059</v>
+        <v>0.9796637435503205</v>
       </c>
       <c r="K11">
-        <v>1.072958841081285</v>
+        <v>0.9935279725801605</v>
       </c>
       <c r="L11">
-        <v>1.075565695708596</v>
-      </c>
-      <c r="M11">
-        <v>1.084695258945246</v>
+        <v>0.9780037604651077</v>
       </c>
       <c r="N11">
-        <v>1.075818319498063</v>
+        <v>0.981054978435164</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067552820171334</v>
+        <v>0.9454390614810172</v>
       </c>
       <c r="D12">
-        <v>1.069197892397405</v>
+        <v>0.9762666307257988</v>
       </c>
       <c r="E12">
-        <v>1.071780505216817</v>
-      </c>
-      <c r="F12">
-        <v>1.080942416298775</v>
+        <v>0.9602618746299754</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047619859482577</v>
+        <v>1.026559294263129</v>
       </c>
       <c r="J12">
-        <v>1.073977409964382</v>
+        <v>0.9777465251737526</v>
       </c>
       <c r="K12">
-        <v>1.072689517413035</v>
+        <v>0.9918631013277625</v>
       </c>
       <c r="L12">
-        <v>1.075263104418958</v>
-      </c>
-      <c r="M12">
-        <v>1.084393378830932</v>
+        <v>0.9761921589304505</v>
       </c>
       <c r="N12">
-        <v>1.075502581073463</v>
+        <v>0.9791350373885935</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067638595958715</v>
+        <v>0.9459810601892309</v>
       </c>
       <c r="D13">
-        <v>1.06926521472292</v>
+        <v>0.9766795886212217</v>
       </c>
       <c r="E13">
-        <v>1.071854958733196</v>
-      </c>
-      <c r="F13">
-        <v>1.081016622526835</v>
+        <v>0.9607086411237584</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047641295689841</v>
+        <v>1.026744851197788</v>
       </c>
       <c r="J13">
-        <v>1.074045057438809</v>
+        <v>0.9781598511310826</v>
       </c>
       <c r="K13">
-        <v>1.072747306329403</v>
+        <v>0.9922220484977888</v>
       </c>
       <c r="L13">
-        <v>1.075328026527458</v>
-      </c>
-      <c r="M13">
-        <v>1.084458148727484</v>
+        <v>0.9765826897228328</v>
       </c>
       <c r="N13">
-        <v>1.075570324615062</v>
+        <v>0.9795489503161923</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.067919593915142</v>
+        <v>0.9477465701546454</v>
       </c>
       <c r="D14">
-        <v>1.069485749570936</v>
+        <v>0.9780250591798458</v>
       </c>
       <c r="E14">
-        <v>1.072098869298324</v>
-      </c>
-      <c r="F14">
-        <v>1.081259721707081</v>
+        <v>0.9621643761481066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047711467001927</v>
+        <v>1.027348835695256</v>
       </c>
       <c r="J14">
-        <v>1.074266646065875</v>
+        <v>0.9795061943581299</v>
       </c>
       <c r="K14">
-        <v>1.072936586841725</v>
+        <v>0.9933911710446435</v>
       </c>
       <c r="L14">
-        <v>1.075540690282331</v>
-      </c>
-      <c r="M14">
-        <v>1.08467031245738</v>
+        <v>0.9778548789688943</v>
       </c>
       <c r="N14">
-        <v>1.075792227923395</v>
+        <v>0.9808972055050492</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068092685819414</v>
+        <v>0.9488265297947629</v>
       </c>
       <c r="D15">
-        <v>1.069621588887762</v>
+        <v>0.9788483032239299</v>
       </c>
       <c r="E15">
-        <v>1.072249118712798</v>
-      </c>
-      <c r="F15">
-        <v>1.08140947033476</v>
+        <v>0.9630551740476185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047754651387743</v>
+        <v>1.027717944977637</v>
       </c>
       <c r="J15">
-        <v>1.074403125789541</v>
+        <v>0.980329725821652</v>
       </c>
       <c r="K15">
-        <v>1.073053155994946</v>
+        <v>0.9941062295442609</v>
       </c>
       <c r="L15">
-        <v>1.075671674908416</v>
-      </c>
-      <c r="M15">
-        <v>1.08480098801017</v>
+        <v>0.9786331260106779</v>
       </c>
       <c r="N15">
-        <v>1.075928901463923</v>
+        <v>0.9817219064777098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069099549171921</v>
+        <v>0.9549976422270461</v>
       </c>
       <c r="D16">
-        <v>1.070411634802077</v>
+        <v>0.9835555763919216</v>
       </c>
       <c r="E16">
-        <v>1.073123153456587</v>
-      </c>
-      <c r="F16">
-        <v>1.082280576911267</v>
+        <v>0.9681500996824257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04800523454085</v>
+        <v>1.029821747120907</v>
       </c>
       <c r="J16">
-        <v>1.075196764425221</v>
+        <v>0.9850350408461064</v>
       </c>
       <c r="K16">
-        <v>1.073730837278844</v>
+        <v>0.9981906540661268</v>
       </c>
       <c r="L16">
-        <v>1.076433387482517</v>
-      </c>
-      <c r="M16">
-        <v>1.085560886378509</v>
+        <v>0.9830808024945292</v>
       </c>
       <c r="N16">
-        <v>1.076723667157498</v>
+        <v>0.9864339035892061</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069730602169731</v>
+        <v>0.9587725092967068</v>
       </c>
       <c r="D17">
-        <v>1.070906689022527</v>
+        <v>0.9864374527708654</v>
       </c>
       <c r="E17">
-        <v>1.073670994320917</v>
-      </c>
-      <c r="F17">
-        <v>1.082826569072149</v>
+        <v>0.9712705859392193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048161743992433</v>
+        <v>1.031103808847631</v>
       </c>
       <c r="J17">
-        <v>1.075693954231966</v>
+        <v>0.9879126833665807</v>
       </c>
       <c r="K17">
-        <v>1.07415522815443</v>
+        <v>1.000687536225164</v>
       </c>
       <c r="L17">
-        <v>1.076910601368141</v>
-      </c>
-      <c r="M17">
-        <v>1.08603694867727</v>
+        <v>0.9858018220898974</v>
       </c>
       <c r="N17">
-        <v>1.077221563030796</v>
+        <v>0.9893156326921299</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070098498472374</v>
+        <v>0.9609415228362411</v>
       </c>
       <c r="D18">
-        <v>1.071195260340483</v>
+        <v>0.9880941391878576</v>
       </c>
       <c r="E18">
-        <v>1.073990392451892</v>
-      </c>
-      <c r="F18">
-        <v>1.083144884517394</v>
+        <v>0.973064928923712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048252791022804</v>
+        <v>1.031838682426224</v>
       </c>
       <c r="J18">
-        <v>1.075983728910264</v>
+        <v>0.98956588797337</v>
       </c>
       <c r="K18">
-        <v>1.074402517738184</v>
+        <v>1.002121597448685</v>
       </c>
       <c r="L18">
-        <v>1.07718874244026</v>
-      </c>
-      <c r="M18">
-        <v>1.086314413098443</v>
+        <v>0.9873653787248851</v>
       </c>
       <c r="N18">
-        <v>1.077511749222375</v>
+        <v>0.9909711850390859</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070223910320085</v>
+        <v>0.9616756999392664</v>
       </c>
       <c r="D19">
-        <v>1.071293624457854</v>
+        <v>0.9886550250064178</v>
       </c>
       <c r="E19">
-        <v>1.074099274059263</v>
-      </c>
-      <c r="F19">
-        <v>1.083253396209876</v>
+        <v>0.9736725049111382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048283794694065</v>
+        <v>1.032087117133624</v>
       </c>
       <c r="J19">
-        <v>1.076082496192286</v>
+        <v>0.9901254211437432</v>
       </c>
       <c r="K19">
-        <v>1.07448679481287</v>
+        <v>1.00260689140853</v>
       </c>
       <c r="L19">
-        <v>1.077283546001983</v>
-      </c>
-      <c r="M19">
-        <v>1.086408985094969</v>
+        <v>0.987894625899865</v>
       </c>
       <c r="N19">
-        <v>1.077610656765267</v>
+        <v>0.9915315128107406</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069662915491619</v>
+        <v>0.9583709341646132</v>
       </c>
       <c r="D20">
-        <v>1.070853593620165</v>
+        <v>0.9861307919038682</v>
       </c>
       <c r="E20">
-        <v>1.073612231563359</v>
-      </c>
-      <c r="F20">
-        <v>1.082768005113354</v>
+        <v>0.9709384843622353</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048144977090014</v>
+        <v>1.030967606626829</v>
       </c>
       <c r="J20">
-        <v>1.075640634081298</v>
+        <v>0.9876065829710493</v>
       </c>
       <c r="K20">
-        <v>1.074109720980422</v>
+        <v>1.000421978823343</v>
       </c>
       <c r="L20">
-        <v>1.07685942257796</v>
-      </c>
-      <c r="M20">
-        <v>1.085985893952219</v>
+        <v>0.9855123473064297</v>
       </c>
       <c r="N20">
-        <v>1.077168167159398</v>
+        <v>0.9890090975989266</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067836855415806</v>
+        <v>0.9472283144946945</v>
       </c>
       <c r="D21">
-        <v>1.069420815792345</v>
+        <v>0.9776300567313818</v>
       </c>
       <c r="E21">
-        <v>1.072027050382921</v>
-      </c>
-      <c r="F21">
-        <v>1.081188141904303</v>
+        <v>0.9617369842937435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047690813819693</v>
+        <v>1.027171611625772</v>
       </c>
       <c r="J21">
-        <v>1.074201403823</v>
+        <v>0.9791109875407265</v>
       </c>
       <c r="K21">
-        <v>1.072880859463396</v>
+        <v>0.9930480003614504</v>
       </c>
       <c r="L21">
-        <v>1.075478075397036</v>
-      </c>
-      <c r="M21">
-        <v>1.084607845023206</v>
+        <v>0.9774814238381065</v>
       </c>
       <c r="N21">
-        <v>1.075726893029052</v>
+        <v>0.9805014374486341</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066686991467204</v>
+        <v>0.9398853843080076</v>
       </c>
       <c r="D22">
-        <v>1.068518253249452</v>
+        <v>0.9720377672468938</v>
       </c>
       <c r="E22">
-        <v>1.07102899596174</v>
-      </c>
-      <c r="F22">
-        <v>1.080193393136993</v>
+        <v>0.9556876531356002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047403061688218</v>
+        <v>1.024654410747944</v>
       </c>
       <c r="J22">
-        <v>1.073294398100653</v>
+        <v>0.9735111857836501</v>
       </c>
       <c r="K22">
-        <v>1.072105924574606</v>
+        <v>0.9881842862837897</v>
       </c>
       <c r="L22">
-        <v>1.074607629014241</v>
-      </c>
-      <c r="M22">
-        <v>1.083739428957716</v>
+        <v>0.9721912010362249</v>
       </c>
       <c r="N22">
-        <v>1.074818599254544</v>
+        <v>0.9748936833307568</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067296725138491</v>
+        <v>0.9438121887670597</v>
       </c>
       <c r="D23">
-        <v>1.068996883922856</v>
+        <v>0.9750273528966248</v>
       </c>
       <c r="E23">
-        <v>1.07155821765809</v>
-      </c>
-      <c r="F23">
-        <v>1.080720865974971</v>
+        <v>0.9589212308491555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047555814150318</v>
+        <v>1.026001943971162</v>
       </c>
       <c r="J23">
-        <v>1.073775421059178</v>
+        <v>0.9765058603520528</v>
       </c>
       <c r="K23">
-        <v>1.072516952495354</v>
+        <v>0.9907855879593511</v>
       </c>
       <c r="L23">
-        <v>1.07506925526512</v>
-      </c>
-      <c r="M23">
-        <v>1.084199982958393</v>
+        <v>0.9750200014486596</v>
       </c>
       <c r="N23">
-        <v>1.075300305320845</v>
+        <v>0.9778926106805405</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069693500763578</v>
+        <v>0.9585524896181382</v>
       </c>
       <c r="D24">
-        <v>1.070877585720258</v>
+        <v>0.9862694334290616</v>
       </c>
       <c r="E24">
-        <v>1.0736387843822</v>
-      </c>
-      <c r="F24">
-        <v>1.082794468117103</v>
+        <v>0.9710886261196142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048152554080239</v>
+        <v>1.031029190363284</v>
       </c>
       <c r="J24">
-        <v>1.075664727866111</v>
+        <v>0.987744974354675</v>
       </c>
       <c r="K24">
-        <v>1.074130284487553</v>
+        <v>1.000542041508949</v>
       </c>
       <c r="L24">
-        <v>1.076882548718497</v>
-      </c>
-      <c r="M24">
-        <v>1.086008964048373</v>
+        <v>0.9856432210360111</v>
       </c>
       <c r="N24">
-        <v>1.07719229516015</v>
+        <v>0.989147685514191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072467554976514</v>
+        <v>0.9743846421505272</v>
       </c>
       <c r="D25">
-        <v>1.073052785231677</v>
+        <v>0.9983730476025847</v>
       </c>
       <c r="E25">
-        <v>1.0760473803121</v>
-      </c>
-      <c r="F25">
-        <v>1.085194809964949</v>
+        <v>0.9842072560427088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048835542674954</v>
+        <v>1.036360407928683</v>
       </c>
       <c r="J25">
-        <v>1.077848256715203</v>
+        <v>0.9998059229390893</v>
       </c>
       <c r="K25">
-        <v>1.07599266489531</v>
+        <v>1.010996672523295</v>
       </c>
       <c r="L25">
-        <v>1.078978572956132</v>
-      </c>
-      <c r="M25">
-        <v>1.088099789255326</v>
+        <v>0.9970557833125742</v>
       </c>
       <c r="N25">
-        <v>1.079378924870662</v>
+        <v>1.001225762029005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9861605386250794</v>
+        <v>0.9993172784004751</v>
       </c>
       <c r="D2">
-        <v>1.007389425034843</v>
+        <v>1.021153796773663</v>
       </c>
       <c r="E2">
-        <v>0.99399729629513</v>
+        <v>1.005371000175455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040266454967039</v>
+        <v>1.047252258917627</v>
       </c>
       <c r="J2">
-        <v>1.008763214670117</v>
+        <v>1.021518428746962</v>
       </c>
       <c r="K2">
-        <v>1.018746764481364</v>
+        <v>1.032326086766614</v>
       </c>
       <c r="L2">
-        <v>1.005540896666367</v>
+        <v>1.016756012165627</v>
       </c>
       <c r="N2">
-        <v>1.010195774141707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.022969102085584</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033927555859995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994287023722245</v>
+        <v>1.005739161254685</v>
       </c>
       <c r="D3">
-        <v>1.013615758930398</v>
+        <v>1.025647163740762</v>
       </c>
       <c r="E3">
-        <v>1.00076913391043</v>
+        <v>1.010683626841256</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042925710608657</v>
+        <v>1.049039085722464</v>
       </c>
       <c r="J3">
-        <v>1.014934651175249</v>
+        <v>1.02607458434123</v>
       </c>
       <c r="K3">
-        <v>1.024077338047281</v>
+        <v>1.035962073072042</v>
       </c>
       <c r="L3">
-        <v>1.011392182975097</v>
+        <v>1.021181609590869</v>
       </c>
       <c r="N3">
-        <v>1.016375974794549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.027531727943394</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03649587251796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993688080234195</v>
+        <v>1.009783940206496</v>
       </c>
       <c r="D4">
-        <v>1.017510170760903</v>
+        <v>1.028479223287288</v>
       </c>
       <c r="E4">
-        <v>1.005010280676006</v>
+        <v>1.014036239771889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044571244169179</v>
+        <v>1.050149006701047</v>
       </c>
       <c r="J4">
-        <v>1.018788673548861</v>
+        <v>1.028940640336147</v>
       </c>
       <c r="K4">
-        <v>1.027401758821882</v>
+        <v>1.038245662753256</v>
       </c>
       <c r="L4">
-        <v>1.015048609813458</v>
+        <v>1.023968160714857</v>
       </c>
       <c r="N4">
-        <v>1.020235470321994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.030401854066565</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038111482905451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001465504333113</v>
+        <v>1.011468692378906</v>
       </c>
       <c r="D5">
-        <v>1.019117029696168</v>
+        <v>1.029661122839955</v>
       </c>
       <c r="E5">
-        <v>1.006761581604647</v>
+        <v>1.01543721107426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045245912878503</v>
+        <v>1.050609278103296</v>
       </c>
       <c r="J5">
-        <v>1.020377476399898</v>
+        <v>1.03013604399037</v>
       </c>
       <c r="K5">
-        <v>1.028771119987398</v>
+        <v>1.039198307136427</v>
       </c>
       <c r="L5">
-        <v>1.016556509160929</v>
+        <v>1.02513280508566</v>
       </c>
       <c r="N5">
-        <v>1.021826529455318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.031598955331092</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038792271050643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001815292455178</v>
+        <v>1.011761671467029</v>
       </c>
       <c r="D6">
-        <v>1.019385098701195</v>
+        <v>1.029868980408191</v>
       </c>
       <c r="E6">
-        <v>1.007053829955785</v>
+        <v>1.015684600655205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0453582133729</v>
+        <v>1.050691235185495</v>
       </c>
       <c r="J6">
-        <v>1.020642452987398</v>
+        <v>1.03034694855333</v>
       </c>
       <c r="K6">
-        <v>1.028999431880766</v>
+        <v>1.03936763925606</v>
       </c>
       <c r="L6">
-        <v>1.01680802532002</v>
+        <v>1.025340465735508</v>
       </c>
       <c r="N6">
-        <v>1.022091882339965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.031810159402722</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038920761001531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.999396976877314</v>
+        <v>1.00983788456975</v>
       </c>
       <c r="D7">
-        <v>1.017531758651991</v>
+        <v>1.028523193721598</v>
       </c>
       <c r="E7">
-        <v>1.005033803604471</v>
+        <v>1.014091192631628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044580325260982</v>
+        <v>1.050169495119014</v>
       </c>
       <c r="J7">
-        <v>1.018810024293192</v>
+        <v>1.028987240820612</v>
       </c>
       <c r="K7">
-        <v>1.027420165124359</v>
+        <v>1.038286248011975</v>
       </c>
       <c r="L7">
-        <v>1.015068871166137</v>
+        <v>1.024019527520492</v>
       </c>
       <c r="N7">
-        <v>1.020256851386831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.030448520729064</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038160335855932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889451288617449</v>
+        <v>1.00155164729018</v>
       </c>
       <c r="D8">
-        <v>1.009522641338442</v>
+        <v>1.022724126302878</v>
       </c>
       <c r="E8">
-        <v>0.996316267752853</v>
+        <v>1.007231722483096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041181290295355</v>
+        <v>1.047884051824779</v>
       </c>
       <c r="J8">
-        <v>1.010878942763026</v>
+        <v>1.0231149351058</v>
       </c>
       <c r="K8">
-        <v>1.020575149080146</v>
+        <v>1.033604837159864</v>
       </c>
       <c r="L8">
-        <v>1.007546369833734</v>
+        <v>1.018314618503826</v>
       </c>
       <c r="N8">
-        <v>1.012314506811185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.024567875666574</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034854783342521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9690437284708423</v>
+        <v>0.9859867599324414</v>
       </c>
       <c r="D9">
-        <v>0.9942871587816274</v>
+        <v>1.011842300709696</v>
       </c>
       <c r="E9">
-        <v>0.9797760761004226</v>
+        <v>0.9943849166424276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034571145673794</v>
+        <v>1.043460264568035</v>
       </c>
       <c r="J9">
-        <v>0.9957390707587673</v>
+        <v>1.012044254976849</v>
       </c>
       <c r="K9">
-        <v>1.007473607883185</v>
+        <v>1.024746122896897</v>
       </c>
       <c r="L9">
-        <v>0.9932060219819216</v>
+        <v>1.007569756362888</v>
       </c>
       <c r="N9">
-        <v>0.9971531344521128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013481473902015</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028587749478976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9545664785366282</v>
+        <v>0.9749099761258737</v>
       </c>
       <c r="D10">
-        <v>0.9832265236993852</v>
+        <v>1.004122096424771</v>
       </c>
       <c r="E10">
-        <v>0.967793867550214</v>
+        <v>0.985291963390957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02967506858888</v>
+        <v>1.040236107188704</v>
       </c>
       <c r="J10">
-        <v>0.984706324688006</v>
+        <v>1.004155673473599</v>
       </c>
       <c r="K10">
-        <v>0.9979053797287292</v>
+        <v>1.01841732187265</v>
       </c>
       <c r="L10">
-        <v>0.9827700235785598</v>
+        <v>0.9999319527735625</v>
       </c>
       <c r="N10">
-        <v>0.986104720616457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005581689708197</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.024129783017159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.94795317436266</v>
+        <v>0.9699659643628109</v>
       </c>
       <c r="D11">
-        <v>0.9781825389088243</v>
+        <v>1.000689918986226</v>
       </c>
       <c r="E11">
-        <v>0.9623347731563767</v>
+        <v>0.9812634095941459</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027419469658206</v>
+        <v>1.038785878988771</v>
       </c>
       <c r="J11">
-        <v>0.9796637435503205</v>
+        <v>1.000643861887691</v>
       </c>
       <c r="K11">
-        <v>0.9935279725801605</v>
+        <v>1.01559883616365</v>
       </c>
       <c r="L11">
-        <v>0.9780037604651077</v>
+        <v>0.9965475372486526</v>
       </c>
       <c r="N11">
-        <v>0.981054978435164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002064890947027</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022170304430479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9454390614810172</v>
+        <v>0.9680730685520957</v>
       </c>
       <c r="D12">
-        <v>0.9762666307257988</v>
+        <v>0.9993733004428675</v>
       </c>
       <c r="E12">
-        <v>0.9602618746299754</v>
+        <v>0.9797133995736602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026559294263129</v>
+        <v>1.03822477480804</v>
       </c>
       <c r="J12">
-        <v>0.9777465251737526</v>
+        <v>0.9992929096749885</v>
       </c>
       <c r="K12">
-        <v>0.9918631013277625</v>
+        <v>1.014512516884108</v>
       </c>
       <c r="L12">
-        <v>0.9761921589304505</v>
+        <v>0.9952398598749699</v>
       </c>
       <c r="N12">
-        <v>0.9791350373885935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000712020227226</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021402215496618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9459810601892309</v>
+        <v>0.9684755643217298</v>
       </c>
       <c r="D13">
-        <v>0.9766795886212217</v>
+        <v>0.9996524777262582</v>
       </c>
       <c r="E13">
-        <v>0.9607086411237584</v>
+        <v>0.9800409793482133</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026744851197788</v>
+        <v>1.038343555051712</v>
       </c>
       <c r="J13">
-        <v>0.9781598511310826</v>
+        <v>0.9995789716695013</v>
       </c>
       <c r="K13">
-        <v>0.9922220484977888</v>
+        <v>1.014742282442272</v>
       </c>
       <c r="L13">
-        <v>0.9765826897228328</v>
+        <v>0.9955154619707512</v>
       </c>
       <c r="N13">
-        <v>0.9795489503161923</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000998488462582</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021562134297352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9477465701546454</v>
+        <v>0.9698080309949866</v>
       </c>
       <c r="D14">
-        <v>0.9780250591798458</v>
+        <v>1.000579730672563</v>
       </c>
       <c r="E14">
-        <v>0.9621643761481066</v>
+        <v>0.9811332325012941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027348835695256</v>
+        <v>1.038738839381524</v>
       </c>
       <c r="J14">
-        <v>0.9795061943581299</v>
+        <v>1.00053063593098</v>
       </c>
       <c r="K14">
-        <v>0.9933911710446435</v>
+        <v>1.015507676917636</v>
       </c>
       <c r="L14">
-        <v>0.9778548789688943</v>
+        <v>0.9964373894403536</v>
       </c>
       <c r="N14">
-        <v>0.9808972055050492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00195150419647</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02210476279498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488265297947629</v>
+        <v>0.9706345560823938</v>
       </c>
       <c r="D15">
-        <v>0.9788483032239299</v>
+        <v>1.00115651957853</v>
       </c>
       <c r="E15">
-        <v>0.9630551740476185</v>
+        <v>0.9818147568025686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027717944977637</v>
+        <v>1.038984981918119</v>
       </c>
       <c r="J15">
-        <v>0.980329725821652</v>
+        <v>1.001123301065386</v>
       </c>
       <c r="K15">
-        <v>0.9941062295442609</v>
+        <v>1.015984852028369</v>
       </c>
       <c r="L15">
-        <v>0.9786331260106779</v>
+        <v>0.9970140798873185</v>
       </c>
       <c r="N15">
-        <v>0.9817219064777098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.002545010983347</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022448127174121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9549976422270461</v>
+        <v>0.9753175316331362</v>
       </c>
       <c r="D16">
-        <v>0.9835555763919216</v>
+        <v>1.004417990925721</v>
       </c>
       <c r="E16">
-        <v>0.9681500996824257</v>
+        <v>0.9856562454484868</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029821747120907</v>
+        <v>1.040366610072993</v>
       </c>
       <c r="J16">
-        <v>0.9850350408461064</v>
+        <v>1.004465812942503</v>
       </c>
       <c r="K16">
-        <v>0.9981906540661268</v>
+        <v>1.01867148805129</v>
       </c>
       <c r="L16">
-        <v>0.9830808024945292</v>
+        <v>1.000251946555927</v>
       </c>
       <c r="N16">
-        <v>0.9864339035892061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00589226961072</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024350936026014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9587725092967068</v>
+        <v>0.9782006204318076</v>
       </c>
       <c r="D17">
-        <v>0.9864374527708654</v>
+        <v>1.006427921411466</v>
       </c>
       <c r="E17">
-        <v>0.9712705859392193</v>
+        <v>0.9880243334863109</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031103808847631</v>
+        <v>1.041212738326235</v>
       </c>
       <c r="J17">
-        <v>0.9879126833665807</v>
+        <v>1.006523082702683</v>
       </c>
       <c r="K17">
-        <v>1.000687536225164</v>
+        <v>1.020324176810739</v>
       </c>
       <c r="L17">
-        <v>0.9858018220898974</v>
+        <v>1.002245649084845</v>
       </c>
       <c r="N17">
-        <v>0.9893156326921299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007952460929933</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02552209177624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9609415228362411</v>
+        <v>0.9798383353359409</v>
       </c>
       <c r="D18">
-        <v>0.9880941391878576</v>
+        <v>1.00756637723276</v>
       </c>
       <c r="E18">
-        <v>0.973064928923712</v>
+        <v>0.989361208247312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031838682426224</v>
+        <v>1.041688251793185</v>
       </c>
       <c r="J18">
-        <v>0.98956588797337</v>
+        <v>1.007685276656525</v>
       </c>
       <c r="K18">
-        <v>1.002121597448685</v>
+        <v>1.021255770885233</v>
       </c>
       <c r="L18">
-        <v>0.9873653787248851</v>
+        <v>1.003366143256993</v>
       </c>
       <c r="N18">
-        <v>0.9909711850390859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009116305332494</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026168969851055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9616756999392664</v>
+        <v>0.9804130865646619</v>
       </c>
       <c r="D19">
-        <v>0.9886550250064178</v>
+        <v>1.007969087618906</v>
       </c>
       <c r="E19">
-        <v>0.9736725049111382</v>
+        <v>0.9898378863127615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032087117133624</v>
+        <v>1.041857592541265</v>
       </c>
       <c r="J19">
-        <v>0.9901254211437432</v>
+        <v>1.008097957216106</v>
       </c>
       <c r="K19">
-        <v>1.00260689140853</v>
+        <v>1.021587854336732</v>
       </c>
       <c r="L19">
-        <v>0.987894625899865</v>
+        <v>1.003768868044628</v>
       </c>
       <c r="N19">
-        <v>0.9915315128107406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009529571945805</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026410249620082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9583709341646132</v>
+        <v>0.9778912912778389</v>
       </c>
       <c r="D20">
-        <v>0.9861307919038682</v>
+        <v>1.006211901366657</v>
       </c>
       <c r="E20">
-        <v>0.9709384843622353</v>
+        <v>0.9877694131185328</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030967606626829</v>
+        <v>1.041121856998303</v>
       </c>
       <c r="J20">
-        <v>0.9876065829710493</v>
+        <v>1.006301897591135</v>
       </c>
       <c r="K20">
-        <v>1.000421978823343</v>
+        <v>1.020146394401867</v>
       </c>
       <c r="L20">
-        <v>0.9855123473064297</v>
+        <v>1.002030786808624</v>
       </c>
       <c r="N20">
-        <v>0.9890090975989266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007730961710155</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025395036585729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9472283144946945</v>
+        <v>0.9694446039521004</v>
       </c>
       <c r="D21">
-        <v>0.9776300567313818</v>
+        <v>1.000330842215613</v>
       </c>
       <c r="E21">
-        <v>0.9617369842937435</v>
+        <v>0.980845948284661</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027171611625772</v>
+        <v>1.038634682911837</v>
       </c>
       <c r="J21">
-        <v>0.9791109875407265</v>
+        <v>1.000277810792031</v>
       </c>
       <c r="K21">
-        <v>0.9930480003614504</v>
+        <v>1.01530594939978</v>
       </c>
       <c r="L21">
-        <v>0.9774814238381065</v>
+        <v>0.9961995190481875</v>
       </c>
       <c r="N21">
-        <v>0.9805014374486341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001698320016825</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021975884526061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9398853843080076</v>
+        <v>0.9639116135522388</v>
       </c>
       <c r="D22">
-        <v>0.9720377672468938</v>
+        <v>0.9964808110073449</v>
       </c>
       <c r="E22">
-        <v>0.9556876531356002</v>
+        <v>0.9763080893830971</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024654410747944</v>
+        <v>1.036986301546006</v>
       </c>
       <c r="J22">
-        <v>0.9735111857836501</v>
+        <v>0.9963217441564162</v>
       </c>
       <c r="K22">
-        <v>0.9881842862837897</v>
+        <v>1.012122307577474</v>
       </c>
       <c r="L22">
-        <v>0.9721912010362249</v>
+        <v>0.9923639655469564</v>
       </c>
       <c r="N22">
-        <v>0.9748936833307568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9977366353128194</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019711106781021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9438121887670597</v>
+        <v>0.9668295324776265</v>
       </c>
       <c r="D23">
-        <v>0.9750273528966248</v>
+        <v>0.9985055888664306</v>
       </c>
       <c r="E23">
-        <v>0.9589212308491555</v>
+        <v>0.9786872085580048</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026001943971162</v>
+        <v>1.037852668591987</v>
       </c>
       <c r="J23">
-        <v>0.9765058603520528</v>
+        <v>0.9984000507548166</v>
       </c>
       <c r="K23">
-        <v>0.9907855879593511</v>
+        <v>1.013793209160936</v>
       </c>
       <c r="L23">
-        <v>0.9750200014486596</v>
+        <v>0.9943701233188663</v>
       </c>
       <c r="N23">
-        <v>0.9778926106805405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9998178933449751</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02088272554292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9585524896181382</v>
+        <v>0.9779777129824803</v>
       </c>
       <c r="D24">
-        <v>0.9862694334290616</v>
+        <v>1.006264093397837</v>
       </c>
       <c r="E24">
-        <v>0.9710886261196142</v>
+        <v>0.987820836485611</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031029190363284</v>
+        <v>1.041139948205881</v>
       </c>
       <c r="J24">
-        <v>0.987744974354675</v>
+        <v>1.006350664423142</v>
       </c>
       <c r="K24">
-        <v>1.000542041508949</v>
+        <v>1.020182090348034</v>
       </c>
       <c r="L24">
-        <v>0.9856432210360111</v>
+        <v>1.0020652617963</v>
       </c>
       <c r="N24">
-        <v>0.989147685514191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007779797796658</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.02539248024421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9743846421505272</v>
+        <v>0.9901819397747642</v>
       </c>
       <c r="D25">
-        <v>0.9983730476025847</v>
+        <v>1.014781038785437</v>
       </c>
       <c r="E25">
-        <v>0.9842072560427088</v>
+        <v>0.9978594631919387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036360407928683</v>
+        <v>1.044674533493903</v>
       </c>
       <c r="J25">
-        <v>0.9998059229390893</v>
+        <v>1.015044299457299</v>
       </c>
       <c r="K25">
-        <v>1.010996672523295</v>
+        <v>1.027154150982444</v>
       </c>
       <c r="L25">
-        <v>0.9970557833125742</v>
+        <v>1.010491099368449</v>
       </c>
       <c r="N25">
-        <v>1.001225762029005</v>
+        <v>1.016485778789737</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030319287274519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -433,37 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9993172784004751</v>
+        <v>1.029309600808322</v>
       </c>
       <c r="D2">
-        <v>1.021153796773663</v>
+        <v>1.045743174522805</v>
       </c>
       <c r="E2">
-        <v>1.005371000175455</v>
+        <v>1.04082740150638</v>
+      </c>
+      <c r="F2">
+        <v>1.049676014374546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047252258917627</v>
+        <v>1.061202169094939</v>
       </c>
       <c r="J2">
-        <v>1.021518428746962</v>
+        <v>1.050647662194486</v>
       </c>
       <c r="K2">
-        <v>1.032326086766614</v>
+        <v>1.056599999229192</v>
       </c>
       <c r="L2">
-        <v>1.016756012165627</v>
+        <v>1.051745804848505</v>
+      </c>
+      <c r="M2">
+        <v>1.060484090360038</v>
       </c>
       <c r="N2">
-        <v>1.022969102085584</v>
+        <v>1.020275197344785</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.056441318569447</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033927555859995</v>
+        <v>1.051091251677588</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -474,37 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005739161254685</v>
+        <v>1.033202069142158</v>
       </c>
       <c r="D3">
-        <v>1.025647163740762</v>
+        <v>1.048419679621628</v>
       </c>
       <c r="E3">
-        <v>1.010683626841256</v>
+        <v>1.043864331240119</v>
+      </c>
+      <c r="F3">
+        <v>1.052527855518423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049039085722464</v>
+        <v>1.062375959116271</v>
       </c>
       <c r="J3">
-        <v>1.02607458434123</v>
+        <v>1.052826789526942</v>
       </c>
       <c r="K3">
-        <v>1.035962073072042</v>
+        <v>1.058468353078088</v>
       </c>
       <c r="L3">
-        <v>1.021181609590869</v>
+        <v>1.053965113914912</v>
+      </c>
+      <c r="M3">
+        <v>1.062530011640093</v>
       </c>
       <c r="N3">
-        <v>1.027531727943394</v>
+        <v>1.021038646628351</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.058060491577847</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03649587251796</v>
+        <v>1.052409677063856</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -515,37 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009783940206496</v>
+        <v>1.035676648367626</v>
       </c>
       <c r="D4">
-        <v>1.028479223287288</v>
+        <v>1.050125024824866</v>
       </c>
       <c r="E4">
-        <v>1.014036239771889</v>
+        <v>1.045800789304435</v>
+      </c>
+      <c r="F4">
+        <v>1.054347935904692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050149006701047</v>
+        <v>1.063113086457444</v>
       </c>
       <c r="J4">
-        <v>1.028940640336147</v>
+        <v>1.054209766810827</v>
       </c>
       <c r="K4">
-        <v>1.038245662753256</v>
+        <v>1.059653904106261</v>
       </c>
       <c r="L4">
-        <v>1.023968160714857</v>
+        <v>1.055376162541683</v>
+      </c>
+      <c r="M4">
+        <v>1.063831861084189</v>
       </c>
       <c r="N4">
-        <v>1.030401854066565</v>
+        <v>1.021523085723655</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.059090793116107</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038111482905451</v>
+        <v>1.053248815632907</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -556,37 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011468692378906</v>
+        <v>1.036710892566961</v>
       </c>
       <c r="D5">
-        <v>1.029661122839955</v>
+        <v>1.050840562325938</v>
       </c>
       <c r="E5">
-        <v>1.01543721107426</v>
+        <v>1.046612190147232</v>
+      </c>
+      <c r="F5">
+        <v>1.055110866423504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050609278103296</v>
+        <v>1.063420572001756</v>
       </c>
       <c r="J5">
-        <v>1.03013604399037</v>
+        <v>1.054788931574238</v>
       </c>
       <c r="K5">
-        <v>1.039198307136427</v>
+        <v>1.060151586881193</v>
       </c>
       <c r="L5">
-        <v>1.02513280508566</v>
+        <v>1.055967472212649</v>
+      </c>
+      <c r="M5">
+        <v>1.064377633832069</v>
       </c>
       <c r="N5">
-        <v>1.031598955331092</v>
+        <v>1.021726836936376</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.059522724758019</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038792271050643</v>
+        <v>1.053607748901822</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -597,37 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011761671467029</v>
+        <v>1.03688904042655</v>
       </c>
       <c r="D6">
-        <v>1.029868980408191</v>
+        <v>1.050966186793695</v>
       </c>
       <c r="E6">
-        <v>1.015684600655205</v>
+        <v>1.046752891056045</v>
+      </c>
+      <c r="F6">
+        <v>1.055243066467535</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050691235185495</v>
+        <v>1.063475379872486</v>
       </c>
       <c r="J6">
-        <v>1.03034694855333</v>
+        <v>1.054890781571659</v>
       </c>
       <c r="K6">
-        <v>1.03936763925606</v>
+        <v>1.060240613362897</v>
       </c>
       <c r="L6">
-        <v>1.025340465735508</v>
+        <v>1.056071216000172</v>
+      </c>
+      <c r="M6">
+        <v>1.064473369391328</v>
       </c>
       <c r="N6">
-        <v>1.031810159402722</v>
+        <v>1.021763760962669</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.059598491098235</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038920761001531</v>
+        <v>1.05367928285801</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -638,37 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00983788456975</v>
+        <v>1.035704223853917</v>
       </c>
       <c r="D7">
-        <v>1.028523193721598</v>
+        <v>1.050150317005738</v>
       </c>
       <c r="E7">
-        <v>1.014091192631628</v>
+        <v>1.045824745480966</v>
+      </c>
+      <c r="F7">
+        <v>1.054370114406539</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050169495119014</v>
+        <v>1.063126593472147</v>
       </c>
       <c r="J7">
-        <v>1.028987240820612</v>
+        <v>1.054230927100636</v>
       </c>
       <c r="K7">
-        <v>1.038286248011975</v>
+        <v>1.059676114544491</v>
       </c>
       <c r="L7">
-        <v>1.024019527520492</v>
+        <v>1.055397033228931</v>
+      </c>
+      <c r="M7">
+        <v>1.06385100836039</v>
       </c>
       <c r="N7">
-        <v>1.030448520729064</v>
+        <v>1.02153351403898</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.059105946523299</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038160335855932</v>
+        <v>1.053284272634615</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -679,37 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00155164729018</v>
+        <v>1.030651708680276</v>
       </c>
       <c r="D8">
-        <v>1.022724126302878</v>
+        <v>1.046672925749468</v>
       </c>
       <c r="E8">
-        <v>1.007231722483096</v>
+        <v>1.041876347931048</v>
+      </c>
+      <c r="F8">
+        <v>1.050660161200289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047884051824779</v>
+        <v>1.061615280142348</v>
       </c>
       <c r="J8">
-        <v>1.0231149351058</v>
+        <v>1.051406651032532</v>
       </c>
       <c r="K8">
-        <v>1.033604837159864</v>
+        <v>1.057255725462307</v>
       </c>
       <c r="L8">
-        <v>1.018314618503826</v>
+        <v>1.052517450761204</v>
+      </c>
+      <c r="M8">
+        <v>1.061194998133698</v>
       </c>
       <c r="N8">
-        <v>1.024567875666574</v>
+        <v>1.02054504989777</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.057003942109353</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034854783342521</v>
+        <v>1.051577408512006</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -720,37 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9859867599324414</v>
+        <v>1.021373671508313</v>
       </c>
       <c r="D9">
-        <v>1.011842300709696</v>
+        <v>1.040309198118861</v>
       </c>
       <c r="E9">
-        <v>0.9943849166424276</v>
+        <v>1.034669267622255</v>
+      </c>
+      <c r="F9">
+        <v>1.043902230913669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043460264568035</v>
+        <v>1.058761109285724</v>
       </c>
       <c r="J9">
-        <v>1.012044254976849</v>
+        <v>1.046193607818038</v>
       </c>
       <c r="K9">
-        <v>1.024746122896897</v>
+        <v>1.052780468901844</v>
       </c>
       <c r="L9">
-        <v>1.007569756362888</v>
+        <v>1.047223832427577</v>
+      </c>
+      <c r="M9">
+        <v>1.056321032773578</v>
       </c>
       <c r="N9">
-        <v>1.013481473902015</v>
+        <v>1.018714981401561</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.053146601281269</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028587749478976</v>
+        <v>1.048410077218292</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -761,37 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749099761258737</v>
+        <v>1.015006508632126</v>
       </c>
       <c r="D10">
-        <v>1.004122096424771</v>
+        <v>1.035988109406395</v>
       </c>
       <c r="E10">
-        <v>0.985291963390957</v>
+        <v>1.029788576195711</v>
+      </c>
+      <c r="F10">
+        <v>1.039369390843533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040236107188704</v>
+        <v>1.056780491269738</v>
       </c>
       <c r="J10">
-        <v>1.004155673473599</v>
+        <v>1.042637130882439</v>
       </c>
       <c r="K10">
-        <v>1.01841732187265</v>
+        <v>1.049736629549426</v>
       </c>
       <c r="L10">
-        <v>0.9999319527735625</v>
+        <v>1.043640041239432</v>
+      </c>
+      <c r="M10">
+        <v>1.053062429129004</v>
       </c>
       <c r="N10">
-        <v>1.005581689708197</v>
+        <v>1.017481059759038</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.050618366447801</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.024129783017159</v>
+        <v>1.046274511956011</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -802,37 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9699659643628109</v>
+        <v>1.012784565943969</v>
       </c>
       <c r="D11">
-        <v>1.000689918986226</v>
+        <v>1.034656153665791</v>
       </c>
       <c r="E11">
-        <v>0.9812634095941459</v>
+        <v>1.028340717544906</v>
+      </c>
+      <c r="F11">
+        <v>1.038304600744824</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038785878988771</v>
+        <v>1.056257334880455</v>
       </c>
       <c r="J11">
-        <v>1.000643861887691</v>
+        <v>1.041634996676806</v>
       </c>
       <c r="K11">
-        <v>1.01559883616365</v>
+        <v>1.048952819073953</v>
       </c>
       <c r="L11">
-        <v>0.9965475372486526</v>
+        <v>1.042747254478299</v>
+      </c>
+      <c r="M11">
+        <v>1.052538580023374</v>
       </c>
       <c r="N11">
-        <v>1.002064890947027</v>
+        <v>1.017250735088883</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.050633978335286</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022170304430479</v>
+        <v>1.045752711672792</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -843,37 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9680730685520957</v>
+        <v>1.012161900756003</v>
       </c>
       <c r="D12">
-        <v>0.9993733004428675</v>
+        <v>1.034356369026454</v>
       </c>
       <c r="E12">
-        <v>0.9797133995736602</v>
+        <v>1.028048707514999</v>
+      </c>
+      <c r="F12">
+        <v>1.038239095168286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03822477480804</v>
+        <v>1.056185927377153</v>
       </c>
       <c r="J12">
-        <v>0.9992929096749885</v>
+        <v>1.041460319124462</v>
       </c>
       <c r="K12">
-        <v>1.014512516884108</v>
+        <v>1.048853683472655</v>
       </c>
       <c r="L12">
-        <v>0.9952398598749699</v>
+        <v>1.042657570028649</v>
+      </c>
+      <c r="M12">
+        <v>1.052668617738648</v>
       </c>
       <c r="N12">
-        <v>1.000712020227226</v>
+        <v>1.017280116918191</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.051059120426481</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021402215496618</v>
+        <v>1.045682621458397</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -884,37 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9684755643217298</v>
+        <v>1.012748716447473</v>
       </c>
       <c r="D13">
-        <v>0.9996524777262582</v>
+        <v>1.034852914738849</v>
       </c>
       <c r="E13">
-        <v>0.9800409793482133</v>
+        <v>1.028646313500698</v>
+      </c>
+      <c r="F13">
+        <v>1.038964070327251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038343555051712</v>
+        <v>1.056475276455466</v>
       </c>
       <c r="J13">
-        <v>0.9995789716695013</v>
+        <v>1.041932473124717</v>
       </c>
       <c r="K13">
-        <v>1.014742282442272</v>
+        <v>1.049299624514151</v>
       </c>
       <c r="L13">
-        <v>0.9955154619707512</v>
+        <v>1.043202268182285</v>
+      </c>
+      <c r="M13">
+        <v>1.053339347594822</v>
       </c>
       <c r="N13">
-        <v>1.000998488462582</v>
+        <v>1.017522843465115</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.05186302150144</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021562134297352</v>
+        <v>1.045995451256547</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -925,37 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9698080309949866</v>
+        <v>1.013707209871226</v>
       </c>
       <c r="D14">
-        <v>1.000579730672563</v>
+        <v>1.035561738584025</v>
       </c>
       <c r="E14">
-        <v>0.9811332325012941</v>
+        <v>1.029466770581823</v>
+      </c>
+      <c r="F14">
+        <v>1.039829308255235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038738839381524</v>
+        <v>1.056841058031452</v>
       </c>
       <c r="J14">
-        <v>1.00053063593098</v>
+        <v>1.042555521440429</v>
       </c>
       <c r="K14">
-        <v>1.015507676917636</v>
+        <v>1.04985892317857</v>
       </c>
       <c r="L14">
-        <v>0.9964373894403536</v>
+        <v>1.043869858718199</v>
+      </c>
+      <c r="M14">
+        <v>1.054053295897563</v>
       </c>
       <c r="N14">
-        <v>1.00195150419647</v>
+        <v>1.017789123144027</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.052599002565867</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02210476279498</v>
+        <v>1.046392286943839</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -966,37 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9706345560823938</v>
+        <v>1.014211477896213</v>
       </c>
       <c r="D15">
-        <v>1.00115651957853</v>
+        <v>1.035917420985465</v>
       </c>
       <c r="E15">
-        <v>0.9818147568025686</v>
+        <v>1.029870722634086</v>
+      </c>
+      <c r="F15">
+        <v>1.040227354204122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038984981918119</v>
+        <v>1.057014767925865</v>
       </c>
       <c r="J15">
-        <v>1.001123301065386</v>
+        <v>1.042857176965425</v>
       </c>
       <c r="K15">
-        <v>1.015984852028369</v>
+        <v>1.05012400314573</v>
       </c>
       <c r="L15">
-        <v>0.9970140798873185</v>
+        <v>1.044181555908167</v>
+      </c>
+      <c r="M15">
+        <v>1.054360583563887</v>
       </c>
       <c r="N15">
-        <v>1.002545010983347</v>
+        <v>1.017904979846573</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.052879082603679</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022448127174121</v>
+        <v>1.046585486070362</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1007,37 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753175316331362</v>
+        <v>1.016798521514382</v>
       </c>
       <c r="D16">
-        <v>1.004417990925721</v>
+        <v>1.03765931052541</v>
       </c>
       <c r="E16">
-        <v>0.9856562454484868</v>
+        <v>1.031828328351429</v>
+      </c>
+      <c r="F16">
+        <v>1.042035421007668</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040366610072993</v>
+        <v>1.057816917167687</v>
       </c>
       <c r="J16">
-        <v>1.004465812942503</v>
+        <v>1.044286438977223</v>
       </c>
       <c r="K16">
-        <v>1.01867148805129</v>
+        <v>1.051345568590314</v>
       </c>
       <c r="L16">
-        <v>1.000251946555927</v>
+        <v>1.045610684334922</v>
+      </c>
+      <c r="M16">
+        <v>1.055650465291472</v>
       </c>
       <c r="N16">
-        <v>1.00589226961072</v>
+        <v>1.018386137802668</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.053860258641476</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024350936026014</v>
+        <v>1.047452269554517</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1048,37 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9782006204318076</v>
+        <v>1.018283055191529</v>
       </c>
       <c r="D17">
-        <v>1.006427921411466</v>
+        <v>1.038625862807284</v>
       </c>
       <c r="E17">
-        <v>0.9880243334863109</v>
+        <v>1.032902139959697</v>
+      </c>
+      <c r="F17">
+        <v>1.042966281584933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041212738326235</v>
+        <v>1.058238458173882</v>
       </c>
       <c r="J17">
-        <v>1.006523082702683</v>
+        <v>1.045056330411272</v>
       </c>
       <c r="K17">
-        <v>1.020324176810739</v>
+        <v>1.051988918378193</v>
       </c>
       <c r="L17">
-        <v>1.002245649084845</v>
+        <v>1.046356862731122</v>
+      </c>
+      <c r="M17">
+        <v>1.056260682424415</v>
       </c>
       <c r="N17">
-        <v>1.007952460929933</v>
+        <v>1.01861585144033</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.054214860627538</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02552209177624</v>
+        <v>1.047909676267473</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1089,37 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9798383353359409</v>
+        <v>1.01893822512894</v>
       </c>
       <c r="D18">
-        <v>1.00756637723276</v>
+        <v>1.038987468339449</v>
       </c>
       <c r="E18">
-        <v>0.989361208247312</v>
+        <v>1.033283376278661</v>
+      </c>
+      <c r="F18">
+        <v>1.043181849727491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041688251793185</v>
+        <v>1.058356029990853</v>
       </c>
       <c r="J18">
-        <v>1.007685276656525</v>
+        <v>1.045304379053057</v>
       </c>
       <c r="K18">
-        <v>1.021255770885233</v>
+        <v>1.052165530860145</v>
       </c>
       <c r="L18">
-        <v>1.003366143256993</v>
+        <v>1.046551304816285</v>
+      </c>
+      <c r="M18">
+        <v>1.056294632180445</v>
       </c>
       <c r="N18">
-        <v>1.009116305332494</v>
+        <v>1.018636193674118</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.054006735913576</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026168969851055</v>
+        <v>1.048023086283173</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1130,37 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804130865646619</v>
+        <v>1.018856639856852</v>
       </c>
       <c r="D19">
-        <v>1.007969087618906</v>
+        <v>1.038818763102341</v>
       </c>
       <c r="E19">
-        <v>0.9898378863127615</v>
+        <v>1.033049085760752</v>
+      </c>
+      <c r="F19">
+        <v>1.042759062198403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041857592541265</v>
+        <v>1.058210580179989</v>
       </c>
       <c r="J19">
-        <v>1.008097957216106</v>
+        <v>1.045095138428415</v>
       </c>
       <c r="K19">
-        <v>1.021587854336732</v>
+        <v>1.051938328819094</v>
       </c>
       <c r="L19">
-        <v>1.003768868044628</v>
+        <v>1.046259112798651</v>
+      </c>
+      <c r="M19">
+        <v>1.055817583460823</v>
       </c>
       <c r="N19">
-        <v>1.009529571945805</v>
+        <v>1.018480245003051</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.053308262227438</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026410249620082</v>
+        <v>1.047868749071716</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1171,37 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9778912912778389</v>
+        <v>1.016694643815337</v>
       </c>
       <c r="D20">
-        <v>1.006211901366657</v>
+        <v>1.037148497613182</v>
       </c>
       <c r="E20">
-        <v>0.9877694131185328</v>
+        <v>1.031088496033619</v>
+      </c>
+      <c r="F20">
+        <v>1.040576564427305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041121856998303</v>
+        <v>1.05732268664698</v>
       </c>
       <c r="J20">
-        <v>1.006301897591135</v>
+        <v>1.043596844873328</v>
       </c>
       <c r="K20">
-        <v>1.020146394401867</v>
+        <v>1.050568140941172</v>
       </c>
       <c r="L20">
-        <v>1.002030786808624</v>
+        <v>1.044605865053911</v>
+      </c>
+      <c r="M20">
+        <v>1.053941571282626</v>
       </c>
       <c r="N20">
-        <v>1.007730961710155</v>
+        <v>1.017823628554017</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.051303707846876</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025395036585729</v>
+        <v>1.046903867618036</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1212,37 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9694446039521004</v>
+        <v>1.01179745522843</v>
       </c>
       <c r="D21">
-        <v>1.000330842215613</v>
+        <v>1.033798644886887</v>
       </c>
       <c r="E21">
-        <v>0.980845948284661</v>
+        <v>1.027298817750338</v>
+      </c>
+      <c r="F21">
+        <v>1.037005822402206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038634682911837</v>
+        <v>1.055747957334901</v>
       </c>
       <c r="J21">
-        <v>1.000277810792031</v>
+        <v>1.040810078565926</v>
       </c>
       <c r="K21">
-        <v>1.01530594939978</v>
+        <v>1.04816678788625</v>
       </c>
       <c r="L21">
-        <v>0.9961995190481875</v>
+        <v>1.041780827201398</v>
+      </c>
+      <c r="M21">
+        <v>1.051318460959038</v>
       </c>
       <c r="N21">
-        <v>1.001698320016825</v>
+        <v>1.016834295260588</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.049187458561952</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021975884526061</v>
+        <v>1.045209254675363</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1253,37 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9639116135522388</v>
+        <v>1.008678198016838</v>
       </c>
       <c r="D22">
-        <v>0.9964808110073449</v>
+        <v>1.031674949910564</v>
       </c>
       <c r="E22">
-        <v>0.9763080893830971</v>
+        <v>1.024905303363067</v>
+      </c>
+      <c r="F22">
+        <v>1.034770882648574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036986301546006</v>
+        <v>1.054741751059238</v>
       </c>
       <c r="J22">
-        <v>0.9963217441564162</v>
+        <v>1.039042165946368</v>
       </c>
       <c r="K22">
-        <v>1.012122307577474</v>
+        <v>1.046643994683734</v>
       </c>
       <c r="L22">
-        <v>0.9923639655469564</v>
+        <v>1.039999016631155</v>
+      </c>
+      <c r="M22">
+        <v>1.049683620282176</v>
       </c>
       <c r="N22">
-        <v>0.9977366353128194</v>
+        <v>1.016209572620878</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.047893606002904</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019711106781021</v>
+        <v>1.044119283205366</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1294,37 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9668295324776265</v>
+        <v>1.010324315617117</v>
       </c>
       <c r="D23">
-        <v>0.9985055888664306</v>
+        <v>1.032789561640935</v>
       </c>
       <c r="E23">
-        <v>0.9786872085580048</v>
+        <v>1.026165026208603</v>
+      </c>
+      <c r="F23">
+        <v>1.035947559456427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037852668591987</v>
+        <v>1.055269079238716</v>
       </c>
       <c r="J23">
-        <v>0.9984000507548166</v>
+        <v>1.039969995993024</v>
       </c>
       <c r="K23">
-        <v>1.013793209160936</v>
+        <v>1.047439843173861</v>
       </c>
       <c r="L23">
-        <v>0.9943701233188663</v>
+        <v>1.040934141533466</v>
+      </c>
+      <c r="M23">
+        <v>1.050541885109448</v>
       </c>
       <c r="N23">
-        <v>0.9998178933449751</v>
+        <v>1.01653408625625</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.048572857882689</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02088272554292</v>
+        <v>1.044672461676245</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1335,37 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9779777129824803</v>
+        <v>1.016697017536417</v>
       </c>
       <c r="D24">
-        <v>1.006264093397837</v>
+        <v>1.037125291708805</v>
       </c>
       <c r="E24">
-        <v>0.987820836485611</v>
+        <v>1.031062550448318</v>
+      </c>
+      <c r="F24">
+        <v>1.040525488492249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041139948205881</v>
+        <v>1.057299492122203</v>
       </c>
       <c r="J24">
-        <v>1.006350664423142</v>
+        <v>1.043567140681308</v>
       </c>
       <c r="K24">
-        <v>1.020182090348034</v>
+        <v>1.050530371544036</v>
       </c>
       <c r="L24">
-        <v>1.0020652617963</v>
+        <v>1.044565281288241</v>
+      </c>
+      <c r="M24">
+        <v>1.05387644018683</v>
       </c>
       <c r="N24">
-        <v>1.007779797796658</v>
+        <v>1.017797764383022</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.051211900846272</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.02539248024421</v>
+        <v>1.046850158109552</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1376,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9901819397747642</v>
+        <v>1.02383866110996</v>
       </c>
       <c r="D25">
-        <v>1.014781038785437</v>
+        <v>1.042005607634499</v>
       </c>
       <c r="E25">
-        <v>0.9978594631919387</v>
+        <v>1.036582345777044</v>
+      </c>
+      <c r="F25">
+        <v>1.045693669066119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044674533493903</v>
+        <v>1.059535524089374</v>
       </c>
       <c r="J25">
-        <v>1.015044299457299</v>
+        <v>1.04758955653991</v>
       </c>
       <c r="K25">
-        <v>1.027154150982444</v>
+        <v>1.053985047819412</v>
       </c>
       <c r="L25">
-        <v>1.010491099368449</v>
+        <v>1.048638121588143</v>
+      </c>
+      <c r="M25">
+        <v>1.0576217681197</v>
       </c>
       <c r="N25">
-        <v>1.016485778789737</v>
+        <v>1.01921033958315</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.054176027740823</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030319287274519</v>
+        <v>1.049289900085868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029309600808322</v>
+        <v>1.027092739723208</v>
       </c>
       <c r="D2">
-        <v>1.045743174522805</v>
+        <v>1.042846060369735</v>
       </c>
       <c r="E2">
-        <v>1.04082740150638</v>
+        <v>1.038906312309018</v>
       </c>
       <c r="F2">
-        <v>1.049676014374546</v>
+        <v>1.047639814444525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.061202169094939</v>
+        <v>1.059549083559924</v>
       </c>
       <c r="J2">
-        <v>1.050647662194486</v>
+        <v>1.048492242916225</v>
       </c>
       <c r="K2">
-        <v>1.056599999229192</v>
+        <v>1.053739088893275</v>
       </c>
       <c r="L2">
-        <v>1.051745804848505</v>
+        <v>1.049848978305573</v>
       </c>
       <c r="M2">
-        <v>1.060484090360038</v>
+        <v>1.058473072833895</v>
       </c>
       <c r="N2">
-        <v>1.020275197344785</v>
+        <v>1.019738739404795</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.056441318569447</v>
+        <v>1.05484976557282</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051091251677588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049077038174678</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026132405526409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033202069142158</v>
+        <v>1.030785208307788</v>
       </c>
       <c r="D3">
-        <v>1.048419679621628</v>
+        <v>1.045294706893462</v>
       </c>
       <c r="E3">
-        <v>1.043864331240119</v>
+        <v>1.041763585135193</v>
       </c>
       <c r="F3">
-        <v>1.052527855518423</v>
+        <v>1.050322168702853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.062375959116271</v>
+        <v>1.060583775675394</v>
       </c>
       <c r="J3">
-        <v>1.052826789526942</v>
+        <v>1.050470423739863</v>
       </c>
       <c r="K3">
-        <v>1.058468353078088</v>
+        <v>1.055379066940896</v>
       </c>
       <c r="L3">
-        <v>1.053965113914912</v>
+        <v>1.051888588183758</v>
       </c>
       <c r="M3">
-        <v>1.062530011640093</v>
+        <v>1.060349244299187</v>
       </c>
       <c r="N3">
-        <v>1.021038646628351</v>
+        <v>1.020282689099659</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058060491577847</v>
+        <v>1.056334599239392</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052409677063856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050233712601639</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026481043523767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035676648367626</v>
+        <v>1.03313397204138</v>
       </c>
       <c r="D4">
-        <v>1.050125024824866</v>
+        <v>1.046856058705789</v>
       </c>
       <c r="E4">
-        <v>1.045800789304435</v>
+        <v>1.043586950082926</v>
       </c>
       <c r="F4">
-        <v>1.054347935904692</v>
+        <v>1.052035385073351</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063113086457444</v>
+        <v>1.061232884747114</v>
       </c>
       <c r="J4">
-        <v>1.054209766810827</v>
+        <v>1.051726473670216</v>
       </c>
       <c r="K4">
-        <v>1.059653904106261</v>
+        <v>1.056420042310275</v>
       </c>
       <c r="L4">
-        <v>1.055376162541683</v>
+        <v>1.053186309344487</v>
       </c>
       <c r="M4">
-        <v>1.063831861084189</v>
+        <v>1.061543873295882</v>
       </c>
       <c r="N4">
-        <v>1.021523085723655</v>
+        <v>1.020628178576102</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059090793116107</v>
+        <v>1.057280047222243</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053248815632907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050970711637039</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026700073611732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036710892566961</v>
+        <v>1.034115741227518</v>
       </c>
       <c r="D5">
-        <v>1.050840562325938</v>
+        <v>1.047511535644718</v>
       </c>
       <c r="E5">
-        <v>1.046612190147232</v>
+        <v>1.04435114201073</v>
       </c>
       <c r="F5">
-        <v>1.055110866423504</v>
+        <v>1.05275373623427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.063420572001756</v>
+        <v>1.061503600940386</v>
       </c>
       <c r="J5">
-        <v>1.054788931574238</v>
+        <v>1.052252597039858</v>
       </c>
       <c r="K5">
-        <v>1.060151586881193</v>
+        <v>1.056857367881477</v>
       </c>
       <c r="L5">
-        <v>1.055967472212649</v>
+        <v>1.053730269866225</v>
       </c>
       <c r="M5">
-        <v>1.064377633832069</v>
+        <v>1.062044878595162</v>
       </c>
       <c r="N5">
-        <v>1.021726836936376</v>
+        <v>1.020773538602573</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059522724758019</v>
+        <v>1.057676550266798</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053607748901822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051287683802675</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026792250000915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03688904042655</v>
+        <v>1.034284631024069</v>
       </c>
       <c r="D6">
-        <v>1.050966186793695</v>
+        <v>1.047626730249779</v>
       </c>
       <c r="E6">
-        <v>1.046752891056045</v>
+        <v>1.044483479721007</v>
       </c>
       <c r="F6">
-        <v>1.055243066467535</v>
+        <v>1.052878123008336</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.063475379872486</v>
+        <v>1.061551987102181</v>
       </c>
       <c r="J6">
-        <v>1.054890781571659</v>
+        <v>1.052345098269653</v>
       </c>
       <c r="K6">
-        <v>1.060240613362897</v>
+        <v>1.05693591520122</v>
       </c>
       <c r="L6">
-        <v>1.056071216000172</v>
+        <v>1.053825629087917</v>
       </c>
       <c r="M6">
-        <v>1.064473369391328</v>
+        <v>1.062132770492551</v>
       </c>
       <c r="N6">
-        <v>1.021763760962669</v>
+        <v>1.020799849565103</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059598491098235</v>
+        <v>1.057746109200332</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.05367928285801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051352681359633</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026809635570565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035704223853917</v>
+        <v>1.033168402312076</v>
       </c>
       <c r="D7">
-        <v>1.050150317005738</v>
+        <v>1.046885972998702</v>
       </c>
       <c r="E7">
-        <v>1.045824745480966</v>
+        <v>1.043616674701948</v>
       </c>
       <c r="F7">
-        <v>1.054370114406539</v>
+        <v>1.052061892662637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.063126593472147</v>
+        <v>1.061249860491703</v>
       </c>
       <c r="J7">
-        <v>1.054230927100636</v>
+        <v>1.051754302435327</v>
       </c>
       <c r="K7">
-        <v>1.059676114544491</v>
+        <v>1.056446811332655</v>
       </c>
       <c r="L7">
-        <v>1.055397033228931</v>
+        <v>1.053212876522249</v>
       </c>
       <c r="M7">
-        <v>1.06385100836039</v>
+        <v>1.061567294165833</v>
       </c>
       <c r="N7">
-        <v>1.02153351403898</v>
+        <v>1.02066438290201</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059105946523299</v>
+        <v>1.057298582851597</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053284272634615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051011399763671</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026709128176565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030651708680276</v>
+        <v>1.028392077228033</v>
       </c>
       <c r="D8">
-        <v>1.046672925749468</v>
+        <v>1.043716681700798</v>
       </c>
       <c r="E8">
-        <v>1.041876347931048</v>
+        <v>1.039915934109877</v>
       </c>
       <c r="F8">
-        <v>1.050660161200289</v>
+        <v>1.048583048099643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.061615280142348</v>
+        <v>1.059928240790755</v>
       </c>
       <c r="J8">
-        <v>1.051406651032532</v>
+        <v>1.049207561790792</v>
       </c>
       <c r="K8">
-        <v>1.057255725462307</v>
+        <v>1.054335336264727</v>
       </c>
       <c r="L8">
-        <v>1.052517450761204</v>
+        <v>1.05058105864755</v>
       </c>
       <c r="M8">
-        <v>1.061194998133698</v>
+        <v>1.059142814309046</v>
       </c>
       <c r="N8">
-        <v>1.02054504989777</v>
+        <v>1.020018770840889</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057003942109353</v>
+        <v>1.05537981057801</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051577408512006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.049523416959167</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026265982127622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021373671508313</v>
+        <v>1.019603957360426</v>
       </c>
       <c r="D9">
-        <v>1.040309198118861</v>
+        <v>1.0379047922305</v>
       </c>
       <c r="E9">
-        <v>1.034669267622255</v>
+        <v>1.033148423072107</v>
       </c>
       <c r="F9">
-        <v>1.043902230913669</v>
+        <v>1.042237891134684</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058761109285724</v>
+        <v>1.057410602875208</v>
       </c>
       <c r="J9">
-        <v>1.046193607818038</v>
+        <v>1.044482947836411</v>
       </c>
       <c r="K9">
-        <v>1.052780468901844</v>
+        <v>1.050411432169098</v>
       </c>
       <c r="L9">
-        <v>1.047223832427577</v>
+        <v>1.045725646664983</v>
       </c>
       <c r="M9">
-        <v>1.056321032773578</v>
+        <v>1.054680940223941</v>
       </c>
       <c r="N9">
-        <v>1.018714981401561</v>
+        <v>1.018728084855435</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.053146601281269</v>
+        <v>1.051848599134628</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048410077218292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04674563349231</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025417168079499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015006508632126</v>
+        <v>1.013613854027551</v>
       </c>
       <c r="D10">
-        <v>1.035988109406395</v>
+        <v>1.033990718765487</v>
       </c>
       <c r="E10">
-        <v>1.029788576195711</v>
+        <v>1.028603369132934</v>
       </c>
       <c r="F10">
-        <v>1.039369390843533</v>
+        <v>1.038014967597259</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.056780491269738</v>
+        <v>1.055680219285782</v>
       </c>
       <c r="J10">
-        <v>1.042637130882439</v>
+        <v>1.041297555789243</v>
       </c>
       <c r="K10">
-        <v>1.049736629549426</v>
+        <v>1.047772232603548</v>
       </c>
       <c r="L10">
-        <v>1.043640041239432</v>
+        <v>1.042474697012624</v>
       </c>
       <c r="M10">
-        <v>1.053062429129004</v>
+        <v>1.05173017418125</v>
       </c>
       <c r="N10">
-        <v>1.017481059759038</v>
+        <v>1.017982020507177</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.050618366447801</v>
+        <v>1.049564053686293</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046274511956011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044897849543245</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024849221851345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012784565943969</v>
+        <v>1.0115273096761</v>
       </c>
       <c r="D11">
-        <v>1.034656153665791</v>
+        <v>1.032796575755456</v>
       </c>
       <c r="E11">
-        <v>1.028340717544906</v>
+        <v>1.027265874269423</v>
       </c>
       <c r="F11">
-        <v>1.038304600744824</v>
+        <v>1.037055285135184</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056257334880455</v>
+        <v>1.055243815059694</v>
       </c>
       <c r="J11">
-        <v>1.041634996676806</v>
+        <v>1.040428279398857</v>
       </c>
       <c r="K11">
-        <v>1.048952819073953</v>
+        <v>1.047125412173701</v>
       </c>
       <c r="L11">
-        <v>1.042747254478299</v>
+        <v>1.041691284933502</v>
       </c>
       <c r="M11">
-        <v>1.052538580023374</v>
+        <v>1.051310665463063</v>
       </c>
       <c r="N11">
-        <v>1.017250735088883</v>
+        <v>1.018052415929009</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.050633978335286</v>
+        <v>1.049662713487204</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045752711672792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04447612803451</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024786652347158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012161900756003</v>
+        <v>1.01092512781532</v>
       </c>
       <c r="D12">
-        <v>1.034356369026454</v>
+        <v>1.032518821108068</v>
       </c>
       <c r="E12">
-        <v>1.028048707514999</v>
+        <v>1.026983902772068</v>
       </c>
       <c r="F12">
-        <v>1.038239095168286</v>
+        <v>1.037004342537015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056185927377153</v>
+        <v>1.055186329270522</v>
       </c>
       <c r="J12">
-        <v>1.041460319124462</v>
+        <v>1.040274207119513</v>
       </c>
       <c r="K12">
-        <v>1.048853683472655</v>
+        <v>1.04704844933779</v>
       </c>
       <c r="L12">
-        <v>1.042657570028649</v>
+        <v>1.041611771403959</v>
       </c>
       <c r="M12">
-        <v>1.052668617738648</v>
+        <v>1.051455352442837</v>
       </c>
       <c r="N12">
-        <v>1.017280116918191</v>
+        <v>1.018168520600573</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.051059120426481</v>
+        <v>1.05009975991529</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045682621458397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04442171520802</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024823216205248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012748716447473</v>
+        <v>1.011431224597513</v>
       </c>
       <c r="D13">
-        <v>1.034852914738849</v>
+        <v>1.032939531862502</v>
       </c>
       <c r="E13">
-        <v>1.028646313500698</v>
+        <v>1.027503362692615</v>
       </c>
       <c r="F13">
-        <v>1.038964070327251</v>
+        <v>1.037666093197525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056475276455466</v>
+        <v>1.055427197583637</v>
       </c>
       <c r="J13">
-        <v>1.041932473124717</v>
+        <v>1.040668669447513</v>
       </c>
       <c r="K13">
-        <v>1.049299624514151</v>
+        <v>1.04741973847831</v>
       </c>
       <c r="L13">
-        <v>1.043202268182285</v>
+        <v>1.042079621675179</v>
       </c>
       <c r="M13">
-        <v>1.053339347594822</v>
+        <v>1.052063844067607</v>
       </c>
       <c r="N13">
-        <v>1.017522843465115</v>
+        <v>1.018298791395786</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.05186302150144</v>
+        <v>1.050854695740988</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045995451256547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044681517414362</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024945226041614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013707209871226</v>
+        <v>1.012288811649669</v>
       </c>
       <c r="D14">
-        <v>1.035561738584025</v>
+        <v>1.033552282541465</v>
       </c>
       <c r="E14">
-        <v>1.029466770581823</v>
+        <v>1.02823098339927</v>
       </c>
       <c r="F14">
-        <v>1.039829308255235</v>
+        <v>1.038453185786604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056841058031452</v>
+        <v>1.055731598010445</v>
       </c>
       <c r="J14">
-        <v>1.042555521440429</v>
+        <v>1.041194086523257</v>
       </c>
       <c r="K14">
-        <v>1.04985892317857</v>
+        <v>1.047884203989355</v>
       </c>
       <c r="L14">
-        <v>1.043869858718199</v>
+        <v>1.042655742436905</v>
       </c>
       <c r="M14">
-        <v>1.054053295897563</v>
+        <v>1.052700691630832</v>
       </c>
       <c r="N14">
-        <v>1.017789123144027</v>
+        <v>1.018398410068845</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.052599002565867</v>
+        <v>1.051529868174625</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046392286943839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045011438172001</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025070173672431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014211477896213</v>
+        <v>1.012746458890307</v>
       </c>
       <c r="D15">
-        <v>1.035917420985465</v>
+        <v>1.033863137999942</v>
       </c>
       <c r="E15">
-        <v>1.029870722634086</v>
+        <v>1.028593246635421</v>
       </c>
       <c r="F15">
-        <v>1.040227354204122</v>
+        <v>1.038815286693092</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057014767925865</v>
+        <v>1.055876692491351</v>
       </c>
       <c r="J15">
-        <v>1.042857176965425</v>
+        <v>1.041450477053756</v>
       </c>
       <c r="K15">
-        <v>1.05012400314573</v>
+        <v>1.048104961224321</v>
       </c>
       <c r="L15">
-        <v>1.044181555908167</v>
+        <v>1.042926307934422</v>
       </c>
       <c r="M15">
-        <v>1.054360583563887</v>
+        <v>1.052972462149295</v>
       </c>
       <c r="N15">
-        <v>1.017904979846573</v>
+        <v>1.018432272445735</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.052879082603679</v>
+        <v>1.051781902991008</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046585486070362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045173870920224</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025123037233191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016798521514382</v>
+        <v>1.015131246996084</v>
       </c>
       <c r="D16">
-        <v>1.03765931052541</v>
+        <v>1.035405326313849</v>
       </c>
       <c r="E16">
-        <v>1.031828328351429</v>
+        <v>1.03037530205779</v>
       </c>
       <c r="F16">
-        <v>1.042035421007668</v>
+        <v>1.040466694209396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057816917167687</v>
+        <v>1.056552140784763</v>
       </c>
       <c r="J16">
-        <v>1.044286438977223</v>
+        <v>1.042682217759817</v>
       </c>
       <c r="K16">
-        <v>1.051345568590314</v>
+        <v>1.049128566256853</v>
       </c>
       <c r="L16">
-        <v>1.045610684334922</v>
+        <v>1.044181822802355</v>
       </c>
       <c r="M16">
-        <v>1.055650465291472</v>
+        <v>1.054107178390712</v>
       </c>
       <c r="N16">
-        <v>1.018386137802668</v>
+        <v>1.018548187702037</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.053860258641476</v>
+        <v>1.052640400802187</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047452269554517</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045900992672797</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025334335287948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018283055191529</v>
+        <v>1.016522795937373</v>
       </c>
       <c r="D17">
-        <v>1.038625862807284</v>
+        <v>1.036275449034425</v>
       </c>
       <c r="E17">
-        <v>1.032902139959697</v>
+        <v>1.031370361222546</v>
       </c>
       <c r="F17">
-        <v>1.042966281584933</v>
+        <v>1.041324014162199</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058238458173882</v>
+        <v>1.056913320817533</v>
       </c>
       <c r="J17">
-        <v>1.045056330411272</v>
+        <v>1.043360507440097</v>
       </c>
       <c r="K17">
-        <v>1.051988918378193</v>
+        <v>1.049675990108763</v>
       </c>
       <c r="L17">
-        <v>1.046356862731122</v>
+        <v>1.044849837471783</v>
       </c>
       <c r="M17">
-        <v>1.056260682424415</v>
+        <v>1.054644305453894</v>
       </c>
       <c r="N17">
-        <v>1.01861585144033</v>
+        <v>1.018614266959433</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.054214860627538</v>
+        <v>1.052937105039678</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047909676267473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04629082631344</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025431979830681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01893822512894</v>
+        <v>1.017161340306947</v>
       </c>
       <c r="D18">
-        <v>1.038987468339449</v>
+        <v>1.036614759887636</v>
       </c>
       <c r="E18">
-        <v>1.033283376278661</v>
+        <v>1.03174152954089</v>
       </c>
       <c r="F18">
-        <v>1.043181849727491</v>
+        <v>1.041525177249899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058356029990853</v>
+        <v>1.057017748998674</v>
       </c>
       <c r="J18">
-        <v>1.045304379053057</v>
+        <v>1.043591330781078</v>
       </c>
       <c r="K18">
-        <v>1.052165530860145</v>
+        <v>1.049830049882779</v>
       </c>
       <c r="L18">
-        <v>1.046551304816285</v>
+        <v>1.045033967955204</v>
       </c>
       <c r="M18">
-        <v>1.056294632180445</v>
+        <v>1.054663663362021</v>
       </c>
       <c r="N18">
-        <v>1.018636193674118</v>
+        <v>1.018594820962962</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.054006735913576</v>
+        <v>1.052717182194912</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048023086283173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046387151823104</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025428243374105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018856639856852</v>
+        <v>1.017123756133085</v>
       </c>
       <c r="D19">
-        <v>1.038818763102341</v>
+        <v>1.036484888379957</v>
       </c>
       <c r="E19">
-        <v>1.033049085760752</v>
+        <v>1.031551931745518</v>
       </c>
       <c r="F19">
-        <v>1.042759062198403</v>
+        <v>1.041135970378538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058210580179989</v>
+        <v>1.05689760767701</v>
       </c>
       <c r="J19">
-        <v>1.045095138428415</v>
+        <v>1.043424158358921</v>
       </c>
       <c r="K19">
-        <v>1.051938328819094</v>
+        <v>1.04964089119485</v>
       </c>
       <c r="L19">
-        <v>1.046259112798651</v>
+        <v>1.044785644064217</v>
       </c>
       <c r="M19">
-        <v>1.055817583460823</v>
+        <v>1.054219565647959</v>
       </c>
       <c r="N19">
-        <v>1.018480245003051</v>
+        <v>1.018486169231156</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.053308262227438</v>
+        <v>1.052044359096723</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047868749071716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046260339439425</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025338724547334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016694643815337</v>
+        <v>1.015173983371484</v>
       </c>
       <c r="D20">
-        <v>1.037148497613182</v>
+        <v>1.035023093155807</v>
       </c>
       <c r="E20">
-        <v>1.031088496033619</v>
+        <v>1.029789238626236</v>
       </c>
       <c r="F20">
-        <v>1.040576564427305</v>
+        <v>1.039121035846345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05732268664698</v>
+        <v>1.056141645083462</v>
       </c>
       <c r="J20">
-        <v>1.043596844873328</v>
+        <v>1.042132249765787</v>
       </c>
       <c r="K20">
-        <v>1.050568140941172</v>
+        <v>1.048476844327872</v>
       </c>
       <c r="L20">
-        <v>1.044605865053911</v>
+        <v>1.043327752309211</v>
       </c>
       <c r="M20">
-        <v>1.053941571282626</v>
+        <v>1.052509184459907</v>
       </c>
       <c r="N20">
-        <v>1.017823628554017</v>
+        <v>1.018113748665756</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.051303707846876</v>
+        <v>1.050170140111367</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046903867618036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045441596300966</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025004983769512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01179745522843</v>
+        <v>1.010701932242184</v>
       </c>
       <c r="D21">
-        <v>1.033798644886887</v>
+        <v>1.032086889097998</v>
       </c>
       <c r="E21">
-        <v>1.027298817750338</v>
+        <v>1.026378562267186</v>
       </c>
       <c r="F21">
-        <v>1.037005822402206</v>
+        <v>1.035881156816221</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055747957334901</v>
+        <v>1.054830142684954</v>
       </c>
       <c r="J21">
-        <v>1.040810078565926</v>
+        <v>1.039758925743253</v>
       </c>
       <c r="K21">
-        <v>1.04816678788625</v>
+        <v>1.046484839131157</v>
       </c>
       <c r="L21">
-        <v>1.041780827201398</v>
+        <v>1.040876844283248</v>
       </c>
       <c r="M21">
-        <v>1.051318460959038</v>
+        <v>1.050213208578549</v>
       </c>
       <c r="N21">
-        <v>1.016834295260588</v>
+        <v>1.017887264261404</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.049187458561952</v>
+        <v>1.048312735271051</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045209254675363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044036730786447</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024574917432827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008678198016838</v>
+        <v>1.007851420784491</v>
       </c>
       <c r="D22">
-        <v>1.031674949910564</v>
+        <v>1.030224816619302</v>
       </c>
       <c r="E22">
-        <v>1.024905303363067</v>
+        <v>1.024225134745699</v>
       </c>
       <c r="F22">
-        <v>1.034770882648574</v>
+        <v>1.033855914297406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054741751059238</v>
+        <v>1.053989826886225</v>
       </c>
       <c r="J22">
-        <v>1.039042165946368</v>
+        <v>1.038250833688238</v>
       </c>
       <c r="K22">
-        <v>1.046643994683734</v>
+        <v>1.045220387190956</v>
       </c>
       <c r="L22">
-        <v>1.039999016631155</v>
+        <v>1.039331492724953</v>
       </c>
       <c r="M22">
-        <v>1.049683620282176</v>
+        <v>1.048785247208725</v>
       </c>
       <c r="N22">
-        <v>1.016209572620878</v>
+        <v>1.017739459614641</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047893606002904</v>
+        <v>1.047182610803721</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044119283205366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043128111610353</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024302328358717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010324315617117</v>
+        <v>1.009341920737988</v>
       </c>
       <c r="D23">
-        <v>1.032789561640935</v>
+        <v>1.031190930200412</v>
       </c>
       <c r="E23">
-        <v>1.026165026208603</v>
+        <v>1.025345979341512</v>
       </c>
       <c r="F23">
-        <v>1.035947559456427</v>
+        <v>1.034912473241108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055269079238716</v>
+        <v>1.054422309163656</v>
       </c>
       <c r="J23">
-        <v>1.039969995993024</v>
+        <v>1.039028477207253</v>
       </c>
       <c r="K23">
-        <v>1.047439843173861</v>
+        <v>1.04586970719479</v>
       </c>
       <c r="L23">
-        <v>1.040934141533466</v>
+        <v>1.040129925815026</v>
       </c>
       <c r="M23">
-        <v>1.050541885109448</v>
+        <v>1.049525090564815</v>
       </c>
       <c r="N23">
-        <v>1.01653408625625</v>
+        <v>1.017768294576485</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.048572857882689</v>
+        <v>1.047768141619911</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044672461676245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043576745510998</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024438032183943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016697017536417</v>
+        <v>1.015182327586551</v>
       </c>
       <c r="D24">
-        <v>1.037125291708805</v>
+        <v>1.035004602664809</v>
       </c>
       <c r="E24">
-        <v>1.031062550448318</v>
+        <v>1.029769603485195</v>
       </c>
       <c r="F24">
-        <v>1.040525488492249</v>
+        <v>1.039074440010096</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057299492122203</v>
+        <v>1.056121676024809</v>
       </c>
       <c r="J24">
-        <v>1.043567140681308</v>
+        <v>1.042108217024922</v>
       </c>
       <c r="K24">
-        <v>1.050530371544036</v>
+        <v>1.048443673001229</v>
       </c>
       <c r="L24">
-        <v>1.044565281288241</v>
+        <v>1.043293350589918</v>
       </c>
       <c r="M24">
-        <v>1.05387644018683</v>
+        <v>1.052448435598708</v>
       </c>
       <c r="N24">
-        <v>1.017797764383022</v>
+        <v>1.018093351986322</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.051211900846272</v>
+        <v>1.050081746579451</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046850158109552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045388457039765</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02498765424008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02383866110996</v>
+        <v>1.021925084933385</v>
       </c>
       <c r="D25">
-        <v>1.042005607634499</v>
+        <v>1.039445007113027</v>
       </c>
       <c r="E25">
-        <v>1.036582345777044</v>
+        <v>1.034932597065244</v>
       </c>
       <c r="F25">
-        <v>1.045693669066119</v>
+        <v>1.043910510001494</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059535524089374</v>
+        <v>1.058088831943499</v>
       </c>
       <c r="J25">
-        <v>1.04758955653991</v>
+        <v>1.045736459634897</v>
       </c>
       <c r="K25">
-        <v>1.053985047819412</v>
+        <v>1.051460363864424</v>
       </c>
       <c r="L25">
-        <v>1.048638121588143</v>
+        <v>1.047011794804281</v>
       </c>
       <c r="M25">
-        <v>1.0576217681197</v>
+        <v>1.055863375076503</v>
       </c>
       <c r="N25">
-        <v>1.01921033958315</v>
+        <v>1.019042630882934</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.054176027740823</v>
+        <v>1.052784402023517</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049289900085868</v>
+        <v>1.047518221249531</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025648505760779</v>
       </c>
     </row>
   </sheetData>
